--- a/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_シングルプレイ画面.xlsx
+++ b/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_シングルプレイ画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beaming-boy/growth/テトリス/ドキュメント共有フォルダ/2021年_テトリス/02_基本設計書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5919DB-B5C0-F14A-8018-2CD5FEBB87D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5573D6B-7B82-1C41-9C76-CE3C2BFDD3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20920" activeTab="2" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
+    <workbookView xWindow="-33600" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
   </bookViews>
   <sheets>
     <sheet name="ヘッダー" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">シングルプレイ画面!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">シングルプレイ画面!$A$1:$BA$95</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">シングルプレイ画面!$A$1:$BA$107</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ヘッダー!$A$1:$AZ$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改訂履歴!$A$1:$BA$68</definedName>
   </definedNames>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="100">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -785,33 +785,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲームフィールド上で右にスワイプ</t>
-    <rPh sb="8" eb="9">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ミギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームフィールド上で左にスワイプ</t>
-    <rPh sb="8" eb="9">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ヒダリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームフィールド上でタップ</t>
-    <rPh sb="8" eb="9">
-      <t>ジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>遠山</t>
     <rPh sb="0" eb="2">
       <t>トオヤｍア</t>
@@ -881,11 +854,104 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>左移動</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダｒイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右移動</t>
+    <rPh sb="0" eb="1">
+      <t>スワイプ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックを1コマ右に移動</t>
+    <rPh sb="8" eb="9">
+      <t>ミｇイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックを1コマ左に移動</t>
+    <rPh sb="8" eb="9">
+      <t>ヒダｒイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバー時以外は常に活性化</t>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">ジ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツｎエ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>カッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・右上に共通ログアウトボタンを設置</t>
+    <rPh sb="1" eb="3">
+      <t>ミギウエｎイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セｔｔイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【基本設計】画面設計書(処理設計)　_共通処理.xlsx参照</t>
+    <rPh sb="1" eb="3">
+      <t>キホｎン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">セッケイ </t>
+    </rPh>
+    <rPh sb="6" eb="11">
+      <t>ガメｎン</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ショｒイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン時のみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+  </numFmts>
   <fonts count="22">
     <font>
       <sz val="10"/>
@@ -1239,7 +1305,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1402,6 +1468,33 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1447,42 +1540,6 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1499,6 +1556,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1528,6 +1594,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="6" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1536,6 +1605,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF521B93"/>
       <color rgb="FF00FFFF"/>
     </mruColors>
   </colors>
@@ -1580,7 +1650,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3265"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3490"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1611,299 +1681,1682 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>52</xdr:col>
-          <xdr:colOff>220077</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>88901</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="2" name="図 1">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>220077</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="グループ化 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01C7E004-793F-A740-98CF-8E5E6EBF538E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="1"/>
+          <a:ext cx="14738717" cy="14277973"/>
+          <a:chOff x="0" y="1"/>
+          <a:chExt cx="14718397" cy="14277973"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="2" name="図 1">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{419AFF18-90CB-014B-A5DF-DBA85C1479BA}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+                <a:extLst>
+                  <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                    <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2460"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="0" y="1"/>
+                <a:ext cx="14718397" cy="668020"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+          </xdr:pic>
+        </mc:Choice>
+        <mc:Fallback/>
+      </mc:AlternateContent>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="12" name="図 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0944734-D80F-4373-BCA5-717E9D4765FF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10980420" y="8153399"/>
+            <a:ext cx="3645356" cy="6124575"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="15" name="図 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17EFA8EB-FD9B-4CB1-B7F4-6CD221DBDBD7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5636260" y="8105775"/>
+            <a:ext cx="3681059" cy="6105525"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="21" name="図 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD89FABB-4CFF-4E92-B7DA-93EC8FEE06D0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="586105" y="8096251"/>
+            <a:ext cx="3675380" cy="6149580"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="22" name="図 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB65BDD7-0B7B-4EE4-9A1A-EF8C4AB31B1A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8065135" y="10610850"/>
+            <a:ext cx="1108843" cy="1228870"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="23" name="図 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D99616D-15B9-4A19-9DCA-85F099059AE0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3032760" y="10566400"/>
+            <a:ext cx="1127258" cy="1228870"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="正方形/長方形 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76A932D5-6D78-4FE8-8F8E-62E52F920B32}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="320675" y="9023350"/>
+            <a:ext cx="332105" cy="311150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="正方形/長方形 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{448E886D-1A3D-40C3-AC0B-9A00DCDCB9D8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="567055" y="9798050"/>
+            <a:ext cx="301625" cy="311150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="正方形/長方形 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5398E71D-F9BA-44DA-B00F-838109BC8E44}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3416935" y="9236075"/>
+            <a:ext cx="301625" cy="311150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>3</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="正方形/長方形 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86B0F130-ED1E-4ABB-AD8D-582D4D8F3D61}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3378835" y="10601325"/>
+            <a:ext cx="301625" cy="279400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>4</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="正方形/長方形 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43B5D6A9-2F72-4FED-B6CD-A94E8F850A03}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3378835" y="11191875"/>
+            <a:ext cx="301625" cy="279400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>51</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="正方形/長方形 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD1A8081-F23D-429F-9E24-9DEFC7C0D3AE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="878205" y="10823575"/>
+            <a:ext cx="409575" cy="311150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>6</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="正方形/長方形 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E952EB0-2728-4A81-8836-1081415A40E4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11272520" y="10747375"/>
+            <a:ext cx="301625" cy="279400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>7</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="8" name="グループ化 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6563DF50-2EEE-A743-A0B8-AC93F8CCBD8E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2976884" y="11938001"/>
+            <a:ext cx="1198877" cy="2203335"/>
+            <a:chOff x="9529579" y="11569968"/>
+            <a:chExt cx="1206663" cy="2218481"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32" name="角丸四角形 31">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{419AFF18-90CB-014B-A5DF-DBA85C1479BA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{422AAF18-85DB-954E-9E56-70E0DB8F75DE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9529579" y="11569968"/>
+              <a:ext cx="1206663" cy="2218481"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="521B93"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="33" name="右矢印 32">
               <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2236"/>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{621B29C9-4607-8A47-AD48-9C4121CEE73E}"/>
                 </a:ext>
               </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="10800000">
+              <a:off x="9868934" y="11706576"/>
+              <a:ext cx="508000" cy="461291"/>
+            </a:xfrm>
+            <a:prstGeom prst="rightArrow">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="63500" dist="25400" dir="3600000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="98000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="34" name="右矢印 33">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD997753-CE44-834A-AAE4-4F12654D94CF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="1"/>
-              <a:ext cx="14710777" cy="660400"/>
+              <a:off x="9891340" y="12438344"/>
+              <a:ext cx="508000" cy="459928"/>
             </a:xfrm>
-            <a:prstGeom prst="rect">
+            <a:prstGeom prst="rightArrow">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="63500" dist="25400" dir="3600000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="98000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>127456</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0944734-D80F-4373-BCA5-717E9D4765FF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8362950" y="9239249"/>
-          <a:ext cx="3156406" cy="5172075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>152999</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17EFA8EB-FD9B-4CB1-B7F4-6CD221DBDBD7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4419600" y="9191625"/>
-          <a:ext cx="3210524" cy="5153025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>187325</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>72631</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="図 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD89FABB-4CFF-4E92-B7DA-93EC8FEE06D0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="485775" y="9182101"/>
-          <a:ext cx="3181350" cy="5197080"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>9658</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>104920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="図 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB65BDD7-0B7B-4EE4-9A1A-EF8C4AB31B1A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6534150" y="11315700"/>
-          <a:ext cx="952633" cy="1038370"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>85858</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>60470</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D99616D-15B9-4A19-9DCA-85F099059AE0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3022600" y="10553700"/>
-          <a:ext cx="1127258" cy="1228870"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="35" name="円/楕円 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80B0CFE8-A3B7-0E4F-9DD3-ED786032A8E1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9851479" y="13154691"/>
+              <a:ext cx="571500" cy="575592"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="63500" dist="25400" dir="3600000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="98000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="36" name="環状矢印 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94830473-558A-A743-8CCD-6B76DDDE02D1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9891340" y="13178327"/>
+              <a:ext cx="495300" cy="512092"/>
+            </a:xfrm>
+            <a:prstGeom prst="circularArrow">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 16656"/>
+                <a:gd name="adj2" fmla="val 1699792"/>
+                <a:gd name="adj3" fmla="val 19335498"/>
+                <a:gd name="adj4" fmla="val 21528368"/>
+                <a:gd name="adj5" fmla="val 22995"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="49" name="グループ化 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9559E0DE-A3A9-974C-989A-26D0CF2B2871}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="8006080" y="11907520"/>
+            <a:ext cx="1198877" cy="2203335"/>
+            <a:chOff x="9529579" y="11569968"/>
+            <a:chExt cx="1206663" cy="2218481"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="50" name="角丸四角形 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E25845AB-B4EE-9E48-9340-C3EEC4CE514F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9529579" y="11569968"/>
+              <a:ext cx="1206663" cy="2218481"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="521B93"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="51" name="右矢印 50">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEEF09EE-E1CB-1440-BF80-33F839AD1C24}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="10800000">
+              <a:off x="9868934" y="11706576"/>
+              <a:ext cx="508000" cy="461291"/>
+            </a:xfrm>
+            <a:prstGeom prst="rightArrow">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="63500" dist="25400" dir="3600000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="98000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="52" name="右矢印 51">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{577C3335-767E-CF48-A8A6-7726DAC8242A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9891340" y="12438344"/>
+              <a:ext cx="508000" cy="459928"/>
+            </a:xfrm>
+            <a:prstGeom prst="rightArrow">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="63500" dist="25400" dir="3600000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="98000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="53" name="円/楕円 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14638B98-5919-E746-AE6D-8B07357C29BE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9851479" y="13154691"/>
+              <a:ext cx="571500" cy="575592"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="63500" dist="25400" dir="3600000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="98000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="54" name="環状矢印 53">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62905CC2-3EDE-004F-880A-9EECFA191ED1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9891340" y="13198786"/>
+              <a:ext cx="495300" cy="512092"/>
+            </a:xfrm>
+            <a:prstGeom prst="circularArrow">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 16656"/>
+                <a:gd name="adj2" fmla="val 1699792"/>
+                <a:gd name="adj3" fmla="val 19335498"/>
+                <a:gd name="adj4" fmla="val 21528368"/>
+                <a:gd name="adj5" fmla="val 22995"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="55" name="グループ化 54">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59D5048C-ADE1-6440-B15E-E889DA8BEDBB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="13380720" y="11938000"/>
+            <a:ext cx="1198877" cy="2203335"/>
+            <a:chOff x="9529579" y="11569968"/>
+            <a:chExt cx="1206663" cy="2218481"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="56" name="角丸四角形 55">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82B7A3BC-10D3-CE47-B3BD-35C934DCBAEE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9529579" y="11569968"/>
+              <a:ext cx="1206663" cy="2218481"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="521B93"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="57" name="右矢印 56">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7132C4C9-7189-FD49-8682-13D8FFFD4461}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="10800000">
+              <a:off x="9868934" y="11706576"/>
+              <a:ext cx="508000" cy="461291"/>
+            </a:xfrm>
+            <a:prstGeom prst="rightArrow">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="63500" dist="25400" dir="3600000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="98000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="58" name="右矢印 57">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F00C20-70F9-9249-AB2F-08A1CCC3FE8D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9891340" y="12438344"/>
+              <a:ext cx="508000" cy="459928"/>
+            </a:xfrm>
+            <a:prstGeom prst="rightArrow">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="63500" dist="25400" dir="3600000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="98000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" indent="0" algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="59" name="円/楕円 58">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE96F52-9F34-AD41-BB81-97A0D906B5DB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9851479" y="13154691"/>
+              <a:ext cx="571500" cy="575592"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="63500" dist="25400" dir="3600000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="98000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="60" name="環状矢印 59">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD8A02EB-0881-E742-AD1A-20C0A8A347C2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9891340" y="13198786"/>
+              <a:ext cx="495300" cy="512092"/>
+            </a:xfrm>
+            <a:prstGeom prst="circularArrow">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 16656"/>
+                <a:gd name="adj2" fmla="val 1699792"/>
+                <a:gd name="adj3" fmla="val 19335498"/>
+                <a:gd name="adj4" fmla="val 21528368"/>
+                <a:gd name="adj5" fmla="val 22995"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>193040</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>40640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>240665</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>116840</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23">
+        <xdr:cNvPr id="61" name="正方形/長方形 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76A932D5-6D78-4FE8-8F8E-62E52F920B32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{838E2CED-6F2D-294E-BBE0-61BC04D6EE44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1911,8 +3364,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="285750" y="7581900"/>
-          <a:ext cx="266700" cy="247650"/>
+          <a:off x="14183360" y="11978640"/>
+          <a:ext cx="301625" cy="279400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1943,7 +3396,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>1</a:t>
+            <a:t>8</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -1957,23 +3410,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>37465</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24">
+        <xdr:cNvPr id="62" name="正方形/長方形 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{448E886D-1A3D-40C3-AC0B-9A00DCDCB9D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEB42499-78D3-A94D-89BD-C643C02CD880}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1981,8 +3434,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="466725" y="8229600"/>
-          <a:ext cx="266700" cy="247650"/>
+          <a:off x="14234160" y="12750800"/>
+          <a:ext cx="301625" cy="279400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2013,7 +3466,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>2</a:t>
+            <a:t>9</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -2027,23 +3480,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>223520</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>71120</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25">
+        <xdr:cNvPr id="63" name="正方形/長方形 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5398E71D-F9BA-44DA-B00F-838109BC8E44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D61A2BE-354D-3240-BE7C-80F285D0077D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2051,84 +3504,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2514600" y="7762875"/>
-          <a:ext cx="266700" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>3</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="正方形/長方形 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86B0F130-ED1E-4ABB-AD8D-582D4D8F3D61}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2476500" y="8905875"/>
-          <a:ext cx="266700" cy="247650"/>
+          <a:off x="14213840" y="13411200"/>
+          <a:ext cx="355600" cy="279400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2159,7 +3536,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>4</a:t>
+            <a:t>10</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -2173,23 +3550,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>193040</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>172720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>81280</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="正方形/長方形 27">
+        <xdr:cNvPr id="10" name="四角形吹き出し 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43B5D6A9-2F72-4FED-B6CD-A94E8F850A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D90DBD-873F-3740-9304-FCFC632CEF7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2197,8 +3574,309 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2476500" y="9401175"/>
-          <a:ext cx="266700" cy="247650"/>
+          <a:off x="6065520" y="5405120"/>
+          <a:ext cx="6248400" cy="1198880"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -20265"/>
+            <a:gd name="adj2" fmla="val 45833"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>レイアウトデザイン修正課題</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>チケット</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" baseline="0"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>後デザイン・文言等設計書修正事項」以下内容を詳細設計では反映</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en" altLang="ja-JP"/>
+            <a:t>https://www.notion.so/51bc801a777f426d8cf2c021d22b98a6?d=9e2681bd2f594a2fbf2b3ead0ac184a6</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+          </a:br>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>110661</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>5080</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEBB417F-CC78-2441-B308-22BD0167D8E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="21" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2427141" y="6604000"/>
+          <a:ext cx="6762579" cy="1492251"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>90632</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>5080</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直線コネクタ 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2D59FDC-0643-354C-9744-2CE00B0069F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="15" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7487112" y="6604000"/>
+          <a:ext cx="1702608" cy="1501775"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>5080</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>80134</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="直線コネクタ 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAC2764D-FF3E-CB4E-9B55-63914FA3AD99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9189720" y="6604000"/>
+          <a:ext cx="3631054" cy="1549399"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>111760</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>122616</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="図 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C370369-4587-154E-A97D-FBA0BB4CDF4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="14996160"/>
+          <a:ext cx="1006536" cy="650240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>162560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>157480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="正方形/長方形 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0B2181C-94AB-C841-ACA5-6C89782B1D88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1615440" y="15067280"/>
+          <a:ext cx="355600" cy="279400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2229,147 +3907,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>51</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="正方形/長方形 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD1A8081-F23D-429F-9E24-9DEFC7C0D3AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="873125" y="10810875"/>
-          <a:ext cx="409575" cy="311150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>6</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="正方形/長方形 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E952EB0-2728-4A81-8836-1081415A40E4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8620125" y="9020175"/>
-          <a:ext cx="266700" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>7</a:t>
+            <a:t>11</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -2686,198 +4224,198 @@
   </sheetPr>
   <dimension ref="A1:BB4"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:54" ht="15" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="54" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="54" t="s">
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="54" t="s">
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="54" t="s">
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="56"/>
-      <c r="AP1" s="54" t="s">
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="64"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55"/>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="54" t="s">
+      <c r="AQ1" s="64"/>
+      <c r="AR1" s="64"/>
+      <c r="AS1" s="64"/>
+      <c r="AT1" s="65"/>
+      <c r="AU1" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="AV1" s="55"/>
-      <c r="AW1" s="55"/>
-      <c r="AX1" s="55"/>
-      <c r="AY1" s="56"/>
+      <c r="AV1" s="64"/>
+      <c r="AW1" s="64"/>
+      <c r="AX1" s="64"/>
+      <c r="AY1" s="65"/>
       <c r="BB1" s="3"/>
     </row>
     <row r="2" spans="1:54" ht="15" customHeight="1">
-      <c r="A2" s="72"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="57" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="57" t="s">
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="63">
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="72">
         <v>44560</v>
       </c>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="65"/>
-      <c r="AK2" s="57" t="s">
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="59"/>
-      <c r="AP2" s="63">
-        <v>44571</v>
-      </c>
-      <c r="AQ2" s="64"/>
-      <c r="AR2" s="64"/>
-      <c r="AS2" s="64"/>
-      <c r="AT2" s="65"/>
-      <c r="AU2" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="AV2" s="58"/>
-      <c r="AW2" s="58"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="59"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="68"/>
+      <c r="AP2" s="72">
+        <v>44598</v>
+      </c>
+      <c r="AQ2" s="73"/>
+      <c r="AR2" s="73"/>
+      <c r="AS2" s="73"/>
+      <c r="AT2" s="74"/>
+      <c r="AU2" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV2" s="67"/>
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="68"/>
       <c r="BB2" s="3"/>
     </row>
     <row r="3" spans="1:54" ht="15" customHeight="1">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="61"/>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="67"/>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="68"/>
-      <c r="AK3" s="60"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="61"/>
-      <c r="AN3" s="61"/>
-      <c r="AO3" s="62"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="67"/>
-      <c r="AR3" s="67"/>
-      <c r="AS3" s="67"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="60"/>
-      <c r="AV3" s="61"/>
-      <c r="AW3" s="61"/>
-      <c r="AX3" s="61"/>
-      <c r="AY3" s="62"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70"/>
+      <c r="AE3" s="71"/>
+      <c r="AF3" s="75"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
+      <c r="AI3" s="76"/>
+      <c r="AJ3" s="77"/>
+      <c r="AK3" s="69"/>
+      <c r="AL3" s="70"/>
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="70"/>
+      <c r="AO3" s="71"/>
+      <c r="AP3" s="75"/>
+      <c r="AQ3" s="76"/>
+      <c r="AR3" s="76"/>
+      <c r="AS3" s="76"/>
+      <c r="AT3" s="77"/>
+      <c r="AU3" s="69"/>
+      <c r="AV3" s="70"/>
+      <c r="AW3" s="70"/>
+      <c r="AX3" s="70"/>
+      <c r="AY3" s="71"/>
       <c r="BB3" s="3"/>
     </row>
     <row r="4" spans="1:54" ht="15" customHeight="1">
@@ -2894,11 +4432,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="K2:AE3"/>
-    <mergeCell ref="F2:J3"/>
     <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="AK1:AO1"/>
     <mergeCell ref="AP1:AT1"/>
@@ -2907,6 +4440,11 @@
     <mergeCell ref="AP2:AT3"/>
     <mergeCell ref="AK2:AO3"/>
     <mergeCell ref="AF2:AJ3"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="K2:AE3"/>
+    <mergeCell ref="F2:J3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3006,64 +4544,64 @@
         <v>1</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="81">
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="78">
         <v>44560</v>
       </c>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="84" t="s">
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="84" t="s">
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="85"/>
-      <c r="S8" s="85"/>
-      <c r="T8" s="85"/>
-      <c r="U8" s="85"/>
-      <c r="V8" s="85"/>
-      <c r="W8" s="85"/>
-      <c r="X8" s="85"/>
-      <c r="Y8" s="85"/>
-      <c r="Z8" s="85"/>
-      <c r="AA8" s="85"/>
-      <c r="AB8" s="85"/>
-      <c r="AC8" s="85"/>
-      <c r="AD8" s="85"/>
-      <c r="AE8" s="85"/>
-      <c r="AF8" s="85"/>
-      <c r="AG8" s="85"/>
-      <c r="AH8" s="85"/>
-      <c r="AI8" s="85"/>
-      <c r="AJ8" s="85"/>
-      <c r="AK8" s="85"/>
-      <c r="AL8" s="86"/>
-      <c r="AM8" s="84"/>
-      <c r="AN8" s="85"/>
-      <c r="AO8" s="85"/>
-      <c r="AP8" s="85"/>
-      <c r="AQ8" s="85"/>
-      <c r="AR8" s="85"/>
-      <c r="AS8" s="85"/>
-      <c r="AT8" s="85"/>
-      <c r="AU8" s="85"/>
-      <c r="AV8" s="85"/>
-      <c r="AW8" s="85"/>
-      <c r="AX8" s="85"/>
-      <c r="AY8" s="85"/>
-      <c r="AZ8" s="86"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="82"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="82"/>
+      <c r="AD8" s="82"/>
+      <c r="AE8" s="82"/>
+      <c r="AF8" s="82"/>
+      <c r="AG8" s="82"/>
+      <c r="AH8" s="82"/>
+      <c r="AI8" s="82"/>
+      <c r="AJ8" s="82"/>
+      <c r="AK8" s="82"/>
+      <c r="AL8" s="83"/>
+      <c r="AM8" s="81"/>
+      <c r="AN8" s="82"/>
+      <c r="AO8" s="82"/>
+      <c r="AP8" s="82"/>
+      <c r="AQ8" s="82"/>
+      <c r="AR8" s="82"/>
+      <c r="AS8" s="82"/>
+      <c r="AT8" s="82"/>
+      <c r="AU8" s="82"/>
+      <c r="AV8" s="82"/>
+      <c r="AW8" s="82"/>
+      <c r="AX8" s="82"/>
+      <c r="AY8" s="82"/>
+      <c r="AZ8" s="83"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="9">
@@ -3071,64 +4609,64 @@
         <v>2</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="81">
-        <v>44571</v>
-      </c>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="84" t="s">
+      <c r="C9" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="78">
+        <v>44598</v>
+      </c>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="84" t="s">
-        <v>89</v>
-      </c>
-      <c r="R9" s="85"/>
-      <c r="S9" s="85"/>
-      <c r="T9" s="85"/>
-      <c r="U9" s="85"/>
-      <c r="V9" s="85"/>
-      <c r="W9" s="85"/>
-      <c r="X9" s="85"/>
-      <c r="Y9" s="85"/>
-      <c r="Z9" s="85"/>
-      <c r="AA9" s="85"/>
-      <c r="AB9" s="85"/>
-      <c r="AC9" s="85"/>
-      <c r="AD9" s="85"/>
-      <c r="AE9" s="85"/>
-      <c r="AF9" s="85"/>
-      <c r="AG9" s="85"/>
-      <c r="AH9" s="85"/>
-      <c r="AI9" s="85"/>
-      <c r="AJ9" s="85"/>
-      <c r="AK9" s="85"/>
-      <c r="AL9" s="86"/>
-      <c r="AM9" s="84"/>
-      <c r="AN9" s="85"/>
-      <c r="AO9" s="85"/>
-      <c r="AP9" s="85"/>
-      <c r="AQ9" s="85"/>
-      <c r="AR9" s="85"/>
-      <c r="AS9" s="85"/>
-      <c r="AT9" s="85"/>
-      <c r="AU9" s="85"/>
-      <c r="AV9" s="85"/>
-      <c r="AW9" s="85"/>
-      <c r="AX9" s="85"/>
-      <c r="AY9" s="85"/>
-      <c r="AZ9" s="86"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="R9" s="82"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="82"/>
+      <c r="AD9" s="82"/>
+      <c r="AE9" s="82"/>
+      <c r="AF9" s="82"/>
+      <c r="AG9" s="82"/>
+      <c r="AH9" s="82"/>
+      <c r="AI9" s="82"/>
+      <c r="AJ9" s="82"/>
+      <c r="AK9" s="82"/>
+      <c r="AL9" s="83"/>
+      <c r="AM9" s="81"/>
+      <c r="AN9" s="82"/>
+      <c r="AO9" s="82"/>
+      <c r="AP9" s="82"/>
+      <c r="AQ9" s="82"/>
+      <c r="AR9" s="82"/>
+      <c r="AS9" s="82"/>
+      <c r="AT9" s="82"/>
+      <c r="AU9" s="82"/>
+      <c r="AV9" s="82"/>
+      <c r="AW9" s="82"/>
+      <c r="AX9" s="82"/>
+      <c r="AY9" s="82"/>
+      <c r="AZ9" s="83"/>
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="9" t="str">
@@ -3136,56 +4674,56 @@
         <v/>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="85"/>
-      <c r="S10" s="85"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="85"/>
-      <c r="W10" s="85"/>
-      <c r="X10" s="85"/>
-      <c r="Y10" s="85"/>
-      <c r="Z10" s="85"/>
-      <c r="AA10" s="85"/>
-      <c r="AB10" s="85"/>
-      <c r="AC10" s="85"/>
-      <c r="AD10" s="85"/>
-      <c r="AE10" s="85"/>
-      <c r="AF10" s="85"/>
-      <c r="AG10" s="85"/>
-      <c r="AH10" s="85"/>
-      <c r="AI10" s="85"/>
-      <c r="AJ10" s="85"/>
-      <c r="AK10" s="85"/>
-      <c r="AL10" s="86"/>
-      <c r="AM10" s="84"/>
-      <c r="AN10" s="85"/>
-      <c r="AO10" s="85"/>
-      <c r="AP10" s="85"/>
-      <c r="AQ10" s="85"/>
-      <c r="AR10" s="85"/>
-      <c r="AS10" s="85"/>
-      <c r="AT10" s="85"/>
-      <c r="AU10" s="85"/>
-      <c r="AV10" s="85"/>
-      <c r="AW10" s="85"/>
-      <c r="AX10" s="85"/>
-      <c r="AY10" s="85"/>
-      <c r="AZ10" s="86"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="82"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="82"/>
+      <c r="AD10" s="82"/>
+      <c r="AE10" s="82"/>
+      <c r="AF10" s="82"/>
+      <c r="AG10" s="82"/>
+      <c r="AH10" s="82"/>
+      <c r="AI10" s="82"/>
+      <c r="AJ10" s="82"/>
+      <c r="AK10" s="82"/>
+      <c r="AL10" s="83"/>
+      <c r="AM10" s="81"/>
+      <c r="AN10" s="82"/>
+      <c r="AO10" s="82"/>
+      <c r="AP10" s="82"/>
+      <c r="AQ10" s="82"/>
+      <c r="AR10" s="82"/>
+      <c r="AS10" s="82"/>
+      <c r="AT10" s="82"/>
+      <c r="AU10" s="82"/>
+      <c r="AV10" s="82"/>
+      <c r="AW10" s="82"/>
+      <c r="AX10" s="82"/>
+      <c r="AY10" s="82"/>
+      <c r="AZ10" s="83"/>
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="9" t="str">
@@ -3193,56 +4731,56 @@
         <v/>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="84"/>
-      <c r="R11" s="85"/>
-      <c r="S11" s="85"/>
-      <c r="T11" s="85"/>
-      <c r="U11" s="85"/>
-      <c r="V11" s="85"/>
-      <c r="W11" s="85"/>
-      <c r="X11" s="85"/>
-      <c r="Y11" s="85"/>
-      <c r="Z11" s="85"/>
-      <c r="AA11" s="85"/>
-      <c r="AB11" s="85"/>
-      <c r="AC11" s="85"/>
-      <c r="AD11" s="85"/>
-      <c r="AE11" s="85"/>
-      <c r="AF11" s="85"/>
-      <c r="AG11" s="85"/>
-      <c r="AH11" s="85"/>
-      <c r="AI11" s="85"/>
-      <c r="AJ11" s="85"/>
-      <c r="AK11" s="85"/>
-      <c r="AL11" s="86"/>
-      <c r="AM11" s="84"/>
-      <c r="AN11" s="85"/>
-      <c r="AO11" s="85"/>
-      <c r="AP11" s="85"/>
-      <c r="AQ11" s="85"/>
-      <c r="AR11" s="85"/>
-      <c r="AS11" s="85"/>
-      <c r="AT11" s="85"/>
-      <c r="AU11" s="85"/>
-      <c r="AV11" s="85"/>
-      <c r="AW11" s="85"/>
-      <c r="AX11" s="85"/>
-      <c r="AY11" s="85"/>
-      <c r="AZ11" s="86"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="82"/>
+      <c r="Y11" s="82"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="82"/>
+      <c r="AB11" s="82"/>
+      <c r="AC11" s="82"/>
+      <c r="AD11" s="82"/>
+      <c r="AE11" s="82"/>
+      <c r="AF11" s="82"/>
+      <c r="AG11" s="82"/>
+      <c r="AH11" s="82"/>
+      <c r="AI11" s="82"/>
+      <c r="AJ11" s="82"/>
+      <c r="AK11" s="82"/>
+      <c r="AL11" s="83"/>
+      <c r="AM11" s="81"/>
+      <c r="AN11" s="82"/>
+      <c r="AO11" s="82"/>
+      <c r="AP11" s="82"/>
+      <c r="AQ11" s="82"/>
+      <c r="AR11" s="82"/>
+      <c r="AS11" s="82"/>
+      <c r="AT11" s="82"/>
+      <c r="AU11" s="82"/>
+      <c r="AV11" s="82"/>
+      <c r="AW11" s="82"/>
+      <c r="AX11" s="82"/>
+      <c r="AY11" s="82"/>
+      <c r="AZ11" s="83"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="9" t="str">
@@ -3250,56 +4788,56 @@
         <v/>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="85"/>
-      <c r="S12" s="85"/>
-      <c r="T12" s="85"/>
-      <c r="U12" s="85"/>
-      <c r="V12" s="85"/>
-      <c r="W12" s="85"/>
-      <c r="X12" s="85"/>
-      <c r="Y12" s="85"/>
-      <c r="Z12" s="85"/>
-      <c r="AA12" s="85"/>
-      <c r="AB12" s="85"/>
-      <c r="AC12" s="85"/>
-      <c r="AD12" s="85"/>
-      <c r="AE12" s="85"/>
-      <c r="AF12" s="85"/>
-      <c r="AG12" s="85"/>
-      <c r="AH12" s="85"/>
-      <c r="AI12" s="85"/>
-      <c r="AJ12" s="85"/>
-      <c r="AK12" s="85"/>
-      <c r="AL12" s="86"/>
-      <c r="AM12" s="84"/>
-      <c r="AN12" s="85"/>
-      <c r="AO12" s="85"/>
-      <c r="AP12" s="85"/>
-      <c r="AQ12" s="85"/>
-      <c r="AR12" s="85"/>
-      <c r="AS12" s="85"/>
-      <c r="AT12" s="85"/>
-      <c r="AU12" s="85"/>
-      <c r="AV12" s="85"/>
-      <c r="AW12" s="85"/>
-      <c r="AX12" s="85"/>
-      <c r="AY12" s="85"/>
-      <c r="AZ12" s="86"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="83"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="82"/>
+      <c r="V12" s="82"/>
+      <c r="W12" s="82"/>
+      <c r="X12" s="82"/>
+      <c r="Y12" s="82"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="82"/>
+      <c r="AB12" s="82"/>
+      <c r="AC12" s="82"/>
+      <c r="AD12" s="82"/>
+      <c r="AE12" s="82"/>
+      <c r="AF12" s="82"/>
+      <c r="AG12" s="82"/>
+      <c r="AH12" s="82"/>
+      <c r="AI12" s="82"/>
+      <c r="AJ12" s="82"/>
+      <c r="AK12" s="82"/>
+      <c r="AL12" s="83"/>
+      <c r="AM12" s="81"/>
+      <c r="AN12" s="82"/>
+      <c r="AO12" s="82"/>
+      <c r="AP12" s="82"/>
+      <c r="AQ12" s="82"/>
+      <c r="AR12" s="82"/>
+      <c r="AS12" s="82"/>
+      <c r="AT12" s="82"/>
+      <c r="AU12" s="82"/>
+      <c r="AV12" s="82"/>
+      <c r="AW12" s="82"/>
+      <c r="AX12" s="82"/>
+      <c r="AY12" s="82"/>
+      <c r="AZ12" s="83"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="9" t="str">
@@ -3307,56 +4845,56 @@
         <v/>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="85"/>
-      <c r="S13" s="85"/>
-      <c r="T13" s="85"/>
-      <c r="U13" s="85"/>
-      <c r="V13" s="85"/>
-      <c r="W13" s="85"/>
-      <c r="X13" s="85"/>
-      <c r="Y13" s="85"/>
-      <c r="Z13" s="85"/>
-      <c r="AA13" s="85"/>
-      <c r="AB13" s="85"/>
-      <c r="AC13" s="85"/>
-      <c r="AD13" s="85"/>
-      <c r="AE13" s="85"/>
-      <c r="AF13" s="85"/>
-      <c r="AG13" s="85"/>
-      <c r="AH13" s="85"/>
-      <c r="AI13" s="85"/>
-      <c r="AJ13" s="85"/>
-      <c r="AK13" s="85"/>
-      <c r="AL13" s="86"/>
-      <c r="AM13" s="84"/>
-      <c r="AN13" s="85"/>
-      <c r="AO13" s="85"/>
-      <c r="AP13" s="85"/>
-      <c r="AQ13" s="85"/>
-      <c r="AR13" s="85"/>
-      <c r="AS13" s="85"/>
-      <c r="AT13" s="85"/>
-      <c r="AU13" s="85"/>
-      <c r="AV13" s="85"/>
-      <c r="AW13" s="85"/>
-      <c r="AX13" s="85"/>
-      <c r="AY13" s="85"/>
-      <c r="AZ13" s="86"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="82"/>
+      <c r="W13" s="82"/>
+      <c r="X13" s="82"/>
+      <c r="Y13" s="82"/>
+      <c r="Z13" s="82"/>
+      <c r="AA13" s="82"/>
+      <c r="AB13" s="82"/>
+      <c r="AC13" s="82"/>
+      <c r="AD13" s="82"/>
+      <c r="AE13" s="82"/>
+      <c r="AF13" s="82"/>
+      <c r="AG13" s="82"/>
+      <c r="AH13" s="82"/>
+      <c r="AI13" s="82"/>
+      <c r="AJ13" s="82"/>
+      <c r="AK13" s="82"/>
+      <c r="AL13" s="83"/>
+      <c r="AM13" s="81"/>
+      <c r="AN13" s="82"/>
+      <c r="AO13" s="82"/>
+      <c r="AP13" s="82"/>
+      <c r="AQ13" s="82"/>
+      <c r="AR13" s="82"/>
+      <c r="AS13" s="82"/>
+      <c r="AT13" s="82"/>
+      <c r="AU13" s="82"/>
+      <c r="AV13" s="82"/>
+      <c r="AW13" s="82"/>
+      <c r="AX13" s="82"/>
+      <c r="AY13" s="82"/>
+      <c r="AZ13" s="83"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="9" t="str">
@@ -3364,56 +4902,56 @@
         <v/>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="85"/>
-      <c r="S14" s="85"/>
-      <c r="T14" s="85"/>
-      <c r="U14" s="85"/>
-      <c r="V14" s="85"/>
-      <c r="W14" s="85"/>
-      <c r="X14" s="85"/>
-      <c r="Y14" s="85"/>
-      <c r="Z14" s="85"/>
-      <c r="AA14" s="85"/>
-      <c r="AB14" s="85"/>
-      <c r="AC14" s="85"/>
-      <c r="AD14" s="85"/>
-      <c r="AE14" s="85"/>
-      <c r="AF14" s="85"/>
-      <c r="AG14" s="85"/>
-      <c r="AH14" s="85"/>
-      <c r="AI14" s="85"/>
-      <c r="AJ14" s="85"/>
-      <c r="AK14" s="85"/>
-      <c r="AL14" s="86"/>
-      <c r="AM14" s="84"/>
-      <c r="AN14" s="85"/>
-      <c r="AO14" s="85"/>
-      <c r="AP14" s="85"/>
-      <c r="AQ14" s="85"/>
-      <c r="AR14" s="85"/>
-      <c r="AS14" s="85"/>
-      <c r="AT14" s="85"/>
-      <c r="AU14" s="85"/>
-      <c r="AV14" s="85"/>
-      <c r="AW14" s="85"/>
-      <c r="AX14" s="85"/>
-      <c r="AY14" s="85"/>
-      <c r="AZ14" s="86"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="82"/>
+      <c r="X14" s="82"/>
+      <c r="Y14" s="82"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="82"/>
+      <c r="AC14" s="82"/>
+      <c r="AD14" s="82"/>
+      <c r="AE14" s="82"/>
+      <c r="AF14" s="82"/>
+      <c r="AG14" s="82"/>
+      <c r="AH14" s="82"/>
+      <c r="AI14" s="82"/>
+      <c r="AJ14" s="82"/>
+      <c r="AK14" s="82"/>
+      <c r="AL14" s="83"/>
+      <c r="AM14" s="81"/>
+      <c r="AN14" s="82"/>
+      <c r="AO14" s="82"/>
+      <c r="AP14" s="82"/>
+      <c r="AQ14" s="82"/>
+      <c r="AR14" s="82"/>
+      <c r="AS14" s="82"/>
+      <c r="AT14" s="82"/>
+      <c r="AU14" s="82"/>
+      <c r="AV14" s="82"/>
+      <c r="AW14" s="82"/>
+      <c r="AX14" s="82"/>
+      <c r="AY14" s="82"/>
+      <c r="AZ14" s="83"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="9" t="str">
@@ -3421,56 +4959,56 @@
         <v/>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="85"/>
-      <c r="S15" s="85"/>
-      <c r="T15" s="85"/>
-      <c r="U15" s="85"/>
-      <c r="V15" s="85"/>
-      <c r="W15" s="85"/>
-      <c r="X15" s="85"/>
-      <c r="Y15" s="85"/>
-      <c r="Z15" s="85"/>
-      <c r="AA15" s="85"/>
-      <c r="AB15" s="85"/>
-      <c r="AC15" s="85"/>
-      <c r="AD15" s="85"/>
-      <c r="AE15" s="85"/>
-      <c r="AF15" s="85"/>
-      <c r="AG15" s="85"/>
-      <c r="AH15" s="85"/>
-      <c r="AI15" s="85"/>
-      <c r="AJ15" s="85"/>
-      <c r="AK15" s="85"/>
-      <c r="AL15" s="86"/>
-      <c r="AM15" s="84"/>
-      <c r="AN15" s="85"/>
-      <c r="AO15" s="85"/>
-      <c r="AP15" s="85"/>
-      <c r="AQ15" s="85"/>
-      <c r="AR15" s="85"/>
-      <c r="AS15" s="85"/>
-      <c r="AT15" s="85"/>
-      <c r="AU15" s="85"/>
-      <c r="AV15" s="85"/>
-      <c r="AW15" s="85"/>
-      <c r="AX15" s="85"/>
-      <c r="AY15" s="85"/>
-      <c r="AZ15" s="86"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="81"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="82"/>
+      <c r="V15" s="82"/>
+      <c r="W15" s="82"/>
+      <c r="X15" s="82"/>
+      <c r="Y15" s="82"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="82"/>
+      <c r="AB15" s="82"/>
+      <c r="AC15" s="82"/>
+      <c r="AD15" s="82"/>
+      <c r="AE15" s="82"/>
+      <c r="AF15" s="82"/>
+      <c r="AG15" s="82"/>
+      <c r="AH15" s="82"/>
+      <c r="AI15" s="82"/>
+      <c r="AJ15" s="82"/>
+      <c r="AK15" s="82"/>
+      <c r="AL15" s="83"/>
+      <c r="AM15" s="81"/>
+      <c r="AN15" s="82"/>
+      <c r="AO15" s="82"/>
+      <c r="AP15" s="82"/>
+      <c r="AQ15" s="82"/>
+      <c r="AR15" s="82"/>
+      <c r="AS15" s="82"/>
+      <c r="AT15" s="82"/>
+      <c r="AU15" s="82"/>
+      <c r="AV15" s="82"/>
+      <c r="AW15" s="82"/>
+      <c r="AX15" s="82"/>
+      <c r="AY15" s="82"/>
+      <c r="AZ15" s="83"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="9" t="str">
@@ -3478,56 +5016,56 @@
         <v/>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="85"/>
-      <c r="S16" s="85"/>
-      <c r="T16" s="85"/>
-      <c r="U16" s="85"/>
-      <c r="V16" s="85"/>
-      <c r="W16" s="85"/>
-      <c r="X16" s="85"/>
-      <c r="Y16" s="85"/>
-      <c r="Z16" s="85"/>
-      <c r="AA16" s="85"/>
-      <c r="AB16" s="85"/>
-      <c r="AC16" s="85"/>
-      <c r="AD16" s="85"/>
-      <c r="AE16" s="85"/>
-      <c r="AF16" s="85"/>
-      <c r="AG16" s="85"/>
-      <c r="AH16" s="85"/>
-      <c r="AI16" s="85"/>
-      <c r="AJ16" s="85"/>
-      <c r="AK16" s="85"/>
-      <c r="AL16" s="86"/>
-      <c r="AM16" s="84"/>
-      <c r="AN16" s="85"/>
-      <c r="AO16" s="85"/>
-      <c r="AP16" s="85"/>
-      <c r="AQ16" s="85"/>
-      <c r="AR16" s="85"/>
-      <c r="AS16" s="85"/>
-      <c r="AT16" s="85"/>
-      <c r="AU16" s="85"/>
-      <c r="AV16" s="85"/>
-      <c r="AW16" s="85"/>
-      <c r="AX16" s="85"/>
-      <c r="AY16" s="85"/>
-      <c r="AZ16" s="86"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="83"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="82"/>
+      <c r="S16" s="82"/>
+      <c r="T16" s="82"/>
+      <c r="U16" s="82"/>
+      <c r="V16" s="82"/>
+      <c r="W16" s="82"/>
+      <c r="X16" s="82"/>
+      <c r="Y16" s="82"/>
+      <c r="Z16" s="82"/>
+      <c r="AA16" s="82"/>
+      <c r="AB16" s="82"/>
+      <c r="AC16" s="82"/>
+      <c r="AD16" s="82"/>
+      <c r="AE16" s="82"/>
+      <c r="AF16" s="82"/>
+      <c r="AG16" s="82"/>
+      <c r="AH16" s="82"/>
+      <c r="AI16" s="82"/>
+      <c r="AJ16" s="82"/>
+      <c r="AK16" s="82"/>
+      <c r="AL16" s="83"/>
+      <c r="AM16" s="81"/>
+      <c r="AN16" s="82"/>
+      <c r="AO16" s="82"/>
+      <c r="AP16" s="82"/>
+      <c r="AQ16" s="82"/>
+      <c r="AR16" s="82"/>
+      <c r="AS16" s="82"/>
+      <c r="AT16" s="82"/>
+      <c r="AU16" s="82"/>
+      <c r="AV16" s="82"/>
+      <c r="AW16" s="82"/>
+      <c r="AX16" s="82"/>
+      <c r="AY16" s="82"/>
+      <c r="AZ16" s="83"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="9" t="str">
@@ -3535,56 +5073,56 @@
         <v/>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="85"/>
-      <c r="S17" s="85"/>
-      <c r="T17" s="85"/>
-      <c r="U17" s="85"/>
-      <c r="V17" s="85"/>
-      <c r="W17" s="85"/>
-      <c r="X17" s="85"/>
-      <c r="Y17" s="85"/>
-      <c r="Z17" s="85"/>
-      <c r="AA17" s="85"/>
-      <c r="AB17" s="85"/>
-      <c r="AC17" s="85"/>
-      <c r="AD17" s="85"/>
-      <c r="AE17" s="85"/>
-      <c r="AF17" s="85"/>
-      <c r="AG17" s="85"/>
-      <c r="AH17" s="85"/>
-      <c r="AI17" s="85"/>
-      <c r="AJ17" s="85"/>
-      <c r="AK17" s="85"/>
-      <c r="AL17" s="86"/>
-      <c r="AM17" s="84"/>
-      <c r="AN17" s="85"/>
-      <c r="AO17" s="85"/>
-      <c r="AP17" s="85"/>
-      <c r="AQ17" s="85"/>
-      <c r="AR17" s="85"/>
-      <c r="AS17" s="85"/>
-      <c r="AT17" s="85"/>
-      <c r="AU17" s="85"/>
-      <c r="AV17" s="85"/>
-      <c r="AW17" s="85"/>
-      <c r="AX17" s="85"/>
-      <c r="AY17" s="85"/>
-      <c r="AZ17" s="86"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="82"/>
+      <c r="T17" s="82"/>
+      <c r="U17" s="82"/>
+      <c r="V17" s="82"/>
+      <c r="W17" s="82"/>
+      <c r="X17" s="82"/>
+      <c r="Y17" s="82"/>
+      <c r="Z17" s="82"/>
+      <c r="AA17" s="82"/>
+      <c r="AB17" s="82"/>
+      <c r="AC17" s="82"/>
+      <c r="AD17" s="82"/>
+      <c r="AE17" s="82"/>
+      <c r="AF17" s="82"/>
+      <c r="AG17" s="82"/>
+      <c r="AH17" s="82"/>
+      <c r="AI17" s="82"/>
+      <c r="AJ17" s="82"/>
+      <c r="AK17" s="82"/>
+      <c r="AL17" s="83"/>
+      <c r="AM17" s="81"/>
+      <c r="AN17" s="82"/>
+      <c r="AO17" s="82"/>
+      <c r="AP17" s="82"/>
+      <c r="AQ17" s="82"/>
+      <c r="AR17" s="82"/>
+      <c r="AS17" s="82"/>
+      <c r="AT17" s="82"/>
+      <c r="AU17" s="82"/>
+      <c r="AV17" s="82"/>
+      <c r="AW17" s="82"/>
+      <c r="AX17" s="82"/>
+      <c r="AY17" s="82"/>
+      <c r="AZ17" s="83"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="9" t="str">
@@ -3592,56 +5130,56 @@
         <v/>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="85"/>
-      <c r="S18" s="85"/>
-      <c r="T18" s="85"/>
-      <c r="U18" s="85"/>
-      <c r="V18" s="85"/>
-      <c r="W18" s="85"/>
-      <c r="X18" s="85"/>
-      <c r="Y18" s="85"/>
-      <c r="Z18" s="85"/>
-      <c r="AA18" s="85"/>
-      <c r="AB18" s="85"/>
-      <c r="AC18" s="85"/>
-      <c r="AD18" s="85"/>
-      <c r="AE18" s="85"/>
-      <c r="AF18" s="85"/>
-      <c r="AG18" s="85"/>
-      <c r="AH18" s="85"/>
-      <c r="AI18" s="85"/>
-      <c r="AJ18" s="85"/>
-      <c r="AK18" s="85"/>
-      <c r="AL18" s="86"/>
-      <c r="AM18" s="84"/>
-      <c r="AN18" s="85"/>
-      <c r="AO18" s="85"/>
-      <c r="AP18" s="85"/>
-      <c r="AQ18" s="85"/>
-      <c r="AR18" s="85"/>
-      <c r="AS18" s="85"/>
-      <c r="AT18" s="85"/>
-      <c r="AU18" s="85"/>
-      <c r="AV18" s="85"/>
-      <c r="AW18" s="85"/>
-      <c r="AX18" s="85"/>
-      <c r="AY18" s="85"/>
-      <c r="AZ18" s="86"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="82"/>
+      <c r="U18" s="82"/>
+      <c r="V18" s="82"/>
+      <c r="W18" s="82"/>
+      <c r="X18" s="82"/>
+      <c r="Y18" s="82"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="82"/>
+      <c r="AB18" s="82"/>
+      <c r="AC18" s="82"/>
+      <c r="AD18" s="82"/>
+      <c r="AE18" s="82"/>
+      <c r="AF18" s="82"/>
+      <c r="AG18" s="82"/>
+      <c r="AH18" s="82"/>
+      <c r="AI18" s="82"/>
+      <c r="AJ18" s="82"/>
+      <c r="AK18" s="82"/>
+      <c r="AL18" s="83"/>
+      <c r="AM18" s="81"/>
+      <c r="AN18" s="82"/>
+      <c r="AO18" s="82"/>
+      <c r="AP18" s="82"/>
+      <c r="AQ18" s="82"/>
+      <c r="AR18" s="82"/>
+      <c r="AS18" s="82"/>
+      <c r="AT18" s="82"/>
+      <c r="AU18" s="82"/>
+      <c r="AV18" s="82"/>
+      <c r="AW18" s="82"/>
+      <c r="AX18" s="82"/>
+      <c r="AY18" s="82"/>
+      <c r="AZ18" s="83"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="9" t="str">
@@ -3649,56 +5187,56 @@
         <v/>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="85"/>
-      <c r="O19" s="85"/>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="85"/>
-      <c r="S19" s="85"/>
-      <c r="T19" s="85"/>
-      <c r="U19" s="85"/>
-      <c r="V19" s="85"/>
-      <c r="W19" s="85"/>
-      <c r="X19" s="85"/>
-      <c r="Y19" s="85"/>
-      <c r="Z19" s="85"/>
-      <c r="AA19" s="85"/>
-      <c r="AB19" s="85"/>
-      <c r="AC19" s="85"/>
-      <c r="AD19" s="85"/>
-      <c r="AE19" s="85"/>
-      <c r="AF19" s="85"/>
-      <c r="AG19" s="85"/>
-      <c r="AH19" s="85"/>
-      <c r="AI19" s="85"/>
-      <c r="AJ19" s="85"/>
-      <c r="AK19" s="85"/>
-      <c r="AL19" s="86"/>
-      <c r="AM19" s="84"/>
-      <c r="AN19" s="85"/>
-      <c r="AO19" s="85"/>
-      <c r="AP19" s="85"/>
-      <c r="AQ19" s="85"/>
-      <c r="AR19" s="85"/>
-      <c r="AS19" s="85"/>
-      <c r="AT19" s="85"/>
-      <c r="AU19" s="85"/>
-      <c r="AV19" s="85"/>
-      <c r="AW19" s="85"/>
-      <c r="AX19" s="85"/>
-      <c r="AY19" s="85"/>
-      <c r="AZ19" s="86"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="82"/>
+      <c r="S19" s="82"/>
+      <c r="T19" s="82"/>
+      <c r="U19" s="82"/>
+      <c r="V19" s="82"/>
+      <c r="W19" s="82"/>
+      <c r="X19" s="82"/>
+      <c r="Y19" s="82"/>
+      <c r="Z19" s="82"/>
+      <c r="AA19" s="82"/>
+      <c r="AB19" s="82"/>
+      <c r="AC19" s="82"/>
+      <c r="AD19" s="82"/>
+      <c r="AE19" s="82"/>
+      <c r="AF19" s="82"/>
+      <c r="AG19" s="82"/>
+      <c r="AH19" s="82"/>
+      <c r="AI19" s="82"/>
+      <c r="AJ19" s="82"/>
+      <c r="AK19" s="82"/>
+      <c r="AL19" s="83"/>
+      <c r="AM19" s="81"/>
+      <c r="AN19" s="82"/>
+      <c r="AO19" s="82"/>
+      <c r="AP19" s="82"/>
+      <c r="AQ19" s="82"/>
+      <c r="AR19" s="82"/>
+      <c r="AS19" s="82"/>
+      <c r="AT19" s="82"/>
+      <c r="AU19" s="82"/>
+      <c r="AV19" s="82"/>
+      <c r="AW19" s="82"/>
+      <c r="AX19" s="82"/>
+      <c r="AY19" s="82"/>
+      <c r="AZ19" s="83"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="9" t="str">
@@ -3706,56 +5244,56 @@
         <v/>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="85"/>
-      <c r="O20" s="85"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="85"/>
-      <c r="S20" s="85"/>
-      <c r="T20" s="85"/>
-      <c r="U20" s="85"/>
-      <c r="V20" s="85"/>
-      <c r="W20" s="85"/>
-      <c r="X20" s="85"/>
-      <c r="Y20" s="85"/>
-      <c r="Z20" s="85"/>
-      <c r="AA20" s="85"/>
-      <c r="AB20" s="85"/>
-      <c r="AC20" s="85"/>
-      <c r="AD20" s="85"/>
-      <c r="AE20" s="85"/>
-      <c r="AF20" s="85"/>
-      <c r="AG20" s="85"/>
-      <c r="AH20" s="85"/>
-      <c r="AI20" s="85"/>
-      <c r="AJ20" s="85"/>
-      <c r="AK20" s="85"/>
-      <c r="AL20" s="86"/>
-      <c r="AM20" s="84"/>
-      <c r="AN20" s="85"/>
-      <c r="AO20" s="85"/>
-      <c r="AP20" s="85"/>
-      <c r="AQ20" s="85"/>
-      <c r="AR20" s="85"/>
-      <c r="AS20" s="85"/>
-      <c r="AT20" s="85"/>
-      <c r="AU20" s="85"/>
-      <c r="AV20" s="85"/>
-      <c r="AW20" s="85"/>
-      <c r="AX20" s="85"/>
-      <c r="AY20" s="85"/>
-      <c r="AZ20" s="86"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="82"/>
+      <c r="S20" s="82"/>
+      <c r="T20" s="82"/>
+      <c r="U20" s="82"/>
+      <c r="V20" s="82"/>
+      <c r="W20" s="82"/>
+      <c r="X20" s="82"/>
+      <c r="Y20" s="82"/>
+      <c r="Z20" s="82"/>
+      <c r="AA20" s="82"/>
+      <c r="AB20" s="82"/>
+      <c r="AC20" s="82"/>
+      <c r="AD20" s="82"/>
+      <c r="AE20" s="82"/>
+      <c r="AF20" s="82"/>
+      <c r="AG20" s="82"/>
+      <c r="AH20" s="82"/>
+      <c r="AI20" s="82"/>
+      <c r="AJ20" s="82"/>
+      <c r="AK20" s="82"/>
+      <c r="AL20" s="83"/>
+      <c r="AM20" s="81"/>
+      <c r="AN20" s="82"/>
+      <c r="AO20" s="82"/>
+      <c r="AP20" s="82"/>
+      <c r="AQ20" s="82"/>
+      <c r="AR20" s="82"/>
+      <c r="AS20" s="82"/>
+      <c r="AT20" s="82"/>
+      <c r="AU20" s="82"/>
+      <c r="AV20" s="82"/>
+      <c r="AW20" s="82"/>
+      <c r="AX20" s="82"/>
+      <c r="AY20" s="82"/>
+      <c r="AZ20" s="83"/>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="9" t="str">
@@ -3763,56 +5301,56 @@
         <v/>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="85"/>
-      <c r="O21" s="85"/>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="85"/>
-      <c r="S21" s="85"/>
-      <c r="T21" s="85"/>
-      <c r="U21" s="85"/>
-      <c r="V21" s="85"/>
-      <c r="W21" s="85"/>
-      <c r="X21" s="85"/>
-      <c r="Y21" s="85"/>
-      <c r="Z21" s="85"/>
-      <c r="AA21" s="85"/>
-      <c r="AB21" s="85"/>
-      <c r="AC21" s="85"/>
-      <c r="AD21" s="85"/>
-      <c r="AE21" s="85"/>
-      <c r="AF21" s="85"/>
-      <c r="AG21" s="85"/>
-      <c r="AH21" s="85"/>
-      <c r="AI21" s="85"/>
-      <c r="AJ21" s="85"/>
-      <c r="AK21" s="85"/>
-      <c r="AL21" s="86"/>
-      <c r="AM21" s="84"/>
-      <c r="AN21" s="85"/>
-      <c r="AO21" s="85"/>
-      <c r="AP21" s="85"/>
-      <c r="AQ21" s="85"/>
-      <c r="AR21" s="85"/>
-      <c r="AS21" s="85"/>
-      <c r="AT21" s="85"/>
-      <c r="AU21" s="85"/>
-      <c r="AV21" s="85"/>
-      <c r="AW21" s="85"/>
-      <c r="AX21" s="85"/>
-      <c r="AY21" s="85"/>
-      <c r="AZ21" s="86"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="82"/>
+      <c r="O21" s="82"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="81"/>
+      <c r="R21" s="82"/>
+      <c r="S21" s="82"/>
+      <c r="T21" s="82"/>
+      <c r="U21" s="82"/>
+      <c r="V21" s="82"/>
+      <c r="W21" s="82"/>
+      <c r="X21" s="82"/>
+      <c r="Y21" s="82"/>
+      <c r="Z21" s="82"/>
+      <c r="AA21" s="82"/>
+      <c r="AB21" s="82"/>
+      <c r="AC21" s="82"/>
+      <c r="AD21" s="82"/>
+      <c r="AE21" s="82"/>
+      <c r="AF21" s="82"/>
+      <c r="AG21" s="82"/>
+      <c r="AH21" s="82"/>
+      <c r="AI21" s="82"/>
+      <c r="AJ21" s="82"/>
+      <c r="AK21" s="82"/>
+      <c r="AL21" s="83"/>
+      <c r="AM21" s="81"/>
+      <c r="AN21" s="82"/>
+      <c r="AO21" s="82"/>
+      <c r="AP21" s="82"/>
+      <c r="AQ21" s="82"/>
+      <c r="AR21" s="82"/>
+      <c r="AS21" s="82"/>
+      <c r="AT21" s="82"/>
+      <c r="AU21" s="82"/>
+      <c r="AV21" s="82"/>
+      <c r="AW21" s="82"/>
+      <c r="AX21" s="82"/>
+      <c r="AY21" s="82"/>
+      <c r="AZ21" s="83"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="9" t="str">
@@ -3820,56 +5358,56 @@
         <v/>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="86"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="85"/>
-      <c r="S22" s="85"/>
-      <c r="T22" s="85"/>
-      <c r="U22" s="85"/>
-      <c r="V22" s="85"/>
-      <c r="W22" s="85"/>
-      <c r="X22" s="85"/>
-      <c r="Y22" s="85"/>
-      <c r="Z22" s="85"/>
-      <c r="AA22" s="85"/>
-      <c r="AB22" s="85"/>
-      <c r="AC22" s="85"/>
-      <c r="AD22" s="85"/>
-      <c r="AE22" s="85"/>
-      <c r="AF22" s="85"/>
-      <c r="AG22" s="85"/>
-      <c r="AH22" s="85"/>
-      <c r="AI22" s="85"/>
-      <c r="AJ22" s="85"/>
-      <c r="AK22" s="85"/>
-      <c r="AL22" s="86"/>
-      <c r="AM22" s="84"/>
-      <c r="AN22" s="85"/>
-      <c r="AO22" s="85"/>
-      <c r="AP22" s="85"/>
-      <c r="AQ22" s="85"/>
-      <c r="AR22" s="85"/>
-      <c r="AS22" s="85"/>
-      <c r="AT22" s="85"/>
-      <c r="AU22" s="85"/>
-      <c r="AV22" s="85"/>
-      <c r="AW22" s="85"/>
-      <c r="AX22" s="85"/>
-      <c r="AY22" s="85"/>
-      <c r="AZ22" s="86"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="83"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="82"/>
+      <c r="T22" s="82"/>
+      <c r="U22" s="82"/>
+      <c r="V22" s="82"/>
+      <c r="W22" s="82"/>
+      <c r="X22" s="82"/>
+      <c r="Y22" s="82"/>
+      <c r="Z22" s="82"/>
+      <c r="AA22" s="82"/>
+      <c r="AB22" s="82"/>
+      <c r="AC22" s="82"/>
+      <c r="AD22" s="82"/>
+      <c r="AE22" s="82"/>
+      <c r="AF22" s="82"/>
+      <c r="AG22" s="82"/>
+      <c r="AH22" s="82"/>
+      <c r="AI22" s="82"/>
+      <c r="AJ22" s="82"/>
+      <c r="AK22" s="82"/>
+      <c r="AL22" s="83"/>
+      <c r="AM22" s="81"/>
+      <c r="AN22" s="82"/>
+      <c r="AO22" s="82"/>
+      <c r="AP22" s="82"/>
+      <c r="AQ22" s="82"/>
+      <c r="AR22" s="82"/>
+      <c r="AS22" s="82"/>
+      <c r="AT22" s="82"/>
+      <c r="AU22" s="82"/>
+      <c r="AV22" s="82"/>
+      <c r="AW22" s="82"/>
+      <c r="AX22" s="82"/>
+      <c r="AY22" s="82"/>
+      <c r="AZ22" s="83"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="9" t="str">
@@ -3877,56 +5415,56 @@
         <v/>
       </c>
       <c r="B23" s="10"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="85"/>
-      <c r="O23" s="85"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="85"/>
-      <c r="S23" s="85"/>
-      <c r="T23" s="85"/>
-      <c r="U23" s="85"/>
-      <c r="V23" s="85"/>
-      <c r="W23" s="85"/>
-      <c r="X23" s="85"/>
-      <c r="Y23" s="85"/>
-      <c r="Z23" s="85"/>
-      <c r="AA23" s="85"/>
-      <c r="AB23" s="85"/>
-      <c r="AC23" s="85"/>
-      <c r="AD23" s="85"/>
-      <c r="AE23" s="85"/>
-      <c r="AF23" s="85"/>
-      <c r="AG23" s="85"/>
-      <c r="AH23" s="85"/>
-      <c r="AI23" s="85"/>
-      <c r="AJ23" s="85"/>
-      <c r="AK23" s="85"/>
-      <c r="AL23" s="86"/>
-      <c r="AM23" s="84"/>
-      <c r="AN23" s="85"/>
-      <c r="AO23" s="85"/>
-      <c r="AP23" s="85"/>
-      <c r="AQ23" s="85"/>
-      <c r="AR23" s="85"/>
-      <c r="AS23" s="85"/>
-      <c r="AT23" s="85"/>
-      <c r="AU23" s="85"/>
-      <c r="AV23" s="85"/>
-      <c r="AW23" s="85"/>
-      <c r="AX23" s="85"/>
-      <c r="AY23" s="85"/>
-      <c r="AZ23" s="86"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="82"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="82"/>
+      <c r="S23" s="82"/>
+      <c r="T23" s="82"/>
+      <c r="U23" s="82"/>
+      <c r="V23" s="82"/>
+      <c r="W23" s="82"/>
+      <c r="X23" s="82"/>
+      <c r="Y23" s="82"/>
+      <c r="Z23" s="82"/>
+      <c r="AA23" s="82"/>
+      <c r="AB23" s="82"/>
+      <c r="AC23" s="82"/>
+      <c r="AD23" s="82"/>
+      <c r="AE23" s="82"/>
+      <c r="AF23" s="82"/>
+      <c r="AG23" s="82"/>
+      <c r="AH23" s="82"/>
+      <c r="AI23" s="82"/>
+      <c r="AJ23" s="82"/>
+      <c r="AK23" s="82"/>
+      <c r="AL23" s="83"/>
+      <c r="AM23" s="81"/>
+      <c r="AN23" s="82"/>
+      <c r="AO23" s="82"/>
+      <c r="AP23" s="82"/>
+      <c r="AQ23" s="82"/>
+      <c r="AR23" s="82"/>
+      <c r="AS23" s="82"/>
+      <c r="AT23" s="82"/>
+      <c r="AU23" s="82"/>
+      <c r="AV23" s="82"/>
+      <c r="AW23" s="82"/>
+      <c r="AX23" s="82"/>
+      <c r="AY23" s="82"/>
+      <c r="AZ23" s="83"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="9" t="str">
@@ -3934,56 +5472,56 @@
         <v/>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="85"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="85"/>
-      <c r="U24" s="85"/>
-      <c r="V24" s="85"/>
-      <c r="W24" s="85"/>
-      <c r="X24" s="85"/>
-      <c r="Y24" s="85"/>
-      <c r="Z24" s="85"/>
-      <c r="AA24" s="85"/>
-      <c r="AB24" s="85"/>
-      <c r="AC24" s="85"/>
-      <c r="AD24" s="85"/>
-      <c r="AE24" s="85"/>
-      <c r="AF24" s="85"/>
-      <c r="AG24" s="85"/>
-      <c r="AH24" s="85"/>
-      <c r="AI24" s="85"/>
-      <c r="AJ24" s="85"/>
-      <c r="AK24" s="85"/>
-      <c r="AL24" s="86"/>
-      <c r="AM24" s="84"/>
-      <c r="AN24" s="85"/>
-      <c r="AO24" s="85"/>
-      <c r="AP24" s="85"/>
-      <c r="AQ24" s="85"/>
-      <c r="AR24" s="85"/>
-      <c r="AS24" s="85"/>
-      <c r="AT24" s="85"/>
-      <c r="AU24" s="85"/>
-      <c r="AV24" s="85"/>
-      <c r="AW24" s="85"/>
-      <c r="AX24" s="85"/>
-      <c r="AY24" s="85"/>
-      <c r="AZ24" s="86"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="82"/>
+      <c r="S24" s="82"/>
+      <c r="T24" s="82"/>
+      <c r="U24" s="82"/>
+      <c r="V24" s="82"/>
+      <c r="W24" s="82"/>
+      <c r="X24" s="82"/>
+      <c r="Y24" s="82"/>
+      <c r="Z24" s="82"/>
+      <c r="AA24" s="82"/>
+      <c r="AB24" s="82"/>
+      <c r="AC24" s="82"/>
+      <c r="AD24" s="82"/>
+      <c r="AE24" s="82"/>
+      <c r="AF24" s="82"/>
+      <c r="AG24" s="82"/>
+      <c r="AH24" s="82"/>
+      <c r="AI24" s="82"/>
+      <c r="AJ24" s="82"/>
+      <c r="AK24" s="82"/>
+      <c r="AL24" s="83"/>
+      <c r="AM24" s="81"/>
+      <c r="AN24" s="82"/>
+      <c r="AO24" s="82"/>
+      <c r="AP24" s="82"/>
+      <c r="AQ24" s="82"/>
+      <c r="AR24" s="82"/>
+      <c r="AS24" s="82"/>
+      <c r="AT24" s="82"/>
+      <c r="AU24" s="82"/>
+      <c r="AV24" s="82"/>
+      <c r="AW24" s="82"/>
+      <c r="AX24" s="82"/>
+      <c r="AY24" s="82"/>
+      <c r="AZ24" s="83"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="9" t="str">
@@ -3991,56 +5529,56 @@
         <v/>
       </c>
       <c r="B25" s="10"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="85"/>
-      <c r="O25" s="85"/>
-      <c r="P25" s="86"/>
-      <c r="Q25" s="84"/>
-      <c r="R25" s="85"/>
-      <c r="S25" s="85"/>
-      <c r="T25" s="85"/>
-      <c r="U25" s="85"/>
-      <c r="V25" s="85"/>
-      <c r="W25" s="85"/>
-      <c r="X25" s="85"/>
-      <c r="Y25" s="85"/>
-      <c r="Z25" s="85"/>
-      <c r="AA25" s="85"/>
-      <c r="AB25" s="85"/>
-      <c r="AC25" s="85"/>
-      <c r="AD25" s="85"/>
-      <c r="AE25" s="85"/>
-      <c r="AF25" s="85"/>
-      <c r="AG25" s="85"/>
-      <c r="AH25" s="85"/>
-      <c r="AI25" s="85"/>
-      <c r="AJ25" s="85"/>
-      <c r="AK25" s="85"/>
-      <c r="AL25" s="86"/>
-      <c r="AM25" s="84"/>
-      <c r="AN25" s="85"/>
-      <c r="AO25" s="85"/>
-      <c r="AP25" s="85"/>
-      <c r="AQ25" s="85"/>
-      <c r="AR25" s="85"/>
-      <c r="AS25" s="85"/>
-      <c r="AT25" s="85"/>
-      <c r="AU25" s="85"/>
-      <c r="AV25" s="85"/>
-      <c r="AW25" s="85"/>
-      <c r="AX25" s="85"/>
-      <c r="AY25" s="85"/>
-      <c r="AZ25" s="86"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="82"/>
+      <c r="O25" s="82"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="81"/>
+      <c r="R25" s="82"/>
+      <c r="S25" s="82"/>
+      <c r="T25" s="82"/>
+      <c r="U25" s="82"/>
+      <c r="V25" s="82"/>
+      <c r="W25" s="82"/>
+      <c r="X25" s="82"/>
+      <c r="Y25" s="82"/>
+      <c r="Z25" s="82"/>
+      <c r="AA25" s="82"/>
+      <c r="AB25" s="82"/>
+      <c r="AC25" s="82"/>
+      <c r="AD25" s="82"/>
+      <c r="AE25" s="82"/>
+      <c r="AF25" s="82"/>
+      <c r="AG25" s="82"/>
+      <c r="AH25" s="82"/>
+      <c r="AI25" s="82"/>
+      <c r="AJ25" s="82"/>
+      <c r="AK25" s="82"/>
+      <c r="AL25" s="83"/>
+      <c r="AM25" s="81"/>
+      <c r="AN25" s="82"/>
+      <c r="AO25" s="82"/>
+      <c r="AP25" s="82"/>
+      <c r="AQ25" s="82"/>
+      <c r="AR25" s="82"/>
+      <c r="AS25" s="82"/>
+      <c r="AT25" s="82"/>
+      <c r="AU25" s="82"/>
+      <c r="AV25" s="82"/>
+      <c r="AW25" s="82"/>
+      <c r="AX25" s="82"/>
+      <c r="AY25" s="82"/>
+      <c r="AZ25" s="83"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="9" t="str">
@@ -4048,56 +5586,56 @@
         <v/>
       </c>
       <c r="B26" s="10"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="85"/>
-      <c r="N26" s="85"/>
-      <c r="O26" s="85"/>
-      <c r="P26" s="86"/>
-      <c r="Q26" s="84"/>
-      <c r="R26" s="85"/>
-      <c r="S26" s="85"/>
-      <c r="T26" s="85"/>
-      <c r="U26" s="85"/>
-      <c r="V26" s="85"/>
-      <c r="W26" s="85"/>
-      <c r="X26" s="85"/>
-      <c r="Y26" s="85"/>
-      <c r="Z26" s="85"/>
-      <c r="AA26" s="85"/>
-      <c r="AB26" s="85"/>
-      <c r="AC26" s="85"/>
-      <c r="AD26" s="85"/>
-      <c r="AE26" s="85"/>
-      <c r="AF26" s="85"/>
-      <c r="AG26" s="85"/>
-      <c r="AH26" s="85"/>
-      <c r="AI26" s="85"/>
-      <c r="AJ26" s="85"/>
-      <c r="AK26" s="85"/>
-      <c r="AL26" s="86"/>
-      <c r="AM26" s="84"/>
-      <c r="AN26" s="85"/>
-      <c r="AO26" s="85"/>
-      <c r="AP26" s="85"/>
-      <c r="AQ26" s="85"/>
-      <c r="AR26" s="85"/>
-      <c r="AS26" s="85"/>
-      <c r="AT26" s="85"/>
-      <c r="AU26" s="85"/>
-      <c r="AV26" s="85"/>
-      <c r="AW26" s="85"/>
-      <c r="AX26" s="85"/>
-      <c r="AY26" s="85"/>
-      <c r="AZ26" s="86"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="83"/>
+      <c r="Q26" s="81"/>
+      <c r="R26" s="82"/>
+      <c r="S26" s="82"/>
+      <c r="T26" s="82"/>
+      <c r="U26" s="82"/>
+      <c r="V26" s="82"/>
+      <c r="W26" s="82"/>
+      <c r="X26" s="82"/>
+      <c r="Y26" s="82"/>
+      <c r="Z26" s="82"/>
+      <c r="AA26" s="82"/>
+      <c r="AB26" s="82"/>
+      <c r="AC26" s="82"/>
+      <c r="AD26" s="82"/>
+      <c r="AE26" s="82"/>
+      <c r="AF26" s="82"/>
+      <c r="AG26" s="82"/>
+      <c r="AH26" s="82"/>
+      <c r="AI26" s="82"/>
+      <c r="AJ26" s="82"/>
+      <c r="AK26" s="82"/>
+      <c r="AL26" s="83"/>
+      <c r="AM26" s="81"/>
+      <c r="AN26" s="82"/>
+      <c r="AO26" s="82"/>
+      <c r="AP26" s="82"/>
+      <c r="AQ26" s="82"/>
+      <c r="AR26" s="82"/>
+      <c r="AS26" s="82"/>
+      <c r="AT26" s="82"/>
+      <c r="AU26" s="82"/>
+      <c r="AV26" s="82"/>
+      <c r="AW26" s="82"/>
+      <c r="AX26" s="82"/>
+      <c r="AY26" s="82"/>
+      <c r="AZ26" s="83"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="9" t="str">
@@ -4105,56 +5643,56 @@
         <v/>
       </c>
       <c r="B27" s="10"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="85"/>
-      <c r="N27" s="85"/>
-      <c r="O27" s="85"/>
-      <c r="P27" s="86"/>
-      <c r="Q27" s="84"/>
-      <c r="R27" s="85"/>
-      <c r="S27" s="85"/>
-      <c r="T27" s="85"/>
-      <c r="U27" s="85"/>
-      <c r="V27" s="85"/>
-      <c r="W27" s="85"/>
-      <c r="X27" s="85"/>
-      <c r="Y27" s="85"/>
-      <c r="Z27" s="85"/>
-      <c r="AA27" s="85"/>
-      <c r="AB27" s="85"/>
-      <c r="AC27" s="85"/>
-      <c r="AD27" s="85"/>
-      <c r="AE27" s="85"/>
-      <c r="AF27" s="85"/>
-      <c r="AG27" s="85"/>
-      <c r="AH27" s="85"/>
-      <c r="AI27" s="85"/>
-      <c r="AJ27" s="85"/>
-      <c r="AK27" s="85"/>
-      <c r="AL27" s="86"/>
-      <c r="AM27" s="84"/>
-      <c r="AN27" s="85"/>
-      <c r="AO27" s="85"/>
-      <c r="AP27" s="85"/>
-      <c r="AQ27" s="85"/>
-      <c r="AR27" s="85"/>
-      <c r="AS27" s="85"/>
-      <c r="AT27" s="85"/>
-      <c r="AU27" s="85"/>
-      <c r="AV27" s="85"/>
-      <c r="AW27" s="85"/>
-      <c r="AX27" s="85"/>
-      <c r="AY27" s="85"/>
-      <c r="AZ27" s="86"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="82"/>
+      <c r="P27" s="83"/>
+      <c r="Q27" s="81"/>
+      <c r="R27" s="82"/>
+      <c r="S27" s="82"/>
+      <c r="T27" s="82"/>
+      <c r="U27" s="82"/>
+      <c r="V27" s="82"/>
+      <c r="W27" s="82"/>
+      <c r="X27" s="82"/>
+      <c r="Y27" s="82"/>
+      <c r="Z27" s="82"/>
+      <c r="AA27" s="82"/>
+      <c r="AB27" s="82"/>
+      <c r="AC27" s="82"/>
+      <c r="AD27" s="82"/>
+      <c r="AE27" s="82"/>
+      <c r="AF27" s="82"/>
+      <c r="AG27" s="82"/>
+      <c r="AH27" s="82"/>
+      <c r="AI27" s="82"/>
+      <c r="AJ27" s="82"/>
+      <c r="AK27" s="82"/>
+      <c r="AL27" s="83"/>
+      <c r="AM27" s="81"/>
+      <c r="AN27" s="82"/>
+      <c r="AO27" s="82"/>
+      <c r="AP27" s="82"/>
+      <c r="AQ27" s="82"/>
+      <c r="AR27" s="82"/>
+      <c r="AS27" s="82"/>
+      <c r="AT27" s="82"/>
+      <c r="AU27" s="82"/>
+      <c r="AV27" s="82"/>
+      <c r="AW27" s="82"/>
+      <c r="AX27" s="82"/>
+      <c r="AY27" s="82"/>
+      <c r="AZ27" s="83"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="9" t="str">
@@ -4162,56 +5700,56 @@
         <v/>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="85"/>
-      <c r="P28" s="86"/>
-      <c r="Q28" s="84"/>
-      <c r="R28" s="85"/>
-      <c r="S28" s="85"/>
-      <c r="T28" s="85"/>
-      <c r="U28" s="85"/>
-      <c r="V28" s="85"/>
-      <c r="W28" s="85"/>
-      <c r="X28" s="85"/>
-      <c r="Y28" s="85"/>
-      <c r="Z28" s="85"/>
-      <c r="AA28" s="85"/>
-      <c r="AB28" s="85"/>
-      <c r="AC28" s="85"/>
-      <c r="AD28" s="85"/>
-      <c r="AE28" s="85"/>
-      <c r="AF28" s="85"/>
-      <c r="AG28" s="85"/>
-      <c r="AH28" s="85"/>
-      <c r="AI28" s="85"/>
-      <c r="AJ28" s="85"/>
-      <c r="AK28" s="85"/>
-      <c r="AL28" s="86"/>
-      <c r="AM28" s="84"/>
-      <c r="AN28" s="85"/>
-      <c r="AO28" s="85"/>
-      <c r="AP28" s="85"/>
-      <c r="AQ28" s="85"/>
-      <c r="AR28" s="85"/>
-      <c r="AS28" s="85"/>
-      <c r="AT28" s="85"/>
-      <c r="AU28" s="85"/>
-      <c r="AV28" s="85"/>
-      <c r="AW28" s="85"/>
-      <c r="AX28" s="85"/>
-      <c r="AY28" s="85"/>
-      <c r="AZ28" s="86"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="83"/>
+      <c r="Q28" s="81"/>
+      <c r="R28" s="82"/>
+      <c r="S28" s="82"/>
+      <c r="T28" s="82"/>
+      <c r="U28" s="82"/>
+      <c r="V28" s="82"/>
+      <c r="W28" s="82"/>
+      <c r="X28" s="82"/>
+      <c r="Y28" s="82"/>
+      <c r="Z28" s="82"/>
+      <c r="AA28" s="82"/>
+      <c r="AB28" s="82"/>
+      <c r="AC28" s="82"/>
+      <c r="AD28" s="82"/>
+      <c r="AE28" s="82"/>
+      <c r="AF28" s="82"/>
+      <c r="AG28" s="82"/>
+      <c r="AH28" s="82"/>
+      <c r="AI28" s="82"/>
+      <c r="AJ28" s="82"/>
+      <c r="AK28" s="82"/>
+      <c r="AL28" s="83"/>
+      <c r="AM28" s="81"/>
+      <c r="AN28" s="82"/>
+      <c r="AO28" s="82"/>
+      <c r="AP28" s="82"/>
+      <c r="AQ28" s="82"/>
+      <c r="AR28" s="82"/>
+      <c r="AS28" s="82"/>
+      <c r="AT28" s="82"/>
+      <c r="AU28" s="82"/>
+      <c r="AV28" s="82"/>
+      <c r="AW28" s="82"/>
+      <c r="AX28" s="82"/>
+      <c r="AY28" s="82"/>
+      <c r="AZ28" s="83"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="9" t="str">
@@ -4219,56 +5757,56 @@
         <v/>
       </c>
       <c r="B29" s="10"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="85"/>
-      <c r="P29" s="86"/>
-      <c r="Q29" s="84"/>
-      <c r="R29" s="85"/>
-      <c r="S29" s="85"/>
-      <c r="T29" s="85"/>
-      <c r="U29" s="85"/>
-      <c r="V29" s="85"/>
-      <c r="W29" s="85"/>
-      <c r="X29" s="85"/>
-      <c r="Y29" s="85"/>
-      <c r="Z29" s="85"/>
-      <c r="AA29" s="85"/>
-      <c r="AB29" s="85"/>
-      <c r="AC29" s="85"/>
-      <c r="AD29" s="85"/>
-      <c r="AE29" s="85"/>
-      <c r="AF29" s="85"/>
-      <c r="AG29" s="85"/>
-      <c r="AH29" s="85"/>
-      <c r="AI29" s="85"/>
-      <c r="AJ29" s="85"/>
-      <c r="AK29" s="85"/>
-      <c r="AL29" s="86"/>
-      <c r="AM29" s="84"/>
-      <c r="AN29" s="85"/>
-      <c r="AO29" s="85"/>
-      <c r="AP29" s="85"/>
-      <c r="AQ29" s="85"/>
-      <c r="AR29" s="85"/>
-      <c r="AS29" s="85"/>
-      <c r="AT29" s="85"/>
-      <c r="AU29" s="85"/>
-      <c r="AV29" s="85"/>
-      <c r="AW29" s="85"/>
-      <c r="AX29" s="85"/>
-      <c r="AY29" s="85"/>
-      <c r="AZ29" s="86"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="81"/>
+      <c r="R29" s="82"/>
+      <c r="S29" s="82"/>
+      <c r="T29" s="82"/>
+      <c r="U29" s="82"/>
+      <c r="V29" s="82"/>
+      <c r="W29" s="82"/>
+      <c r="X29" s="82"/>
+      <c r="Y29" s="82"/>
+      <c r="Z29" s="82"/>
+      <c r="AA29" s="82"/>
+      <c r="AB29" s="82"/>
+      <c r="AC29" s="82"/>
+      <c r="AD29" s="82"/>
+      <c r="AE29" s="82"/>
+      <c r="AF29" s="82"/>
+      <c r="AG29" s="82"/>
+      <c r="AH29" s="82"/>
+      <c r="AI29" s="82"/>
+      <c r="AJ29" s="82"/>
+      <c r="AK29" s="82"/>
+      <c r="AL29" s="83"/>
+      <c r="AM29" s="81"/>
+      <c r="AN29" s="82"/>
+      <c r="AO29" s="82"/>
+      <c r="AP29" s="82"/>
+      <c r="AQ29" s="82"/>
+      <c r="AR29" s="82"/>
+      <c r="AS29" s="82"/>
+      <c r="AT29" s="82"/>
+      <c r="AU29" s="82"/>
+      <c r="AV29" s="82"/>
+      <c r="AW29" s="82"/>
+      <c r="AX29" s="82"/>
+      <c r="AY29" s="82"/>
+      <c r="AZ29" s="83"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="9" t="str">
@@ -4276,56 +5814,56 @@
         <v/>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="85"/>
-      <c r="P30" s="86"/>
-      <c r="Q30" s="84"/>
-      <c r="R30" s="85"/>
-      <c r="S30" s="85"/>
-      <c r="T30" s="85"/>
-      <c r="U30" s="85"/>
-      <c r="V30" s="85"/>
-      <c r="W30" s="85"/>
-      <c r="X30" s="85"/>
-      <c r="Y30" s="85"/>
-      <c r="Z30" s="85"/>
-      <c r="AA30" s="85"/>
-      <c r="AB30" s="85"/>
-      <c r="AC30" s="85"/>
-      <c r="AD30" s="85"/>
-      <c r="AE30" s="85"/>
-      <c r="AF30" s="85"/>
-      <c r="AG30" s="85"/>
-      <c r="AH30" s="85"/>
-      <c r="AI30" s="85"/>
-      <c r="AJ30" s="85"/>
-      <c r="AK30" s="85"/>
-      <c r="AL30" s="86"/>
-      <c r="AM30" s="84"/>
-      <c r="AN30" s="85"/>
-      <c r="AO30" s="85"/>
-      <c r="AP30" s="85"/>
-      <c r="AQ30" s="85"/>
-      <c r="AR30" s="85"/>
-      <c r="AS30" s="85"/>
-      <c r="AT30" s="85"/>
-      <c r="AU30" s="85"/>
-      <c r="AV30" s="85"/>
-      <c r="AW30" s="85"/>
-      <c r="AX30" s="85"/>
-      <c r="AY30" s="85"/>
-      <c r="AZ30" s="86"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="81"/>
+      <c r="R30" s="82"/>
+      <c r="S30" s="82"/>
+      <c r="T30" s="82"/>
+      <c r="U30" s="82"/>
+      <c r="V30" s="82"/>
+      <c r="W30" s="82"/>
+      <c r="X30" s="82"/>
+      <c r="Y30" s="82"/>
+      <c r="Z30" s="82"/>
+      <c r="AA30" s="82"/>
+      <c r="AB30" s="82"/>
+      <c r="AC30" s="82"/>
+      <c r="AD30" s="82"/>
+      <c r="AE30" s="82"/>
+      <c r="AF30" s="82"/>
+      <c r="AG30" s="82"/>
+      <c r="AH30" s="82"/>
+      <c r="AI30" s="82"/>
+      <c r="AJ30" s="82"/>
+      <c r="AK30" s="82"/>
+      <c r="AL30" s="83"/>
+      <c r="AM30" s="81"/>
+      <c r="AN30" s="82"/>
+      <c r="AO30" s="82"/>
+      <c r="AP30" s="82"/>
+      <c r="AQ30" s="82"/>
+      <c r="AR30" s="82"/>
+      <c r="AS30" s="82"/>
+      <c r="AT30" s="82"/>
+      <c r="AU30" s="82"/>
+      <c r="AV30" s="82"/>
+      <c r="AW30" s="82"/>
+      <c r="AX30" s="82"/>
+      <c r="AY30" s="82"/>
+      <c r="AZ30" s="83"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="9" t="str">
@@ -4333,56 +5871,56 @@
         <v/>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="84"/>
-      <c r="M31" s="85"/>
-      <c r="N31" s="85"/>
-      <c r="O31" s="85"/>
-      <c r="P31" s="86"/>
-      <c r="Q31" s="84"/>
-      <c r="R31" s="85"/>
-      <c r="S31" s="85"/>
-      <c r="T31" s="85"/>
-      <c r="U31" s="85"/>
-      <c r="V31" s="85"/>
-      <c r="W31" s="85"/>
-      <c r="X31" s="85"/>
-      <c r="Y31" s="85"/>
-      <c r="Z31" s="85"/>
-      <c r="AA31" s="85"/>
-      <c r="AB31" s="85"/>
-      <c r="AC31" s="85"/>
-      <c r="AD31" s="85"/>
-      <c r="AE31" s="85"/>
-      <c r="AF31" s="85"/>
-      <c r="AG31" s="85"/>
-      <c r="AH31" s="85"/>
-      <c r="AI31" s="85"/>
-      <c r="AJ31" s="85"/>
-      <c r="AK31" s="85"/>
-      <c r="AL31" s="86"/>
-      <c r="AM31" s="84"/>
-      <c r="AN31" s="85"/>
-      <c r="AO31" s="85"/>
-      <c r="AP31" s="85"/>
-      <c r="AQ31" s="85"/>
-      <c r="AR31" s="85"/>
-      <c r="AS31" s="85"/>
-      <c r="AT31" s="85"/>
-      <c r="AU31" s="85"/>
-      <c r="AV31" s="85"/>
-      <c r="AW31" s="85"/>
-      <c r="AX31" s="85"/>
-      <c r="AY31" s="85"/>
-      <c r="AZ31" s="86"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="82"/>
+      <c r="O31" s="82"/>
+      <c r="P31" s="83"/>
+      <c r="Q31" s="81"/>
+      <c r="R31" s="82"/>
+      <c r="S31" s="82"/>
+      <c r="T31" s="82"/>
+      <c r="U31" s="82"/>
+      <c r="V31" s="82"/>
+      <c r="W31" s="82"/>
+      <c r="X31" s="82"/>
+      <c r="Y31" s="82"/>
+      <c r="Z31" s="82"/>
+      <c r="AA31" s="82"/>
+      <c r="AB31" s="82"/>
+      <c r="AC31" s="82"/>
+      <c r="AD31" s="82"/>
+      <c r="AE31" s="82"/>
+      <c r="AF31" s="82"/>
+      <c r="AG31" s="82"/>
+      <c r="AH31" s="82"/>
+      <c r="AI31" s="82"/>
+      <c r="AJ31" s="82"/>
+      <c r="AK31" s="82"/>
+      <c r="AL31" s="83"/>
+      <c r="AM31" s="81"/>
+      <c r="AN31" s="82"/>
+      <c r="AO31" s="82"/>
+      <c r="AP31" s="82"/>
+      <c r="AQ31" s="82"/>
+      <c r="AR31" s="82"/>
+      <c r="AS31" s="82"/>
+      <c r="AT31" s="82"/>
+      <c r="AU31" s="82"/>
+      <c r="AV31" s="82"/>
+      <c r="AW31" s="82"/>
+      <c r="AX31" s="82"/>
+      <c r="AY31" s="82"/>
+      <c r="AZ31" s="83"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="9" t="str">
@@ -4390,56 +5928,56 @@
         <v/>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="85"/>
-      <c r="N32" s="85"/>
-      <c r="O32" s="85"/>
-      <c r="P32" s="86"/>
-      <c r="Q32" s="84"/>
-      <c r="R32" s="85"/>
-      <c r="S32" s="85"/>
-      <c r="T32" s="85"/>
-      <c r="U32" s="85"/>
-      <c r="V32" s="85"/>
-      <c r="W32" s="85"/>
-      <c r="X32" s="85"/>
-      <c r="Y32" s="85"/>
-      <c r="Z32" s="85"/>
-      <c r="AA32" s="85"/>
-      <c r="AB32" s="85"/>
-      <c r="AC32" s="85"/>
-      <c r="AD32" s="85"/>
-      <c r="AE32" s="85"/>
-      <c r="AF32" s="85"/>
-      <c r="AG32" s="85"/>
-      <c r="AH32" s="85"/>
-      <c r="AI32" s="85"/>
-      <c r="AJ32" s="85"/>
-      <c r="AK32" s="85"/>
-      <c r="AL32" s="86"/>
-      <c r="AM32" s="84"/>
-      <c r="AN32" s="85"/>
-      <c r="AO32" s="85"/>
-      <c r="AP32" s="85"/>
-      <c r="AQ32" s="85"/>
-      <c r="AR32" s="85"/>
-      <c r="AS32" s="85"/>
-      <c r="AT32" s="85"/>
-      <c r="AU32" s="85"/>
-      <c r="AV32" s="85"/>
-      <c r="AW32" s="85"/>
-      <c r="AX32" s="85"/>
-      <c r="AY32" s="85"/>
-      <c r="AZ32" s="86"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="82"/>
+      <c r="O32" s="82"/>
+      <c r="P32" s="83"/>
+      <c r="Q32" s="81"/>
+      <c r="R32" s="82"/>
+      <c r="S32" s="82"/>
+      <c r="T32" s="82"/>
+      <c r="U32" s="82"/>
+      <c r="V32" s="82"/>
+      <c r="W32" s="82"/>
+      <c r="X32" s="82"/>
+      <c r="Y32" s="82"/>
+      <c r="Z32" s="82"/>
+      <c r="AA32" s="82"/>
+      <c r="AB32" s="82"/>
+      <c r="AC32" s="82"/>
+      <c r="AD32" s="82"/>
+      <c r="AE32" s="82"/>
+      <c r="AF32" s="82"/>
+      <c r="AG32" s="82"/>
+      <c r="AH32" s="82"/>
+      <c r="AI32" s="82"/>
+      <c r="AJ32" s="82"/>
+      <c r="AK32" s="82"/>
+      <c r="AL32" s="83"/>
+      <c r="AM32" s="81"/>
+      <c r="AN32" s="82"/>
+      <c r="AO32" s="82"/>
+      <c r="AP32" s="82"/>
+      <c r="AQ32" s="82"/>
+      <c r="AR32" s="82"/>
+      <c r="AS32" s="82"/>
+      <c r="AT32" s="82"/>
+      <c r="AU32" s="82"/>
+      <c r="AV32" s="82"/>
+      <c r="AW32" s="82"/>
+      <c r="AX32" s="82"/>
+      <c r="AY32" s="82"/>
+      <c r="AZ32" s="83"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="9" t="str">
@@ -4447,56 +5985,56 @@
         <v/>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="85"/>
-      <c r="N33" s="85"/>
-      <c r="O33" s="85"/>
-      <c r="P33" s="86"/>
-      <c r="Q33" s="84"/>
-      <c r="R33" s="85"/>
-      <c r="S33" s="85"/>
-      <c r="T33" s="85"/>
-      <c r="U33" s="85"/>
-      <c r="V33" s="85"/>
-      <c r="W33" s="85"/>
-      <c r="X33" s="85"/>
-      <c r="Y33" s="85"/>
-      <c r="Z33" s="85"/>
-      <c r="AA33" s="85"/>
-      <c r="AB33" s="85"/>
-      <c r="AC33" s="85"/>
-      <c r="AD33" s="85"/>
-      <c r="AE33" s="85"/>
-      <c r="AF33" s="85"/>
-      <c r="AG33" s="85"/>
-      <c r="AH33" s="85"/>
-      <c r="AI33" s="85"/>
-      <c r="AJ33" s="85"/>
-      <c r="AK33" s="85"/>
-      <c r="AL33" s="86"/>
-      <c r="AM33" s="84"/>
-      <c r="AN33" s="85"/>
-      <c r="AO33" s="85"/>
-      <c r="AP33" s="85"/>
-      <c r="AQ33" s="85"/>
-      <c r="AR33" s="85"/>
-      <c r="AS33" s="85"/>
-      <c r="AT33" s="85"/>
-      <c r="AU33" s="85"/>
-      <c r="AV33" s="85"/>
-      <c r="AW33" s="85"/>
-      <c r="AX33" s="85"/>
-      <c r="AY33" s="85"/>
-      <c r="AZ33" s="86"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="82"/>
+      <c r="N33" s="82"/>
+      <c r="O33" s="82"/>
+      <c r="P33" s="83"/>
+      <c r="Q33" s="81"/>
+      <c r="R33" s="82"/>
+      <c r="S33" s="82"/>
+      <c r="T33" s="82"/>
+      <c r="U33" s="82"/>
+      <c r="V33" s="82"/>
+      <c r="W33" s="82"/>
+      <c r="X33" s="82"/>
+      <c r="Y33" s="82"/>
+      <c r="Z33" s="82"/>
+      <c r="AA33" s="82"/>
+      <c r="AB33" s="82"/>
+      <c r="AC33" s="82"/>
+      <c r="AD33" s="82"/>
+      <c r="AE33" s="82"/>
+      <c r="AF33" s="82"/>
+      <c r="AG33" s="82"/>
+      <c r="AH33" s="82"/>
+      <c r="AI33" s="82"/>
+      <c r="AJ33" s="82"/>
+      <c r="AK33" s="82"/>
+      <c r="AL33" s="83"/>
+      <c r="AM33" s="81"/>
+      <c r="AN33" s="82"/>
+      <c r="AO33" s="82"/>
+      <c r="AP33" s="82"/>
+      <c r="AQ33" s="82"/>
+      <c r="AR33" s="82"/>
+      <c r="AS33" s="82"/>
+      <c r="AT33" s="82"/>
+      <c r="AU33" s="82"/>
+      <c r="AV33" s="82"/>
+      <c r="AW33" s="82"/>
+      <c r="AX33" s="82"/>
+      <c r="AY33" s="82"/>
+      <c r="AZ33" s="83"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="9" t="str">
@@ -4504,56 +6042,56 @@
         <v/>
       </c>
       <c r="B34" s="10"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="84"/>
-      <c r="M34" s="85"/>
-      <c r="N34" s="85"/>
-      <c r="O34" s="85"/>
-      <c r="P34" s="86"/>
-      <c r="Q34" s="84"/>
-      <c r="R34" s="85"/>
-      <c r="S34" s="85"/>
-      <c r="T34" s="85"/>
-      <c r="U34" s="85"/>
-      <c r="V34" s="85"/>
-      <c r="W34" s="85"/>
-      <c r="X34" s="85"/>
-      <c r="Y34" s="85"/>
-      <c r="Z34" s="85"/>
-      <c r="AA34" s="85"/>
-      <c r="AB34" s="85"/>
-      <c r="AC34" s="85"/>
-      <c r="AD34" s="85"/>
-      <c r="AE34" s="85"/>
-      <c r="AF34" s="85"/>
-      <c r="AG34" s="85"/>
-      <c r="AH34" s="85"/>
-      <c r="AI34" s="85"/>
-      <c r="AJ34" s="85"/>
-      <c r="AK34" s="85"/>
-      <c r="AL34" s="86"/>
-      <c r="AM34" s="84"/>
-      <c r="AN34" s="85"/>
-      <c r="AO34" s="85"/>
-      <c r="AP34" s="85"/>
-      <c r="AQ34" s="85"/>
-      <c r="AR34" s="85"/>
-      <c r="AS34" s="85"/>
-      <c r="AT34" s="85"/>
-      <c r="AU34" s="85"/>
-      <c r="AV34" s="85"/>
-      <c r="AW34" s="85"/>
-      <c r="AX34" s="85"/>
-      <c r="AY34" s="85"/>
-      <c r="AZ34" s="86"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="82"/>
+      <c r="N34" s="82"/>
+      <c r="O34" s="82"/>
+      <c r="P34" s="83"/>
+      <c r="Q34" s="81"/>
+      <c r="R34" s="82"/>
+      <c r="S34" s="82"/>
+      <c r="T34" s="82"/>
+      <c r="U34" s="82"/>
+      <c r="V34" s="82"/>
+      <c r="W34" s="82"/>
+      <c r="X34" s="82"/>
+      <c r="Y34" s="82"/>
+      <c r="Z34" s="82"/>
+      <c r="AA34" s="82"/>
+      <c r="AB34" s="82"/>
+      <c r="AC34" s="82"/>
+      <c r="AD34" s="82"/>
+      <c r="AE34" s="82"/>
+      <c r="AF34" s="82"/>
+      <c r="AG34" s="82"/>
+      <c r="AH34" s="82"/>
+      <c r="AI34" s="82"/>
+      <c r="AJ34" s="82"/>
+      <c r="AK34" s="82"/>
+      <c r="AL34" s="83"/>
+      <c r="AM34" s="81"/>
+      <c r="AN34" s="82"/>
+      <c r="AO34" s="82"/>
+      <c r="AP34" s="82"/>
+      <c r="AQ34" s="82"/>
+      <c r="AR34" s="82"/>
+      <c r="AS34" s="82"/>
+      <c r="AT34" s="82"/>
+      <c r="AU34" s="82"/>
+      <c r="AV34" s="82"/>
+      <c r="AW34" s="82"/>
+      <c r="AX34" s="82"/>
+      <c r="AY34" s="82"/>
+      <c r="AZ34" s="83"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="9" t="str">
@@ -4561,59 +6099,189 @@
         <v/>
       </c>
       <c r="B35" s="10"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="84"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="86"/>
-      <c r="Q35" s="84"/>
-      <c r="R35" s="85"/>
-      <c r="S35" s="85"/>
-      <c r="T35" s="85"/>
-      <c r="U35" s="85"/>
-      <c r="V35" s="85"/>
-      <c r="W35" s="85"/>
-      <c r="X35" s="85"/>
-      <c r="Y35" s="85"/>
-      <c r="Z35" s="85"/>
-      <c r="AA35" s="85"/>
-      <c r="AB35" s="85"/>
-      <c r="AC35" s="85"/>
-      <c r="AD35" s="85"/>
-      <c r="AE35" s="85"/>
-      <c r="AF35" s="85"/>
-      <c r="AG35" s="85"/>
-      <c r="AH35" s="85"/>
-      <c r="AI35" s="85"/>
-      <c r="AJ35" s="85"/>
-      <c r="AK35" s="85"/>
-      <c r="AL35" s="86"/>
-      <c r="AM35" s="84"/>
-      <c r="AN35" s="85"/>
-      <c r="AO35" s="85"/>
-      <c r="AP35" s="85"/>
-      <c r="AQ35" s="85"/>
-      <c r="AR35" s="85"/>
-      <c r="AS35" s="85"/>
-      <c r="AT35" s="85"/>
-      <c r="AU35" s="85"/>
-      <c r="AV35" s="85"/>
-      <c r="AW35" s="85"/>
-      <c r="AX35" s="85"/>
-      <c r="AY35" s="85"/>
-      <c r="AZ35" s="86"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="83"/>
+      <c r="Q35" s="81"/>
+      <c r="R35" s="82"/>
+      <c r="S35" s="82"/>
+      <c r="T35" s="82"/>
+      <c r="U35" s="82"/>
+      <c r="V35" s="82"/>
+      <c r="W35" s="82"/>
+      <c r="X35" s="82"/>
+      <c r="Y35" s="82"/>
+      <c r="Z35" s="82"/>
+      <c r="AA35" s="82"/>
+      <c r="AB35" s="82"/>
+      <c r="AC35" s="82"/>
+      <c r="AD35" s="82"/>
+      <c r="AE35" s="82"/>
+      <c r="AF35" s="82"/>
+      <c r="AG35" s="82"/>
+      <c r="AH35" s="82"/>
+      <c r="AI35" s="82"/>
+      <c r="AJ35" s="82"/>
+      <c r="AK35" s="82"/>
+      <c r="AL35" s="83"/>
+      <c r="AM35" s="81"/>
+      <c r="AN35" s="82"/>
+      <c r="AO35" s="82"/>
+      <c r="AP35" s="82"/>
+      <c r="AQ35" s="82"/>
+      <c r="AR35" s="82"/>
+      <c r="AS35" s="82"/>
+      <c r="AT35" s="82"/>
+      <c r="AU35" s="82"/>
+      <c r="AV35" s="82"/>
+      <c r="AW35" s="82"/>
+      <c r="AX35" s="82"/>
+      <c r="AY35" s="82"/>
+      <c r="AZ35" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="Q34:AL34"/>
+    <mergeCell ref="AM34:AZ34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="L35:P35"/>
+    <mergeCell ref="Q35:AL35"/>
+    <mergeCell ref="AM35:AZ35"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="Q32:AL32"/>
+    <mergeCell ref="AM32:AZ32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="Q33:AL33"/>
+    <mergeCell ref="AM33:AZ33"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="Q30:AL30"/>
+    <mergeCell ref="AM30:AZ30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="Q31:AL31"/>
+    <mergeCell ref="AM31:AZ31"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="Q28:AL28"/>
+    <mergeCell ref="AM28:AZ28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="Q29:AL29"/>
+    <mergeCell ref="AM29:AZ29"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="Q26:AL26"/>
+    <mergeCell ref="AM26:AZ26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="Q27:AL27"/>
+    <mergeCell ref="AM27:AZ27"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="Q24:AL24"/>
+    <mergeCell ref="AM24:AZ24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="Q25:AL25"/>
+    <mergeCell ref="AM25:AZ25"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="Q22:AL22"/>
+    <mergeCell ref="AM22:AZ22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="Q23:AL23"/>
+    <mergeCell ref="AM23:AZ23"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="Q20:AL20"/>
+    <mergeCell ref="AM20:AZ20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="Q21:AL21"/>
+    <mergeCell ref="AM21:AZ21"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="Q18:AL18"/>
+    <mergeCell ref="AM18:AZ18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="Q19:AL19"/>
+    <mergeCell ref="AM19:AZ19"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="Q16:AL16"/>
+    <mergeCell ref="AM16:AZ16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="Q17:AL17"/>
+    <mergeCell ref="AM17:AZ17"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="Q14:AL14"/>
+    <mergeCell ref="AM14:AZ14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="Q15:AL15"/>
+    <mergeCell ref="AM15:AZ15"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="Q12:AL12"/>
+    <mergeCell ref="AM12:AZ12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="Q13:AL13"/>
+    <mergeCell ref="AM13:AZ13"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:AL10"/>
+    <mergeCell ref="AM10:AZ10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="Q11:AL11"/>
+    <mergeCell ref="AM11:AZ11"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="L8:P8"/>
     <mergeCell ref="Q8:AL8"/>
@@ -4624,136 +6292,6 @@
     <mergeCell ref="L9:P9"/>
     <mergeCell ref="Q9:AL9"/>
     <mergeCell ref="AM9:AZ9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="Q10:AL10"/>
-    <mergeCell ref="AM10:AZ10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="Q11:AL11"/>
-    <mergeCell ref="AM11:AZ11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="Q12:AL12"/>
-    <mergeCell ref="AM12:AZ12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="Q13:AL13"/>
-    <mergeCell ref="AM13:AZ13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="Q14:AL14"/>
-    <mergeCell ref="AM14:AZ14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="Q15:AL15"/>
-    <mergeCell ref="AM15:AZ15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="Q16:AL16"/>
-    <mergeCell ref="AM16:AZ16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="Q17:AL17"/>
-    <mergeCell ref="AM17:AZ17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="Q18:AL18"/>
-    <mergeCell ref="AM18:AZ18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="Q19:AL19"/>
-    <mergeCell ref="AM19:AZ19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="Q20:AL20"/>
-    <mergeCell ref="AM20:AZ20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="Q21:AL21"/>
-    <mergeCell ref="AM21:AZ21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="Q22:AL22"/>
-    <mergeCell ref="AM22:AZ22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="Q23:AL23"/>
-    <mergeCell ref="AM23:AZ23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="Q24:AL24"/>
-    <mergeCell ref="AM24:AZ24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="Q25:AL25"/>
-    <mergeCell ref="AM25:AZ25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="Q26:AL26"/>
-    <mergeCell ref="AM26:AZ26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="Q27:AL27"/>
-    <mergeCell ref="AM27:AZ27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="Q28:AL28"/>
-    <mergeCell ref="AM28:AZ28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="Q29:AL29"/>
-    <mergeCell ref="AM29:AZ29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="Q30:AL30"/>
-    <mergeCell ref="AM30:AZ30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="Q31:AL31"/>
-    <mergeCell ref="AM31:AZ31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="Q32:AL32"/>
-    <mergeCell ref="AM32:AZ32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="L33:P33"/>
-    <mergeCell ref="Q33:AL33"/>
-    <mergeCell ref="AM33:AZ33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="L34:P34"/>
-    <mergeCell ref="Q34:AL34"/>
-    <mergeCell ref="AM34:AZ34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="L35:P35"/>
-    <mergeCell ref="Q35:AL35"/>
-    <mergeCell ref="AM35:AZ35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4765,14 +6303,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9307939-537D-9F44-B482-1E22BD0105F1}">
-  <dimension ref="A1:BP105"/>
+  <dimension ref="A1:BP117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="22"/>
-    <col min="2" max="2" width="3.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.33203125" style="22"/>
     <col min="4" max="4" width="9.6640625" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="29" width="3.33203125" style="22"/>
@@ -6405,7 +7943,7 @@
     <row r="30" spans="1:53">
       <c r="A30" s="32"/>
       <c r="B30" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
@@ -6516,7 +8054,7 @@
     </row>
     <row r="32" spans="1:53">
       <c r="A32" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
@@ -6574,7 +8112,7 @@
     <row r="33" spans="1:53">
       <c r="A33" s="32"/>
       <c r="B33" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
@@ -8489,8 +10027,6 @@
       <c r="AE67" s="20"/>
       <c r="AF67" s="20"/>
       <c r="AG67" s="20"/>
-      <c r="AH67" s="20"/>
-      <c r="AI67" s="20"/>
       <c r="AJ67" s="20"/>
       <c r="AK67" s="20"/>
       <c r="AL67" s="20"/>
@@ -8788,7 +10324,9 @@
     <row r="73" spans="1:53">
       <c r="A73" s="32"/>
       <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
+      <c r="C73" s="20" t="s">
+        <v>99</v>
+      </c>
       <c r="D73" s="20"/>
       <c r="E73" s="20"/>
       <c r="F73" s="20"/>
@@ -8843,7 +10381,9 @@
     <row r="74" spans="1:53">
       <c r="A74" s="32"/>
       <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
+      <c r="C74" s="96" t="s">
+        <v>96</v>
+      </c>
       <c r="D74" s="20"/>
       <c r="E74" s="20"/>
       <c r="F74" s="20"/>
@@ -8896,61 +10436,59 @@
       <c r="BA74" s="20"/>
     </row>
     <row r="75" spans="1:53">
-      <c r="A75" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B75" s="34"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="34"/>
-      <c r="J75" s="34"/>
-      <c r="K75" s="34"/>
-      <c r="L75" s="34"/>
-      <c r="M75" s="34"/>
-      <c r="N75" s="34"/>
-      <c r="O75" s="34"/>
-      <c r="P75" s="34"/>
-      <c r="Q75" s="34"/>
-      <c r="R75" s="34"/>
-      <c r="S75" s="34"/>
-      <c r="T75" s="34"/>
-      <c r="U75" s="34"/>
-      <c r="V75" s="34"/>
-      <c r="W75" s="34"/>
-      <c r="X75" s="34"/>
-      <c r="Y75" s="34"/>
-      <c r="Z75" s="34"/>
-      <c r="AA75" s="34"/>
-      <c r="AB75" s="34"/>
-      <c r="AC75" s="34"/>
-      <c r="AD75" s="34"/>
-      <c r="AE75" s="34"/>
-      <c r="AF75" s="34"/>
-      <c r="AG75" s="34"/>
-      <c r="AH75" s="34"/>
-      <c r="AI75" s="34"/>
-      <c r="AJ75" s="34"/>
-      <c r="AK75" s="34"/>
-      <c r="AL75" s="34"/>
-      <c r="AM75" s="34"/>
-      <c r="AN75" s="34"/>
-      <c r="AO75" s="34"/>
-      <c r="AP75" s="34"/>
-      <c r="AQ75" s="34"/>
-      <c r="AR75" s="34"/>
-      <c r="AS75" s="34"/>
-      <c r="AT75" s="34"/>
-      <c r="AU75" s="34"/>
-      <c r="AV75" s="34"/>
-      <c r="AW75" s="34"/>
-      <c r="AX75" s="34"/>
-      <c r="AY75" s="34"/>
-      <c r="AZ75" s="34"/>
-      <c r="BA75" s="34"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="20"/>
+      <c r="L75" s="20"/>
+      <c r="M75" s="20"/>
+      <c r="N75" s="20"/>
+      <c r="O75" s="20"/>
+      <c r="P75" s="20"/>
+      <c r="Q75" s="20"/>
+      <c r="R75" s="20"/>
+      <c r="S75" s="20"/>
+      <c r="T75" s="20"/>
+      <c r="U75" s="20"/>
+      <c r="V75" s="20"/>
+      <c r="W75" s="20"/>
+      <c r="X75" s="20"/>
+      <c r="Y75" s="20"/>
+      <c r="Z75" s="20"/>
+      <c r="AA75" s="20"/>
+      <c r="AB75" s="20"/>
+      <c r="AC75" s="20"/>
+      <c r="AD75" s="20"/>
+      <c r="AE75" s="20"/>
+      <c r="AF75" s="20"/>
+      <c r="AG75" s="20"/>
+      <c r="AH75" s="20"/>
+      <c r="AI75" s="20"/>
+      <c r="AJ75" s="20"/>
+      <c r="AK75" s="20"/>
+      <c r="AL75" s="20"/>
+      <c r="AM75" s="20"/>
+      <c r="AN75" s="20"/>
+      <c r="AO75" s="20"/>
+      <c r="AP75" s="20"/>
+      <c r="AQ75" s="20"/>
+      <c r="AR75" s="20"/>
+      <c r="AS75" s="20"/>
+      <c r="AT75" s="20"/>
+      <c r="AU75" s="20"/>
+      <c r="AV75" s="20"/>
+      <c r="AW75" s="20"/>
+      <c r="AX75" s="20"/>
+      <c r="AY75" s="20"/>
+      <c r="AZ75" s="20"/>
+      <c r="BA75" s="20"/>
     </row>
     <row r="76" spans="1:53">
       <c r="A76" s="32"/>
@@ -9064,9 +10602,7 @@
     </row>
     <row r="78" spans="1:53">
       <c r="A78" s="32"/>
-      <c r="B78" s="20" t="s">
-        <v>32</v>
-      </c>
+      <c r="B78" s="20"/>
       <c r="C78" s="20"/>
       <c r="D78" s="20"/>
       <c r="E78" s="20"/>
@@ -9119,360 +10655,351 @@
       <c r="AZ78" s="20"/>
       <c r="BA78" s="20"/>
     </row>
-    <row r="79" spans="1:53" s="44" customFormat="1">
+    <row r="79" spans="1:53">
       <c r="A79" s="32"/>
-      <c r="B79" s="38" t="s">
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="20"/>
+      <c r="L79" s="20"/>
+      <c r="M79" s="20"/>
+      <c r="N79" s="20"/>
+      <c r="O79" s="20"/>
+      <c r="P79" s="20"/>
+      <c r="Q79" s="20"/>
+      <c r="R79" s="20"/>
+      <c r="S79" s="20"/>
+      <c r="T79" s="20"/>
+      <c r="U79" s="20"/>
+      <c r="V79" s="20"/>
+      <c r="W79" s="20"/>
+      <c r="X79" s="20"/>
+      <c r="Y79" s="20"/>
+      <c r="Z79" s="20"/>
+      <c r="AA79" s="20"/>
+      <c r="AB79" s="20"/>
+      <c r="AC79" s="20"/>
+      <c r="AD79" s="20"/>
+      <c r="AE79" s="20"/>
+      <c r="AF79" s="20"/>
+      <c r="AG79" s="20"/>
+      <c r="AH79" s="20"/>
+      <c r="AI79" s="20"/>
+      <c r="AJ79" s="20"/>
+      <c r="AK79" s="20"/>
+      <c r="AL79" s="20"/>
+      <c r="AM79" s="20"/>
+      <c r="AN79" s="20"/>
+      <c r="AO79" s="20"/>
+      <c r="AP79" s="20"/>
+      <c r="AQ79" s="20"/>
+      <c r="AR79" s="20"/>
+      <c r="AS79" s="20"/>
+      <c r="AT79" s="20"/>
+      <c r="AU79" s="20"/>
+      <c r="AV79" s="20"/>
+      <c r="AW79" s="20"/>
+      <c r="AX79" s="20"/>
+      <c r="AY79" s="20"/>
+      <c r="AZ79" s="20"/>
+      <c r="BA79" s="20"/>
+    </row>
+    <row r="80" spans="1:53">
+      <c r="A80" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="34"/>
+      <c r="K80" s="34"/>
+      <c r="L80" s="34"/>
+      <c r="M80" s="34"/>
+      <c r="N80" s="34"/>
+      <c r="O80" s="34"/>
+      <c r="P80" s="34"/>
+      <c r="Q80" s="34"/>
+      <c r="R80" s="34"/>
+      <c r="S80" s="34"/>
+      <c r="T80" s="34"/>
+      <c r="U80" s="34"/>
+      <c r="V80" s="34"/>
+      <c r="W80" s="34"/>
+      <c r="X80" s="34"/>
+      <c r="Y80" s="34"/>
+      <c r="Z80" s="34"/>
+      <c r="AA80" s="34"/>
+      <c r="AB80" s="34"/>
+      <c r="AC80" s="34"/>
+      <c r="AD80" s="34"/>
+      <c r="AE80" s="34"/>
+      <c r="AF80" s="34"/>
+      <c r="AG80" s="34"/>
+      <c r="AH80" s="34"/>
+      <c r="AI80" s="34"/>
+      <c r="AJ80" s="34"/>
+      <c r="AK80" s="34"/>
+      <c r="AL80" s="34"/>
+      <c r="AM80" s="34"/>
+      <c r="AN80" s="34"/>
+      <c r="AO80" s="34"/>
+      <c r="AP80" s="34"/>
+      <c r="AQ80" s="34"/>
+      <c r="AR80" s="34"/>
+      <c r="AS80" s="34"/>
+      <c r="AT80" s="34"/>
+      <c r="AU80" s="34"/>
+      <c r="AV80" s="34"/>
+      <c r="AW80" s="34"/>
+      <c r="AX80" s="34"/>
+      <c r="AY80" s="34"/>
+      <c r="AZ80" s="34"/>
+      <c r="BA80" s="34"/>
+    </row>
+    <row r="81" spans="1:53">
+      <c r="A81" s="32"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="20"/>
+      <c r="L81" s="20"/>
+      <c r="M81" s="20"/>
+      <c r="N81" s="20"/>
+      <c r="O81" s="20"/>
+      <c r="P81" s="20"/>
+      <c r="Q81" s="20"/>
+      <c r="R81" s="20"/>
+      <c r="S81" s="20"/>
+      <c r="T81" s="20"/>
+      <c r="U81" s="20"/>
+      <c r="V81" s="20"/>
+      <c r="W81" s="20"/>
+      <c r="X81" s="20"/>
+      <c r="Y81" s="20"/>
+      <c r="Z81" s="20"/>
+      <c r="AA81" s="20"/>
+      <c r="AB81" s="20"/>
+      <c r="AC81" s="20"/>
+      <c r="AD81" s="20"/>
+      <c r="AE81" s="20"/>
+      <c r="AF81" s="20"/>
+      <c r="AG81" s="20"/>
+      <c r="AH81" s="20"/>
+      <c r="AI81" s="20"/>
+      <c r="AJ81" s="20"/>
+      <c r="AK81" s="20"/>
+      <c r="AL81" s="20"/>
+      <c r="AM81" s="20"/>
+      <c r="AN81" s="20"/>
+      <c r="AO81" s="20"/>
+      <c r="AP81" s="20"/>
+      <c r="AQ81" s="20"/>
+      <c r="AR81" s="20"/>
+      <c r="AS81" s="20"/>
+      <c r="AT81" s="20"/>
+      <c r="AU81" s="20"/>
+      <c r="AV81" s="20"/>
+      <c r="AW81" s="20"/>
+      <c r="AX81" s="20"/>
+      <c r="AY81" s="20"/>
+      <c r="AZ81" s="20"/>
+      <c r="BA81" s="20"/>
+    </row>
+    <row r="82" spans="1:53">
+      <c r="A82" s="32"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="20"/>
+      <c r="K82" s="20"/>
+      <c r="L82" s="20"/>
+      <c r="M82" s="20"/>
+      <c r="N82" s="20"/>
+      <c r="O82" s="20"/>
+      <c r="P82" s="20"/>
+      <c r="Q82" s="20"/>
+      <c r="R82" s="20"/>
+      <c r="S82" s="20"/>
+      <c r="T82" s="20"/>
+      <c r="U82" s="20"/>
+      <c r="V82" s="20"/>
+      <c r="W82" s="20"/>
+      <c r="X82" s="20"/>
+      <c r="Y82" s="20"/>
+      <c r="Z82" s="20"/>
+      <c r="AA82" s="20"/>
+      <c r="AB82" s="20"/>
+      <c r="AC82" s="20"/>
+      <c r="AD82" s="20"/>
+      <c r="AE82" s="20"/>
+      <c r="AF82" s="20"/>
+      <c r="AG82" s="20"/>
+      <c r="AH82" s="20"/>
+      <c r="AI82" s="20"/>
+      <c r="AJ82" s="20"/>
+      <c r="AK82" s="20"/>
+      <c r="AL82" s="20"/>
+      <c r="AM82" s="20"/>
+      <c r="AN82" s="20"/>
+      <c r="AO82" s="20"/>
+      <c r="AP82" s="20"/>
+      <c r="AQ82" s="20"/>
+      <c r="AR82" s="20"/>
+      <c r="AS82" s="20"/>
+      <c r="AT82" s="20"/>
+      <c r="AU82" s="20"/>
+      <c r="AV82" s="20"/>
+      <c r="AW82" s="20"/>
+      <c r="AX82" s="20"/>
+      <c r="AY82" s="20"/>
+      <c r="AZ82" s="20"/>
+      <c r="BA82" s="20"/>
+    </row>
+    <row r="83" spans="1:53">
+      <c r="A83" s="32"/>
+      <c r="B83" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
+      <c r="M83" s="20"/>
+      <c r="N83" s="20"/>
+      <c r="O83" s="20"/>
+      <c r="P83" s="20"/>
+      <c r="Q83" s="20"/>
+      <c r="R83" s="20"/>
+      <c r="S83" s="20"/>
+      <c r="T83" s="20"/>
+      <c r="U83" s="20"/>
+      <c r="V83" s="20"/>
+      <c r="W83" s="20"/>
+      <c r="X83" s="20"/>
+      <c r="Y83" s="20"/>
+      <c r="Z83" s="20"/>
+      <c r="AA83" s="20"/>
+      <c r="AB83" s="20"/>
+      <c r="AC83" s="20"/>
+      <c r="AD83" s="20"/>
+      <c r="AE83" s="20"/>
+      <c r="AF83" s="20"/>
+      <c r="AG83" s="20"/>
+      <c r="AH83" s="20"/>
+      <c r="AI83" s="20"/>
+      <c r="AJ83" s="20"/>
+      <c r="AK83" s="20"/>
+      <c r="AL83" s="20"/>
+      <c r="AM83" s="20"/>
+      <c r="AN83" s="20"/>
+      <c r="AO83" s="20"/>
+      <c r="AP83" s="20"/>
+      <c r="AQ83" s="20"/>
+      <c r="AR83" s="20"/>
+      <c r="AS83" s="20"/>
+      <c r="AT83" s="20"/>
+      <c r="AU83" s="20"/>
+      <c r="AV83" s="20"/>
+      <c r="AW83" s="20"/>
+      <c r="AX83" s="20"/>
+      <c r="AY83" s="20"/>
+      <c r="AZ83" s="20"/>
+      <c r="BA83" s="20"/>
+    </row>
+    <row r="84" spans="1:53" s="44" customFormat="1">
+      <c r="A84" s="32"/>
+      <c r="B84" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C79" s="39"/>
-      <c r="D79" s="33" t="s">
+      <c r="C84" s="39"/>
+      <c r="D84" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E79" s="34"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="34"/>
-      <c r="J79" s="40"/>
-      <c r="K79" s="90" t="s">
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="34"/>
+      <c r="I84" s="34"/>
+      <c r="J84" s="40"/>
+      <c r="K84" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="L79" s="91"/>
-      <c r="M79" s="91"/>
-      <c r="N79" s="92"/>
-      <c r="O79" s="38" t="s">
+      <c r="L84" s="91"/>
+      <c r="M84" s="91"/>
+      <c r="N84" s="92"/>
+      <c r="O84" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="P79" s="41"/>
-      <c r="Q79" s="41"/>
-      <c r="R79" s="41"/>
-      <c r="S79" s="41"/>
-      <c r="T79" s="33" t="s">
+      <c r="P84" s="41"/>
+      <c r="Q84" s="41"/>
+      <c r="R84" s="41"/>
+      <c r="S84" s="41"/>
+      <c r="T84" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="U79" s="42"/>
-      <c r="V79" s="42"/>
-      <c r="W79" s="42"/>
-      <c r="X79" s="39"/>
-      <c r="Y79" s="38" t="s">
+      <c r="U84" s="42"/>
+      <c r="V84" s="42"/>
+      <c r="W84" s="42"/>
+      <c r="X84" s="39"/>
+      <c r="Y84" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="Z79" s="42"/>
-      <c r="AA79" s="42"/>
-      <c r="AB79" s="42"/>
-      <c r="AC79" s="41"/>
-      <c r="AD79" s="38" t="s">
+      <c r="Z84" s="42"/>
+      <c r="AA84" s="42"/>
+      <c r="AB84" s="42"/>
+      <c r="AC84" s="41"/>
+      <c r="AD84" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="AE79" s="41"/>
-      <c r="AF79" s="41"/>
-      <c r="AG79" s="41"/>
-      <c r="AH79" s="41"/>
-      <c r="AI79" s="41"/>
-      <c r="AJ79" s="41"/>
-      <c r="AK79" s="41"/>
-      <c r="AL79" s="41"/>
-      <c r="AM79" s="41"/>
-      <c r="AN79" s="41"/>
-      <c r="AO79" s="43"/>
-      <c r="BA79" s="20"/>
-    </row>
-    <row r="80" spans="1:53">
-      <c r="A80" s="32"/>
-      <c r="B80" s="45">
-        <v>1</v>
-      </c>
-      <c r="C80" s="46"/>
-      <c r="D80" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="E80" s="48"/>
-      <c r="F80" s="48"/>
-      <c r="G80" s="48"/>
-      <c r="H80" s="48"/>
-      <c r="I80" s="48"/>
-      <c r="J80" s="46"/>
-      <c r="K80" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="L80" s="48"/>
-      <c r="M80" s="48"/>
-      <c r="N80" s="46"/>
-      <c r="O80" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="P80" s="48"/>
-      <c r="Q80" s="48"/>
-      <c r="R80" s="48"/>
-      <c r="S80" s="48"/>
-      <c r="T80" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="U80" s="48"/>
-      <c r="V80" s="48"/>
-      <c r="W80" s="48"/>
-      <c r="X80" s="46"/>
-      <c r="Y80" s="87">
-        <v>9999999999</v>
-      </c>
-      <c r="Z80" s="88"/>
-      <c r="AA80" s="88"/>
-      <c r="AB80" s="88"/>
-      <c r="AC80" s="89"/>
-      <c r="AD80" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE80" s="48"/>
-      <c r="AF80" s="48"/>
-      <c r="AG80" s="48"/>
-      <c r="AH80" s="48"/>
-      <c r="AI80" s="48"/>
-      <c r="AJ80" s="48"/>
-      <c r="AK80" s="48"/>
-      <c r="AL80" s="48"/>
-      <c r="AM80" s="48"/>
-      <c r="AN80" s="48"/>
-      <c r="AO80" s="46"/>
-      <c r="BA80" s="20"/>
-    </row>
-    <row r="81" spans="1:68">
-      <c r="A81" s="32"/>
-      <c r="B81" s="45">
-        <v>2</v>
-      </c>
-      <c r="C81" s="46"/>
-      <c r="D81" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="E81" s="48"/>
-      <c r="F81" s="48"/>
-      <c r="G81" s="48"/>
-      <c r="H81" s="48"/>
-      <c r="I81" s="48"/>
-      <c r="J81" s="46"/>
-      <c r="K81" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="L81" s="48"/>
-      <c r="M81" s="48"/>
-      <c r="N81" s="46"/>
-      <c r="O81" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="P81" s="48"/>
-      <c r="Q81" s="48"/>
-      <c r="R81" s="48"/>
-      <c r="S81" s="48"/>
-      <c r="T81" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="U81" s="48"/>
-      <c r="V81" s="48"/>
-      <c r="W81" s="48"/>
-      <c r="X81" s="46"/>
-      <c r="Y81" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z81" s="48"/>
-      <c r="AA81" s="48"/>
-      <c r="AB81" s="48"/>
-      <c r="AC81" s="48"/>
-      <c r="AD81" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE81" s="48"/>
-      <c r="AF81" s="48"/>
-      <c r="AG81" s="48"/>
-      <c r="AH81" s="48"/>
-      <c r="AI81" s="48"/>
-      <c r="AJ81" s="48"/>
-      <c r="AK81" s="48"/>
-      <c r="AL81" s="48"/>
-      <c r="AM81" s="48"/>
-      <c r="AN81" s="48"/>
-      <c r="AO81" s="46"/>
-      <c r="BA81" s="20"/>
-    </row>
-    <row r="82" spans="1:68">
-      <c r="A82" s="32"/>
-      <c r="B82" s="45">
-        <v>3</v>
-      </c>
-      <c r="C82" s="46"/>
-      <c r="D82" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="E82" s="48"/>
-      <c r="F82" s="48"/>
-      <c r="G82" s="48"/>
-      <c r="H82" s="48"/>
-      <c r="I82" s="48"/>
-      <c r="J82" s="46"/>
-      <c r="K82" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="L82" s="48"/>
-      <c r="M82" s="48"/>
-      <c r="N82" s="46"/>
-      <c r="O82" s="47"/>
-      <c r="P82" s="48"/>
-      <c r="Q82" s="48"/>
-      <c r="R82" s="48"/>
-      <c r="S82" s="48"/>
-      <c r="T82" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="U82" s="48"/>
-      <c r="V82" s="48"/>
-      <c r="W82" s="48"/>
-      <c r="X82" s="46"/>
-      <c r="Y82" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z82" s="48"/>
-      <c r="AA82" s="48"/>
-      <c r="AB82" s="48"/>
-      <c r="AC82" s="48"/>
-      <c r="AD82" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE82" s="48"/>
-      <c r="AF82" s="48"/>
-      <c r="AG82" s="48"/>
-      <c r="AH82" s="48"/>
-      <c r="AI82" s="48"/>
-      <c r="AJ82" s="48"/>
-      <c r="AK82" s="48"/>
-      <c r="AL82" s="48"/>
-      <c r="AM82" s="48"/>
-      <c r="AN82" s="48"/>
-      <c r="AO82" s="46"/>
-      <c r="BA82" s="20"/>
-    </row>
-    <row r="83" spans="1:68" ht="18" customHeight="1">
-      <c r="A83" s="32"/>
-      <c r="B83" s="45">
-        <v>4</v>
-      </c>
-      <c r="C83" s="46"/>
-      <c r="D83" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="E83" s="48"/>
-      <c r="F83" s="48"/>
-      <c r="G83" s="48"/>
-      <c r="H83" s="48"/>
-      <c r="I83" s="48"/>
-      <c r="J83" s="46"/>
-      <c r="K83" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="L83" s="48"/>
-      <c r="M83" s="48"/>
-      <c r="N83" s="46"/>
-      <c r="O83" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="P83" s="48"/>
-      <c r="Q83" s="48"/>
-      <c r="R83" s="48"/>
-      <c r="S83" s="48"/>
-      <c r="T83" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="U83" s="48"/>
-      <c r="V83" s="48"/>
-      <c r="W83" s="48"/>
-      <c r="X83" s="46"/>
-      <c r="Y83" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z83" s="48"/>
-      <c r="AA83" s="48"/>
-      <c r="AB83" s="48"/>
-      <c r="AC83" s="48"/>
-      <c r="AD83" s="93" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE83" s="94"/>
-      <c r="AF83" s="94"/>
-      <c r="AG83" s="94"/>
-      <c r="AH83" s="94"/>
-      <c r="AI83" s="94"/>
-      <c r="AJ83" s="94"/>
-      <c r="AK83" s="94"/>
-      <c r="AL83" s="94"/>
-      <c r="AM83" s="94"/>
-      <c r="AN83" s="94"/>
-      <c r="AO83" s="95"/>
-      <c r="BA83" s="20"/>
-    </row>
-    <row r="84" spans="1:68">
-      <c r="A84" s="32"/>
-      <c r="B84" s="45">
-        <v>5</v>
-      </c>
-      <c r="C84" s="46"/>
-      <c r="D84" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="48"/>
-      <c r="I84" s="48"/>
-      <c r="J84" s="46"/>
-      <c r="K84" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="L84" s="48"/>
-      <c r="M84" s="48"/>
-      <c r="N84" s="46"/>
-      <c r="O84" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="P84" s="48"/>
-      <c r="Q84" s="48"/>
-      <c r="R84" s="48"/>
-      <c r="S84" s="48"/>
-      <c r="T84" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="U84" s="48"/>
-      <c r="V84" s="48"/>
-      <c r="W84" s="48"/>
-      <c r="X84" s="46"/>
-      <c r="Y84" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z84" s="48"/>
-      <c r="AA84" s="48"/>
-      <c r="AB84" s="48"/>
-      <c r="AC84" s="48"/>
-      <c r="AD84" s="93" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE84" s="94"/>
-      <c r="AF84" s="94"/>
-      <c r="AG84" s="94"/>
-      <c r="AH84" s="94"/>
-      <c r="AI84" s="94"/>
-      <c r="AJ84" s="94"/>
-      <c r="AK84" s="94"/>
-      <c r="AL84" s="94"/>
-      <c r="AM84" s="94"/>
-      <c r="AN84" s="94"/>
-      <c r="AO84" s="95"/>
+      <c r="AE84" s="41"/>
+      <c r="AF84" s="41"/>
+      <c r="AG84" s="41"/>
+      <c r="AH84" s="41"/>
+      <c r="AI84" s="41"/>
+      <c r="AJ84" s="41"/>
+      <c r="AK84" s="41"/>
+      <c r="AL84" s="41"/>
+      <c r="AM84" s="41"/>
+      <c r="AN84" s="41"/>
+      <c r="AO84" s="43"/>
       <c r="BA84" s="20"/>
     </row>
-    <row r="85" spans="1:68" ht="36" customHeight="1">
+    <row r="85" spans="1:53">
       <c r="A85" s="32"/>
       <c r="B85" s="45">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C85" s="46"/>
       <c r="D85" s="47" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E85" s="48"/>
       <c r="F85" s="48"/>
@@ -9487,50 +11014,50 @@
       <c r="M85" s="48"/>
       <c r="N85" s="46"/>
       <c r="O85" s="47" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="P85" s="48"/>
       <c r="Q85" s="48"/>
       <c r="R85" s="48"/>
       <c r="S85" s="48"/>
       <c r="T85" s="47" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="U85" s="48"/>
       <c r="V85" s="48"/>
       <c r="W85" s="48"/>
       <c r="X85" s="46"/>
-      <c r="Y85" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z85" s="48"/>
-      <c r="AA85" s="48"/>
-      <c r="AB85" s="48"/>
-      <c r="AC85" s="48"/>
-      <c r="AD85" s="93" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE85" s="94"/>
-      <c r="AF85" s="94"/>
-      <c r="AG85" s="94"/>
-      <c r="AH85" s="94"/>
-      <c r="AI85" s="94"/>
-      <c r="AJ85" s="94"/>
-      <c r="AK85" s="94"/>
-      <c r="AL85" s="94"/>
-      <c r="AM85" s="94"/>
-      <c r="AN85" s="94"/>
-      <c r="AO85" s="95"/>
+      <c r="Y85" s="87">
+        <v>9999999999</v>
+      </c>
+      <c r="Z85" s="88"/>
+      <c r="AA85" s="88"/>
+      <c r="AB85" s="88"/>
+      <c r="AC85" s="89"/>
+      <c r="AD85" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE85" s="48"/>
+      <c r="AF85" s="48"/>
+      <c r="AG85" s="48"/>
+      <c r="AH85" s="48"/>
+      <c r="AI85" s="48"/>
+      <c r="AJ85" s="48"/>
+      <c r="AK85" s="48"/>
+      <c r="AL85" s="48"/>
+      <c r="AM85" s="48"/>
+      <c r="AN85" s="48"/>
+      <c r="AO85" s="46"/>
       <c r="BA85" s="20"/>
     </row>
-    <row r="86" spans="1:68">
+    <row r="86" spans="1:53">
       <c r="A86" s="32"/>
       <c r="B86" s="45">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C86" s="46"/>
       <c r="D86" s="47" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E86" s="48"/>
       <c r="F86" s="48"/>
@@ -9566,7 +11093,7 @@
       <c r="AB86" s="48"/>
       <c r="AC86" s="48"/>
       <c r="AD86" s="47" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="AE86" s="48"/>
       <c r="AF86" s="48"/>
@@ -9581,795 +11108,1566 @@
       <c r="AO86" s="46"/>
       <c r="BA86" s="20"/>
     </row>
-    <row r="87" spans="1:68">
+    <row r="87" spans="1:53">
       <c r="A87" s="32"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="20"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="20"/>
-      <c r="J87" s="20"/>
-      <c r="K87" s="20"/>
-      <c r="L87" s="20"/>
-      <c r="M87" s="20"/>
-      <c r="N87" s="20"/>
-      <c r="O87" s="20"/>
-      <c r="P87" s="20"/>
-      <c r="Q87" s="20"/>
-      <c r="R87" s="20"/>
-      <c r="S87" s="20"/>
-      <c r="T87" s="20"/>
-      <c r="U87" s="20"/>
-      <c r="V87" s="20"/>
-      <c r="W87" s="20"/>
-      <c r="X87" s="20"/>
-      <c r="Y87" s="20"/>
-      <c r="Z87" s="20"/>
-      <c r="AA87" s="20"/>
-      <c r="AB87" s="20"/>
-      <c r="AC87" s="20"/>
-      <c r="AD87" s="20"/>
-      <c r="AE87" s="20"/>
-      <c r="AF87" s="20"/>
-      <c r="AG87" s="20"/>
-      <c r="AH87" s="20"/>
-      <c r="AI87" s="20"/>
-      <c r="AJ87" s="20"/>
-      <c r="AK87" s="20"/>
-      <c r="AL87" s="20"/>
-      <c r="AM87" s="20"/>
-      <c r="AN87" s="20"/>
-      <c r="AO87" s="20"/>
-      <c r="AP87" s="20"/>
-      <c r="AQ87" s="20"/>
-      <c r="AR87" s="20"/>
-      <c r="AS87" s="20"/>
-      <c r="AT87" s="20"/>
-      <c r="AU87" s="20"/>
-      <c r="AV87" s="20"/>
-      <c r="AW87" s="20"/>
-      <c r="AX87" s="20"/>
-      <c r="AY87" s="20"/>
-      <c r="AZ87" s="20"/>
+      <c r="B87" s="45">
+        <v>3</v>
+      </c>
+      <c r="C87" s="46"/>
+      <c r="D87" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="E87" s="48"/>
+      <c r="F87" s="48"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="48"/>
+      <c r="J87" s="46"/>
+      <c r="K87" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="L87" s="48"/>
+      <c r="M87" s="48"/>
+      <c r="N87" s="46"/>
+      <c r="O87" s="47"/>
+      <c r="P87" s="48"/>
+      <c r="Q87" s="48"/>
+      <c r="R87" s="48"/>
+      <c r="S87" s="48"/>
+      <c r="T87" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="U87" s="48"/>
+      <c r="V87" s="48"/>
+      <c r="W87" s="48"/>
+      <c r="X87" s="46"/>
+      <c r="Y87" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z87" s="48"/>
+      <c r="AA87" s="48"/>
+      <c r="AB87" s="48"/>
+      <c r="AC87" s="48"/>
+      <c r="AD87" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE87" s="48"/>
+      <c r="AF87" s="48"/>
+      <c r="AG87" s="48"/>
+      <c r="AH87" s="48"/>
+      <c r="AI87" s="48"/>
+      <c r="AJ87" s="48"/>
+      <c r="AK87" s="48"/>
+      <c r="AL87" s="48"/>
+      <c r="AM87" s="48"/>
+      <c r="AN87" s="48"/>
+      <c r="AO87" s="46"/>
       <c r="BA87" s="20"/>
     </row>
-    <row r="88" spans="1:68">
+    <row r="88" spans="1:53" ht="18" customHeight="1">
       <c r="A88" s="32"/>
-      <c r="B88" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="20"/>
-      <c r="K88" s="20"/>
-      <c r="L88" s="20"/>
-      <c r="M88" s="20"/>
-      <c r="N88" s="20"/>
-      <c r="O88" s="20"/>
-      <c r="P88" s="20"/>
-      <c r="Q88" s="20"/>
-      <c r="R88" s="20"/>
-      <c r="S88" s="20"/>
-      <c r="T88" s="20"/>
-      <c r="U88" s="20"/>
-      <c r="V88" s="20"/>
-      <c r="W88" s="20"/>
-      <c r="X88" s="20"/>
-      <c r="Y88" s="20"/>
-      <c r="Z88" s="20"/>
-      <c r="AA88" s="20"/>
-      <c r="AB88" s="20"/>
-      <c r="AC88" s="20"/>
-      <c r="AD88" s="20"/>
-      <c r="AE88" s="20"/>
-      <c r="AF88" s="20"/>
-      <c r="AG88" s="20"/>
-      <c r="AH88" s="20"/>
-      <c r="AI88" s="20"/>
-      <c r="AJ88" s="20"/>
-      <c r="AK88" s="20"/>
-      <c r="AL88" s="20"/>
-      <c r="AM88" s="20"/>
-      <c r="AN88" s="20"/>
-      <c r="AO88" s="20"/>
-      <c r="AP88" s="20"/>
-      <c r="AQ88" s="20"/>
-      <c r="AR88" s="20"/>
-      <c r="AS88" s="20"/>
-      <c r="AT88" s="20"/>
-      <c r="AU88" s="20"/>
-      <c r="AV88" s="20"/>
-      <c r="AW88" s="20"/>
-      <c r="AX88" s="20"/>
-      <c r="AY88" s="20"/>
-      <c r="AZ88" s="20"/>
+      <c r="B88" s="45">
+        <v>4</v>
+      </c>
+      <c r="C88" s="46"/>
+      <c r="D88" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="E88" s="48"/>
+      <c r="F88" s="48"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="48"/>
+      <c r="J88" s="46"/>
+      <c r="K88" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="L88" s="48"/>
+      <c r="M88" s="48"/>
+      <c r="N88" s="46"/>
+      <c r="O88" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="P88" s="48"/>
+      <c r="Q88" s="48"/>
+      <c r="R88" s="48"/>
+      <c r="S88" s="48"/>
+      <c r="T88" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="U88" s="48"/>
+      <c r="V88" s="48"/>
+      <c r="W88" s="48"/>
+      <c r="X88" s="46"/>
+      <c r="Y88" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z88" s="48"/>
+      <c r="AA88" s="48"/>
+      <c r="AB88" s="48"/>
+      <c r="AC88" s="48"/>
+      <c r="AD88" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE88" s="94"/>
+      <c r="AF88" s="94"/>
+      <c r="AG88" s="94"/>
+      <c r="AH88" s="94"/>
+      <c r="AI88" s="94"/>
+      <c r="AJ88" s="94"/>
+      <c r="AK88" s="94"/>
+      <c r="AL88" s="94"/>
+      <c r="AM88" s="94"/>
+      <c r="AN88" s="94"/>
+      <c r="AO88" s="95"/>
       <c r="BA88" s="20"/>
     </row>
-    <row r="89" spans="1:68" s="44" customFormat="1">
+    <row r="89" spans="1:53">
       <c r="A89" s="32"/>
-      <c r="B89" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C89" s="39"/>
-      <c r="D89" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="E89" s="42"/>
-      <c r="F89" s="42"/>
-      <c r="G89" s="42"/>
-      <c r="H89" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="I89" s="34"/>
-      <c r="J89" s="34"/>
-      <c r="K89" s="34"/>
-      <c r="L89" s="34"/>
-      <c r="M89" s="34"/>
-      <c r="N89" s="40"/>
-      <c r="O89" s="90" t="s">
-        <v>34</v>
-      </c>
-      <c r="P89" s="91"/>
-      <c r="Q89" s="91"/>
-      <c r="R89" s="91"/>
-      <c r="S89" s="91"/>
-      <c r="T89" s="91"/>
-      <c r="U89" s="91"/>
-      <c r="V89" s="91"/>
-      <c r="W89" s="91"/>
-      <c r="X89" s="91"/>
-      <c r="Y89" s="91"/>
-      <c r="Z89" s="91"/>
-      <c r="AA89" s="91"/>
-      <c r="AB89" s="91"/>
-      <c r="AC89" s="91"/>
-      <c r="AD89" s="92"/>
-      <c r="AE89" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF89" s="41"/>
-      <c r="AG89" s="41"/>
-      <c r="AH89" s="41"/>
-      <c r="AI89" s="41"/>
-      <c r="AJ89" s="41"/>
-      <c r="AK89" s="41"/>
-      <c r="AL89" s="41"/>
-      <c r="AM89" s="41"/>
-      <c r="AN89" s="42"/>
-      <c r="AO89" s="42"/>
-      <c r="AP89" s="42"/>
-      <c r="AQ89" s="42"/>
-      <c r="AR89" s="42"/>
-      <c r="AS89" s="42"/>
-      <c r="AT89" s="42"/>
-      <c r="AU89" s="42"/>
-      <c r="AV89" s="42"/>
-      <c r="AW89" s="39"/>
-      <c r="AX89" s="49"/>
-      <c r="AY89" s="49"/>
-      <c r="AZ89" s="49"/>
-      <c r="BA89" s="49"/>
-      <c r="BB89" s="49"/>
-      <c r="BC89" s="49"/>
-      <c r="BD89" s="49"/>
-      <c r="BE89" s="49"/>
-      <c r="BF89" s="49"/>
-      <c r="BG89" s="49"/>
-      <c r="BH89" s="49"/>
-      <c r="BI89" s="20"/>
-      <c r="BJ89" s="20"/>
-      <c r="BK89" s="20"/>
-      <c r="BL89" s="20"/>
-      <c r="BM89" s="20"/>
-      <c r="BN89" s="20"/>
-      <c r="BO89" s="20"/>
-      <c r="BP89" s="22"/>
-    </row>
-    <row r="90" spans="1:68">
+      <c r="B89" s="45">
+        <v>5</v>
+      </c>
+      <c r="C89" s="46"/>
+      <c r="D89" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="E89" s="48"/>
+      <c r="F89" s="48"/>
+      <c r="G89" s="48"/>
+      <c r="H89" s="48"/>
+      <c r="I89" s="48"/>
+      <c r="J89" s="46"/>
+      <c r="K89" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="L89" s="48"/>
+      <c r="M89" s="48"/>
+      <c r="N89" s="46"/>
+      <c r="O89" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="P89" s="48"/>
+      <c r="Q89" s="48"/>
+      <c r="R89" s="48"/>
+      <c r="S89" s="48"/>
+      <c r="T89" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="U89" s="48"/>
+      <c r="V89" s="48"/>
+      <c r="W89" s="48"/>
+      <c r="X89" s="46"/>
+      <c r="Y89" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z89" s="48"/>
+      <c r="AA89" s="48"/>
+      <c r="AB89" s="48"/>
+      <c r="AC89" s="48"/>
+      <c r="AD89" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE89" s="94"/>
+      <c r="AF89" s="94"/>
+      <c r="AG89" s="94"/>
+      <c r="AH89" s="94"/>
+      <c r="AI89" s="94"/>
+      <c r="AJ89" s="94"/>
+      <c r="AK89" s="94"/>
+      <c r="AL89" s="94"/>
+      <c r="AM89" s="94"/>
+      <c r="AN89" s="94"/>
+      <c r="AO89" s="95"/>
+      <c r="BA89" s="20"/>
+    </row>
+    <row r="90" spans="1:53" ht="36" customHeight="1">
       <c r="A90" s="32"/>
       <c r="B90" s="45">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C90" s="46"/>
-      <c r="D90" s="48">
-        <v>4</v>
+      <c r="D90" s="47" t="s">
+        <v>60</v>
       </c>
       <c r="E90" s="48"/>
       <c r="F90" s="48"/>
       <c r="G90" s="48"/>
-      <c r="H90" s="47" t="s">
-        <v>67</v>
-      </c>
+      <c r="H90" s="48"/>
       <c r="I90" s="48"/>
-      <c r="J90" s="48"/>
-      <c r="K90" s="48"/>
+      <c r="J90" s="46"/>
+      <c r="K90" s="47" t="s">
+        <v>19</v>
+      </c>
       <c r="L90" s="48"/>
       <c r="M90" s="48"/>
       <c r="N90" s="46"/>
-      <c r="O90" s="87" t="s">
-        <v>35</v>
-      </c>
-      <c r="P90" s="88"/>
-      <c r="Q90" s="88"/>
-      <c r="R90" s="88"/>
-      <c r="S90" s="88"/>
-      <c r="T90" s="88"/>
-      <c r="U90" s="88"/>
-      <c r="V90" s="88"/>
-      <c r="W90" s="88"/>
-      <c r="X90" s="88"/>
-      <c r="Y90" s="88"/>
-      <c r="Z90" s="88"/>
-      <c r="AA90" s="88"/>
-      <c r="AB90" s="88"/>
-      <c r="AC90" s="88"/>
-      <c r="AD90" s="89"/>
-      <c r="AE90" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF90" s="48"/>
-      <c r="AG90" s="48"/>
-      <c r="AH90" s="48"/>
-      <c r="AI90" s="48"/>
-      <c r="AJ90" s="48"/>
-      <c r="AK90" s="48"/>
-      <c r="AL90" s="48"/>
-      <c r="AM90" s="48"/>
-      <c r="AN90" s="48"/>
-      <c r="AO90" s="48"/>
-      <c r="AP90" s="48"/>
-      <c r="AQ90" s="48"/>
-      <c r="AR90" s="48"/>
-      <c r="AS90" s="48"/>
-      <c r="AT90" s="48"/>
-      <c r="AU90" s="48"/>
-      <c r="AV90" s="48"/>
-      <c r="AW90" s="46"/>
-      <c r="AX90" s="26"/>
-      <c r="AY90" s="26"/>
-      <c r="AZ90" s="26"/>
-      <c r="BA90" s="26"/>
-      <c r="BB90" s="26"/>
-      <c r="BC90" s="26"/>
-      <c r="BD90" s="26"/>
-      <c r="BE90" s="26"/>
-      <c r="BF90" s="26"/>
-      <c r="BG90" s="26"/>
-      <c r="BH90" s="26"/>
-      <c r="BI90" s="20"/>
-      <c r="BJ90" s="21"/>
-      <c r="BK90" s="21"/>
-      <c r="BL90" s="21"/>
-      <c r="BM90" s="21"/>
-      <c r="BN90" s="21"/>
-      <c r="BO90" s="21"/>
-    </row>
-    <row r="91" spans="1:68" ht="36.75" customHeight="1">
+      <c r="O90" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="P90" s="48"/>
+      <c r="Q90" s="48"/>
+      <c r="R90" s="48"/>
+      <c r="S90" s="48"/>
+      <c r="T90" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="U90" s="48"/>
+      <c r="V90" s="48"/>
+      <c r="W90" s="48"/>
+      <c r="X90" s="46"/>
+      <c r="Y90" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z90" s="48"/>
+      <c r="AA90" s="48"/>
+      <c r="AB90" s="48"/>
+      <c r="AC90" s="48"/>
+      <c r="AD90" s="93" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE90" s="94"/>
+      <c r="AF90" s="94"/>
+      <c r="AG90" s="94"/>
+      <c r="AH90" s="94"/>
+      <c r="AI90" s="94"/>
+      <c r="AJ90" s="94"/>
+      <c r="AK90" s="94"/>
+      <c r="AL90" s="94"/>
+      <c r="AM90" s="94"/>
+      <c r="AN90" s="94"/>
+      <c r="AO90" s="95"/>
+      <c r="BA90" s="20"/>
+    </row>
+    <row r="91" spans="1:53" ht="16" customHeight="1">
       <c r="A91" s="32"/>
       <c r="B91" s="45">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C91" s="46"/>
-      <c r="D91" s="48">
-        <v>5</v>
+      <c r="D91" s="47" t="s">
+        <v>61</v>
       </c>
       <c r="E91" s="48"/>
       <c r="F91" s="48"/>
       <c r="G91" s="48"/>
-      <c r="H91" s="47" t="s">
-        <v>59</v>
-      </c>
+      <c r="H91" s="48"/>
       <c r="I91" s="48"/>
-      <c r="J91" s="48"/>
-      <c r="K91" s="48"/>
+      <c r="J91" s="46"/>
+      <c r="K91" s="47" t="s">
+        <v>19</v>
+      </c>
       <c r="L91" s="48"/>
       <c r="M91" s="48"/>
       <c r="N91" s="46"/>
-      <c r="O91" s="87" t="s">
-        <v>35</v>
-      </c>
-      <c r="P91" s="88"/>
-      <c r="Q91" s="88"/>
-      <c r="R91" s="88"/>
-      <c r="S91" s="88"/>
-      <c r="T91" s="88"/>
-      <c r="U91" s="88"/>
-      <c r="V91" s="88"/>
-      <c r="W91" s="88" t="s">
-        <v>35</v>
-      </c>
-      <c r="X91" s="88"/>
-      <c r="Y91" s="88"/>
-      <c r="Z91" s="88"/>
-      <c r="AA91" s="88"/>
-      <c r="AB91" s="88"/>
-      <c r="AC91" s="88"/>
-      <c r="AD91" s="89"/>
-      <c r="AE91" s="93" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF91" s="94"/>
-      <c r="AG91" s="94"/>
-      <c r="AH91" s="94"/>
-      <c r="AI91" s="94"/>
-      <c r="AJ91" s="94"/>
-      <c r="AK91" s="94"/>
-      <c r="AL91" s="94"/>
-      <c r="AM91" s="94"/>
-      <c r="AN91" s="94"/>
-      <c r="AO91" s="94"/>
-      <c r="AP91" s="94"/>
-      <c r="AQ91" s="94"/>
-      <c r="AR91" s="94"/>
-      <c r="AS91" s="94"/>
-      <c r="AT91" s="94"/>
-      <c r="AU91" s="94"/>
-      <c r="AV91" s="94"/>
-      <c r="AW91" s="95"/>
-      <c r="AX91" s="26"/>
-      <c r="AY91" s="26"/>
-      <c r="AZ91" s="26"/>
-      <c r="BA91" s="26"/>
-      <c r="BB91" s="26"/>
-      <c r="BC91" s="26"/>
-      <c r="BD91" s="26"/>
-      <c r="BE91" s="26"/>
-      <c r="BF91" s="26"/>
-      <c r="BG91" s="26"/>
-      <c r="BH91" s="26"/>
-      <c r="BI91" s="20"/>
-      <c r="BJ91" s="21"/>
-      <c r="BK91" s="21"/>
-      <c r="BL91" s="21"/>
-      <c r="BM91" s="21"/>
-      <c r="BN91" s="21"/>
-      <c r="BO91" s="21"/>
-    </row>
-    <row r="92" spans="1:68">
+      <c r="O91" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="P91" s="48"/>
+      <c r="Q91" s="48"/>
+      <c r="R91" s="48"/>
+      <c r="S91" s="48"/>
+      <c r="T91" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="U91" s="48"/>
+      <c r="V91" s="48"/>
+      <c r="W91" s="48"/>
+      <c r="X91" s="46"/>
+      <c r="Y91" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z91" s="48"/>
+      <c r="AA91" s="48"/>
+      <c r="AB91" s="48"/>
+      <c r="AC91" s="48"/>
+      <c r="AD91" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE91" s="48"/>
+      <c r="AF91" s="48"/>
+      <c r="AG91" s="48"/>
+      <c r="AH91" s="48"/>
+      <c r="AI91" s="48"/>
+      <c r="AJ91" s="48"/>
+      <c r="AK91" s="48"/>
+      <c r="AL91" s="48"/>
+      <c r="AM91" s="48"/>
+      <c r="AN91" s="48"/>
+      <c r="AO91" s="46"/>
+      <c r="BA91" s="20"/>
+    </row>
+    <row r="92" spans="1:53" ht="16" customHeight="1">
       <c r="A92" s="32"/>
       <c r="B92" s="45">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C92" s="46"/>
-      <c r="D92" s="48" t="s">
-        <v>31</v>
+      <c r="D92" s="47" t="s">
+        <v>91</v>
       </c>
       <c r="E92" s="48"/>
       <c r="F92" s="48"/>
       <c r="G92" s="48"/>
-      <c r="H92" s="47" t="s">
-        <v>75</v>
-      </c>
+      <c r="H92" s="48"/>
       <c r="I92" s="48"/>
-      <c r="J92" s="48"/>
-      <c r="K92" s="48"/>
+      <c r="J92" s="46"/>
+      <c r="K92" s="47" t="s">
+        <v>30</v>
+      </c>
       <c r="L92" s="48"/>
       <c r="M92" s="48"/>
       <c r="N92" s="46"/>
-      <c r="O92" s="87" t="s">
-        <v>84</v>
-      </c>
-      <c r="P92" s="88"/>
-      <c r="Q92" s="88"/>
-      <c r="R92" s="88"/>
-      <c r="S92" s="88"/>
-      <c r="T92" s="88"/>
-      <c r="U92" s="88"/>
-      <c r="V92" s="88"/>
-      <c r="W92" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="X92" s="88"/>
-      <c r="Y92" s="88"/>
-      <c r="Z92" s="88"/>
-      <c r="AA92" s="88"/>
-      <c r="AB92" s="88"/>
-      <c r="AC92" s="88"/>
-      <c r="AD92" s="89"/>
-      <c r="AE92" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF92" s="48"/>
-      <c r="AG92" s="48"/>
-      <c r="AH92" s="48"/>
-      <c r="AI92" s="48"/>
-      <c r="AJ92" s="48"/>
-      <c r="AK92" s="48"/>
-      <c r="AL92" s="48"/>
-      <c r="AM92" s="48"/>
-      <c r="AN92" s="48"/>
-      <c r="AO92" s="48"/>
-      <c r="AP92" s="48"/>
-      <c r="AQ92" s="48"/>
-      <c r="AR92" s="48"/>
-      <c r="AS92" s="48"/>
-      <c r="AT92" s="48"/>
-      <c r="AU92" s="48"/>
-      <c r="AV92" s="48"/>
-      <c r="AW92" s="46"/>
-      <c r="AX92" s="26"/>
-      <c r="AY92" s="26"/>
-      <c r="AZ92" s="26"/>
-      <c r="BA92" s="26"/>
-      <c r="BB92" s="26"/>
-      <c r="BC92" s="26"/>
-      <c r="BD92" s="26"/>
-      <c r="BE92" s="26"/>
-      <c r="BF92" s="26"/>
-      <c r="BG92" s="26"/>
-      <c r="BH92" s="26"/>
-      <c r="BI92" s="20"/>
-      <c r="BJ92" s="21"/>
-      <c r="BK92" s="21"/>
-      <c r="BL92" s="21"/>
-      <c r="BM92" s="21"/>
-      <c r="BN92" s="21"/>
-      <c r="BO92" s="21"/>
-    </row>
-    <row r="93" spans="1:68">
+      <c r="O92" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="P92" s="48"/>
+      <c r="Q92" s="48"/>
+      <c r="R92" s="48"/>
+      <c r="S92" s="48"/>
+      <c r="T92" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="U92" s="48"/>
+      <c r="V92" s="48"/>
+      <c r="W92" s="48"/>
+      <c r="X92" s="46"/>
+      <c r="Y92" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z92" s="48"/>
+      <c r="AA92" s="48"/>
+      <c r="AB92" s="48"/>
+      <c r="AC92" s="48"/>
+      <c r="AD92" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE92" s="94"/>
+      <c r="AF92" s="94"/>
+      <c r="AG92" s="94"/>
+      <c r="AH92" s="94"/>
+      <c r="AI92" s="94"/>
+      <c r="AJ92" s="94"/>
+      <c r="AK92" s="94"/>
+      <c r="AL92" s="94"/>
+      <c r="AM92" s="94"/>
+      <c r="AN92" s="94"/>
+      <c r="AO92" s="95"/>
+      <c r="BA92" s="20"/>
+    </row>
+    <row r="93" spans="1:53" ht="36" customHeight="1">
       <c r="A93" s="32"/>
       <c r="B93" s="45">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C93" s="46"/>
-      <c r="D93" s="48" t="s">
-        <v>31</v>
+      <c r="D93" s="47" t="s">
+        <v>92</v>
       </c>
       <c r="E93" s="48"/>
       <c r="F93" s="48"/>
       <c r="G93" s="48"/>
-      <c r="H93" s="47" t="s">
-        <v>76</v>
-      </c>
+      <c r="H93" s="48"/>
       <c r="I93" s="48"/>
-      <c r="J93" s="48"/>
-      <c r="K93" s="48"/>
+      <c r="J93" s="46"/>
+      <c r="K93" s="47" t="s">
+        <v>30</v>
+      </c>
       <c r="L93" s="48"/>
       <c r="M93" s="48"/>
       <c r="N93" s="46"/>
-      <c r="O93" s="87" t="s">
-        <v>85</v>
-      </c>
-      <c r="P93" s="88"/>
-      <c r="Q93" s="88"/>
-      <c r="R93" s="88"/>
-      <c r="S93" s="88"/>
-      <c r="T93" s="88"/>
-      <c r="U93" s="88"/>
-      <c r="V93" s="88"/>
-      <c r="W93" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="X93" s="88"/>
-      <c r="Y93" s="88"/>
-      <c r="Z93" s="88"/>
-      <c r="AA93" s="88"/>
-      <c r="AB93" s="88"/>
-      <c r="AC93" s="88"/>
-      <c r="AD93" s="89"/>
-      <c r="AE93" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF93" s="48"/>
-      <c r="AG93" s="48"/>
-      <c r="AH93" s="48"/>
-      <c r="AI93" s="48"/>
-      <c r="AJ93" s="48"/>
-      <c r="AK93" s="48"/>
-      <c r="AL93" s="48"/>
-      <c r="AM93" s="48"/>
-      <c r="AN93" s="48"/>
-      <c r="AO93" s="48"/>
-      <c r="AP93" s="48"/>
-      <c r="AQ93" s="48"/>
-      <c r="AR93" s="48"/>
-      <c r="AS93" s="48"/>
-      <c r="AT93" s="48"/>
-      <c r="AU93" s="48"/>
-      <c r="AV93" s="48"/>
-      <c r="AW93" s="46"/>
-      <c r="AX93" s="26"/>
-      <c r="AY93" s="26"/>
-      <c r="AZ93" s="26"/>
-      <c r="BA93" s="26"/>
-      <c r="BB93" s="26"/>
-      <c r="BC93" s="26"/>
-      <c r="BD93" s="26"/>
-      <c r="BE93" s="26"/>
-      <c r="BF93" s="26"/>
-      <c r="BG93" s="26"/>
-      <c r="BH93" s="26"/>
-      <c r="BI93" s="20"/>
-      <c r="BJ93" s="21"/>
-      <c r="BK93" s="21"/>
-      <c r="BL93" s="21"/>
-      <c r="BM93" s="21"/>
-      <c r="BN93" s="21"/>
-      <c r="BO93" s="21"/>
-    </row>
-    <row r="94" spans="1:68">
+      <c r="O93" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="P93" s="48"/>
+      <c r="Q93" s="48"/>
+      <c r="R93" s="48"/>
+      <c r="S93" s="48"/>
+      <c r="T93" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="U93" s="48"/>
+      <c r="V93" s="48"/>
+      <c r="W93" s="48"/>
+      <c r="X93" s="46"/>
+      <c r="Y93" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z93" s="48"/>
+      <c r="AA93" s="48"/>
+      <c r="AB93" s="48"/>
+      <c r="AC93" s="48"/>
+      <c r="AD93" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE93" s="94"/>
+      <c r="AF93" s="94"/>
+      <c r="AG93" s="94"/>
+      <c r="AH93" s="94"/>
+      <c r="AI93" s="94"/>
+      <c r="AJ93" s="94"/>
+      <c r="AK93" s="94"/>
+      <c r="AL93" s="94"/>
+      <c r="AM93" s="94"/>
+      <c r="AN93" s="94"/>
+      <c r="AO93" s="95"/>
+      <c r="BA93" s="20"/>
+    </row>
+    <row r="94" spans="1:53" ht="16" customHeight="1">
       <c r="A94" s="32"/>
       <c r="B94" s="45">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C94" s="46"/>
-      <c r="D94" s="48" t="s">
-        <v>31</v>
+      <c r="D94" s="47" t="s">
+        <v>77</v>
       </c>
       <c r="E94" s="48"/>
       <c r="F94" s="48"/>
       <c r="G94" s="48"/>
-      <c r="H94" s="47" t="s">
-        <v>77</v>
-      </c>
+      <c r="H94" s="48"/>
       <c r="I94" s="48"/>
-      <c r="J94" s="48"/>
-      <c r="K94" s="48"/>
+      <c r="J94" s="46"/>
+      <c r="K94" s="47" t="s">
+        <v>30</v>
+      </c>
       <c r="L94" s="48"/>
       <c r="M94" s="48"/>
       <c r="N94" s="46"/>
-      <c r="O94" s="87" t="s">
-        <v>86</v>
-      </c>
-      <c r="P94" s="88"/>
-      <c r="Q94" s="88"/>
-      <c r="R94" s="88"/>
-      <c r="S94" s="88"/>
-      <c r="T94" s="88"/>
-      <c r="U94" s="88"/>
-      <c r="V94" s="88"/>
-      <c r="W94" s="88" t="s">
+      <c r="O94" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="P94" s="48"/>
+      <c r="Q94" s="48"/>
+      <c r="R94" s="48"/>
+      <c r="S94" s="48"/>
+      <c r="T94" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="U94" s="48"/>
+      <c r="V94" s="48"/>
+      <c r="W94" s="48"/>
+      <c r="X94" s="46"/>
+      <c r="Y94" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z94" s="48"/>
+      <c r="AA94" s="48"/>
+      <c r="AB94" s="48"/>
+      <c r="AC94" s="48"/>
+      <c r="AD94" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE94" s="94"/>
+      <c r="AF94" s="94"/>
+      <c r="AG94" s="94"/>
+      <c r="AH94" s="94"/>
+      <c r="AI94" s="94"/>
+      <c r="AJ94" s="94"/>
+      <c r="AK94" s="94"/>
+      <c r="AL94" s="94"/>
+      <c r="AM94" s="94"/>
+      <c r="AN94" s="94"/>
+      <c r="AO94" s="95"/>
+      <c r="BA94" s="20"/>
+    </row>
+    <row r="95" spans="1:53" ht="16" customHeight="1">
+      <c r="A95" s="32"/>
+      <c r="B95" s="45">
+        <v>11</v>
+      </c>
+      <c r="C95" s="46"/>
+      <c r="D95" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="E95" s="48"/>
+      <c r="F95" s="48"/>
+      <c r="G95" s="48"/>
+      <c r="H95" s="48"/>
+      <c r="I95" s="48"/>
+      <c r="J95" s="46"/>
+      <c r="K95" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="L95" s="48"/>
+      <c r="M95" s="48"/>
+      <c r="N95" s="46"/>
+      <c r="O95" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="P95" s="48"/>
+      <c r="Q95" s="48"/>
+      <c r="R95" s="48"/>
+      <c r="S95" s="48"/>
+      <c r="T95" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="U95" s="48"/>
+      <c r="V95" s="48"/>
+      <c r="W95" s="48"/>
+      <c r="X95" s="46"/>
+      <c r="Y95" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z95" s="48"/>
+      <c r="AA95" s="48"/>
+      <c r="AB95" s="48"/>
+      <c r="AC95" s="48"/>
+      <c r="AD95" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE95" s="94"/>
+      <c r="AF95" s="94"/>
+      <c r="AG95" s="94"/>
+      <c r="AH95" s="94"/>
+      <c r="AI95" s="94"/>
+      <c r="AJ95" s="94"/>
+      <c r="AK95" s="94"/>
+      <c r="AL95" s="94"/>
+      <c r="AM95" s="94"/>
+      <c r="AN95" s="94"/>
+      <c r="AO95" s="95"/>
+      <c r="BA95" s="20"/>
+    </row>
+    <row r="96" spans="1:53">
+      <c r="A96" s="32"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="20"/>
+      <c r="K96" s="20"/>
+      <c r="L96" s="20"/>
+      <c r="M96" s="20"/>
+      <c r="N96" s="20"/>
+      <c r="O96" s="20"/>
+      <c r="P96" s="20"/>
+      <c r="Q96" s="20"/>
+      <c r="R96" s="20"/>
+      <c r="S96" s="20"/>
+      <c r="T96" s="20"/>
+      <c r="U96" s="20"/>
+      <c r="V96" s="20"/>
+      <c r="W96" s="20"/>
+      <c r="X96" s="20"/>
+      <c r="Y96" s="20"/>
+      <c r="Z96" s="20"/>
+      <c r="AA96" s="20"/>
+      <c r="AB96" s="20"/>
+      <c r="AC96" s="20"/>
+      <c r="AD96" s="20"/>
+      <c r="AE96" s="20"/>
+      <c r="AF96" s="20"/>
+      <c r="AG96" s="20"/>
+      <c r="AH96" s="20"/>
+      <c r="AI96" s="20"/>
+      <c r="AJ96" s="20"/>
+      <c r="AK96" s="20"/>
+      <c r="AL96" s="20"/>
+      <c r="AM96" s="20"/>
+      <c r="AN96" s="20"/>
+      <c r="AO96" s="20"/>
+      <c r="AP96" s="20"/>
+      <c r="AQ96" s="20"/>
+      <c r="AR96" s="20"/>
+      <c r="AS96" s="20"/>
+      <c r="AT96" s="20"/>
+      <c r="AU96" s="20"/>
+      <c r="AV96" s="20"/>
+      <c r="AW96" s="20"/>
+      <c r="AX96" s="20"/>
+      <c r="AY96" s="20"/>
+      <c r="AZ96" s="20"/>
+      <c r="BA96" s="20"/>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="32"/>
+      <c r="B97" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="20"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="20"/>
+      <c r="K97" s="20"/>
+      <c r="L97" s="20"/>
+      <c r="M97" s="20"/>
+      <c r="N97" s="20"/>
+      <c r="O97" s="20"/>
+      <c r="P97" s="20"/>
+      <c r="Q97" s="20"/>
+      <c r="R97" s="20"/>
+      <c r="S97" s="20"/>
+      <c r="T97" s="20"/>
+      <c r="U97" s="20"/>
+      <c r="V97" s="20"/>
+      <c r="W97" s="20"/>
+      <c r="X97" s="20"/>
+      <c r="Y97" s="20"/>
+      <c r="Z97" s="20"/>
+      <c r="AA97" s="20"/>
+      <c r="AB97" s="20"/>
+      <c r="AC97" s="20"/>
+      <c r="AD97" s="20"/>
+      <c r="AE97" s="20"/>
+      <c r="AF97" s="20"/>
+      <c r="AG97" s="20"/>
+      <c r="AH97" s="20"/>
+      <c r="AI97" s="20"/>
+      <c r="AJ97" s="20"/>
+      <c r="AK97" s="20"/>
+      <c r="AL97" s="20"/>
+      <c r="AM97" s="20"/>
+      <c r="AN97" s="20"/>
+      <c r="AO97" s="20"/>
+      <c r="AP97" s="20"/>
+      <c r="AQ97" s="20"/>
+      <c r="AR97" s="20"/>
+      <c r="AS97" s="20"/>
+      <c r="AT97" s="20"/>
+      <c r="AU97" s="20"/>
+      <c r="AV97" s="20"/>
+      <c r="AW97" s="20"/>
+      <c r="AX97" s="20"/>
+      <c r="AY97" s="20"/>
+      <c r="AZ97" s="20"/>
+      <c r="BA97" s="20"/>
+    </row>
+    <row r="98" spans="1:68" s="44" customFormat="1">
+      <c r="A98" s="32"/>
+      <c r="B98" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="39"/>
+      <c r="D98" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="E98" s="42"/>
+      <c r="F98" s="42"/>
+      <c r="G98" s="42"/>
+      <c r="H98" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I98" s="34"/>
+      <c r="J98" s="34"/>
+      <c r="K98" s="34"/>
+      <c r="L98" s="34"/>
+      <c r="M98" s="34"/>
+      <c r="N98" s="40"/>
+      <c r="O98" s="90" t="s">
+        <v>34</v>
+      </c>
+      <c r="P98" s="91"/>
+      <c r="Q98" s="91"/>
+      <c r="R98" s="91"/>
+      <c r="S98" s="91"/>
+      <c r="T98" s="91"/>
+      <c r="U98" s="91"/>
+      <c r="V98" s="91"/>
+      <c r="W98" s="91"/>
+      <c r="X98" s="91"/>
+      <c r="Y98" s="91"/>
+      <c r="Z98" s="91"/>
+      <c r="AA98" s="91"/>
+      <c r="AB98" s="91"/>
+      <c r="AC98" s="91"/>
+      <c r="AD98" s="92"/>
+      <c r="AE98" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF98" s="41"/>
+      <c r="AG98" s="41"/>
+      <c r="AH98" s="41"/>
+      <c r="AI98" s="41"/>
+      <c r="AJ98" s="41"/>
+      <c r="AK98" s="41"/>
+      <c r="AL98" s="41"/>
+      <c r="AM98" s="41"/>
+      <c r="AN98" s="42"/>
+      <c r="AO98" s="42"/>
+      <c r="AP98" s="42"/>
+      <c r="AQ98" s="42"/>
+      <c r="AR98" s="42"/>
+      <c r="AS98" s="42"/>
+      <c r="AT98" s="42"/>
+      <c r="AU98" s="42"/>
+      <c r="AV98" s="42"/>
+      <c r="AW98" s="39"/>
+      <c r="AX98" s="49"/>
+      <c r="AY98" s="49"/>
+      <c r="AZ98" s="49"/>
+      <c r="BA98" s="49"/>
+      <c r="BB98" s="49"/>
+      <c r="BC98" s="49"/>
+      <c r="BD98" s="49"/>
+      <c r="BE98" s="49"/>
+      <c r="BF98" s="49"/>
+      <c r="BG98" s="49"/>
+      <c r="BH98" s="49"/>
+      <c r="BI98" s="20"/>
+      <c r="BJ98" s="20"/>
+      <c r="BK98" s="20"/>
+      <c r="BL98" s="20"/>
+      <c r="BM98" s="20"/>
+      <c r="BN98" s="20"/>
+      <c r="BO98" s="20"/>
+      <c r="BP98" s="22"/>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="32"/>
+      <c r="B99" s="45">
+        <v>1</v>
+      </c>
+      <c r="C99" s="46"/>
+      <c r="D99" s="48">
+        <v>4</v>
+      </c>
+      <c r="E99" s="48"/>
+      <c r="F99" s="48"/>
+      <c r="G99" s="48"/>
+      <c r="H99" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="I99" s="48"/>
+      <c r="J99" s="48"/>
+      <c r="K99" s="48"/>
+      <c r="L99" s="48"/>
+      <c r="M99" s="48"/>
+      <c r="N99" s="46"/>
+      <c r="O99" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="P99" s="88"/>
+      <c r="Q99" s="88"/>
+      <c r="R99" s="88"/>
+      <c r="S99" s="88"/>
+      <c r="T99" s="88"/>
+      <c r="U99" s="88"/>
+      <c r="V99" s="88"/>
+      <c r="W99" s="88"/>
+      <c r="X99" s="88"/>
+      <c r="Y99" s="88"/>
+      <c r="Z99" s="88"/>
+      <c r="AA99" s="88"/>
+      <c r="AB99" s="88"/>
+      <c r="AC99" s="88"/>
+      <c r="AD99" s="89"/>
+      <c r="AE99" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF99" s="48"/>
+      <c r="AG99" s="48"/>
+      <c r="AH99" s="48"/>
+      <c r="AI99" s="48"/>
+      <c r="AJ99" s="48"/>
+      <c r="AK99" s="48"/>
+      <c r="AL99" s="48"/>
+      <c r="AM99" s="48"/>
+      <c r="AN99" s="48"/>
+      <c r="AO99" s="48"/>
+      <c r="AP99" s="48"/>
+      <c r="AQ99" s="48"/>
+      <c r="AR99" s="48"/>
+      <c r="AS99" s="48"/>
+      <c r="AT99" s="48"/>
+      <c r="AU99" s="48"/>
+      <c r="AV99" s="48"/>
+      <c r="AW99" s="46"/>
+      <c r="AX99" s="26"/>
+      <c r="AY99" s="26"/>
+      <c r="AZ99" s="26"/>
+      <c r="BA99" s="26"/>
+      <c r="BB99" s="26"/>
+      <c r="BC99" s="26"/>
+      <c r="BD99" s="26"/>
+      <c r="BE99" s="26"/>
+      <c r="BF99" s="26"/>
+      <c r="BG99" s="26"/>
+      <c r="BH99" s="26"/>
+      <c r="BI99" s="20"/>
+      <c r="BJ99" s="21"/>
+      <c r="BK99" s="21"/>
+      <c r="BL99" s="21"/>
+      <c r="BM99" s="21"/>
+      <c r="BN99" s="21"/>
+      <c r="BO99" s="21"/>
+    </row>
+    <row r="100" spans="1:68" ht="36.75" customHeight="1">
+      <c r="A100" s="32"/>
+      <c r="B100" s="45">
+        <v>2</v>
+      </c>
+      <c r="C100" s="46"/>
+      <c r="D100" s="48">
+        <v>5</v>
+      </c>
+      <c r="E100" s="48"/>
+      <c r="F100" s="48"/>
+      <c r="G100" s="48"/>
+      <c r="H100" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="I100" s="48"/>
+      <c r="J100" s="48"/>
+      <c r="K100" s="48"/>
+      <c r="L100" s="48"/>
+      <c r="M100" s="48"/>
+      <c r="N100" s="46"/>
+      <c r="O100" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="P100" s="88"/>
+      <c r="Q100" s="88"/>
+      <c r="R100" s="88"/>
+      <c r="S100" s="88"/>
+      <c r="T100" s="88"/>
+      <c r="U100" s="88"/>
+      <c r="V100" s="88"/>
+      <c r="W100" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="X100" s="88"/>
+      <c r="Y100" s="88"/>
+      <c r="Z100" s="88"/>
+      <c r="AA100" s="88"/>
+      <c r="AB100" s="88"/>
+      <c r="AC100" s="88"/>
+      <c r="AD100" s="89"/>
+      <c r="AE100" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF100" s="94"/>
+      <c r="AG100" s="94"/>
+      <c r="AH100" s="94"/>
+      <c r="AI100" s="94"/>
+      <c r="AJ100" s="94"/>
+      <c r="AK100" s="94"/>
+      <c r="AL100" s="94"/>
+      <c r="AM100" s="94"/>
+      <c r="AN100" s="94"/>
+      <c r="AO100" s="94"/>
+      <c r="AP100" s="94"/>
+      <c r="AQ100" s="94"/>
+      <c r="AR100" s="94"/>
+      <c r="AS100" s="94"/>
+      <c r="AT100" s="94"/>
+      <c r="AU100" s="94"/>
+      <c r="AV100" s="94"/>
+      <c r="AW100" s="95"/>
+      <c r="AX100" s="26"/>
+      <c r="AY100" s="26"/>
+      <c r="AZ100" s="26"/>
+      <c r="BA100" s="26"/>
+      <c r="BB100" s="26"/>
+      <c r="BC100" s="26"/>
+      <c r="BD100" s="26"/>
+      <c r="BE100" s="26"/>
+      <c r="BF100" s="26"/>
+      <c r="BG100" s="26"/>
+      <c r="BH100" s="26"/>
+      <c r="BI100" s="20"/>
+      <c r="BJ100" s="21"/>
+      <c r="BK100" s="21"/>
+      <c r="BL100" s="21"/>
+      <c r="BM100" s="21"/>
+      <c r="BN100" s="21"/>
+      <c r="BO100" s="21"/>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="32"/>
+      <c r="B101" s="45">
+        <v>3</v>
+      </c>
+      <c r="C101" s="46"/>
+      <c r="D101" s="48">
+        <v>8</v>
+      </c>
+      <c r="E101" s="48"/>
+      <c r="F101" s="48"/>
+      <c r="G101" s="48"/>
+      <c r="H101" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="I101" s="48"/>
+      <c r="J101" s="48"/>
+      <c r="K101" s="48"/>
+      <c r="L101" s="48"/>
+      <c r="M101" s="48"/>
+      <c r="N101" s="46"/>
+      <c r="O101" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="P101" s="88"/>
+      <c r="Q101" s="88"/>
+      <c r="R101" s="88"/>
+      <c r="S101" s="88"/>
+      <c r="T101" s="88"/>
+      <c r="U101" s="88"/>
+      <c r="V101" s="88"/>
+      <c r="W101" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="X101" s="88"/>
+      <c r="Y101" s="88"/>
+      <c r="Z101" s="88"/>
+      <c r="AA101" s="88"/>
+      <c r="AB101" s="88"/>
+      <c r="AC101" s="88"/>
+      <c r="AD101" s="89"/>
+      <c r="AE101" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF101" s="48"/>
+      <c r="AG101" s="48"/>
+      <c r="AH101" s="48"/>
+      <c r="AI101" s="48"/>
+      <c r="AJ101" s="48"/>
+      <c r="AK101" s="48"/>
+      <c r="AL101" s="48"/>
+      <c r="AM101" s="48"/>
+      <c r="AN101" s="48"/>
+      <c r="AO101" s="48"/>
+      <c r="AP101" s="48"/>
+      <c r="AQ101" s="48"/>
+      <c r="AR101" s="48"/>
+      <c r="AS101" s="48"/>
+      <c r="AT101" s="48"/>
+      <c r="AU101" s="48"/>
+      <c r="AV101" s="48"/>
+      <c r="AW101" s="46"/>
+      <c r="AX101" s="26"/>
+      <c r="AY101" s="26"/>
+      <c r="AZ101" s="26"/>
+      <c r="BA101" s="26"/>
+      <c r="BB101" s="26"/>
+      <c r="BC101" s="26"/>
+      <c r="BD101" s="26"/>
+      <c r="BE101" s="26"/>
+      <c r="BF101" s="26"/>
+      <c r="BG101" s="26"/>
+      <c r="BH101" s="26"/>
+      <c r="BI101" s="20"/>
+      <c r="BJ101" s="21"/>
+      <c r="BK101" s="21"/>
+      <c r="BL101" s="21"/>
+      <c r="BM101" s="21"/>
+      <c r="BN101" s="21"/>
+      <c r="BO101" s="21"/>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="32"/>
+      <c r="B102" s="45">
+        <v>4</v>
+      </c>
+      <c r="C102" s="46"/>
+      <c r="D102" s="48">
+        <v>9</v>
+      </c>
+      <c r="E102" s="48"/>
+      <c r="F102" s="48"/>
+      <c r="G102" s="48"/>
+      <c r="H102" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="I102" s="48"/>
+      <c r="J102" s="48"/>
+      <c r="K102" s="48"/>
+      <c r="L102" s="48"/>
+      <c r="M102" s="48"/>
+      <c r="N102" s="46"/>
+      <c r="O102" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="P102" s="88"/>
+      <c r="Q102" s="88"/>
+      <c r="R102" s="88"/>
+      <c r="S102" s="88"/>
+      <c r="T102" s="88"/>
+      <c r="U102" s="88"/>
+      <c r="V102" s="88"/>
+      <c r="W102" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="X102" s="88"/>
+      <c r="Y102" s="88"/>
+      <c r="Z102" s="88"/>
+      <c r="AA102" s="88"/>
+      <c r="AB102" s="88"/>
+      <c r="AC102" s="88"/>
+      <c r="AD102" s="89"/>
+      <c r="AE102" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF102" s="48"/>
+      <c r="AG102" s="48"/>
+      <c r="AH102" s="48"/>
+      <c r="AI102" s="48"/>
+      <c r="AJ102" s="48"/>
+      <c r="AK102" s="48"/>
+      <c r="AL102" s="48"/>
+      <c r="AM102" s="48"/>
+      <c r="AN102" s="48"/>
+      <c r="AO102" s="48"/>
+      <c r="AP102" s="48"/>
+      <c r="AQ102" s="48"/>
+      <c r="AR102" s="48"/>
+      <c r="AS102" s="48"/>
+      <c r="AT102" s="48"/>
+      <c r="AU102" s="48"/>
+      <c r="AV102" s="48"/>
+      <c r="AW102" s="46"/>
+      <c r="AX102" s="26"/>
+      <c r="AY102" s="26"/>
+      <c r="AZ102" s="26"/>
+      <c r="BA102" s="26"/>
+      <c r="BB102" s="26"/>
+      <c r="BC102" s="26"/>
+      <c r="BD102" s="26"/>
+      <c r="BE102" s="26"/>
+      <c r="BF102" s="26"/>
+      <c r="BG102" s="26"/>
+      <c r="BH102" s="26"/>
+      <c r="BI102" s="20"/>
+      <c r="BJ102" s="21"/>
+      <c r="BK102" s="21"/>
+      <c r="BL102" s="21"/>
+      <c r="BM102" s="21"/>
+      <c r="BN102" s="21"/>
+      <c r="BO102" s="21"/>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="32"/>
+      <c r="B103" s="45">
+        <v>5</v>
+      </c>
+      <c r="C103" s="46"/>
+      <c r="D103" s="48">
+        <v>10</v>
+      </c>
+      <c r="E103" s="48"/>
+      <c r="F103" s="48"/>
+      <c r="G103" s="48"/>
+      <c r="H103" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="I103" s="48"/>
+      <c r="J103" s="48"/>
+      <c r="K103" s="48"/>
+      <c r="L103" s="48"/>
+      <c r="M103" s="48"/>
+      <c r="N103" s="46"/>
+      <c r="O103" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="P103" s="88"/>
+      <c r="Q103" s="88"/>
+      <c r="R103" s="88"/>
+      <c r="S103" s="88"/>
+      <c r="T103" s="88"/>
+      <c r="U103" s="88"/>
+      <c r="V103" s="88"/>
+      <c r="W103" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="X103" s="88"/>
+      <c r="Y103" s="88"/>
+      <c r="Z103" s="88"/>
+      <c r="AA103" s="88"/>
+      <c r="AB103" s="88"/>
+      <c r="AC103" s="88"/>
+      <c r="AD103" s="89"/>
+      <c r="AE103" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF103" s="48"/>
+      <c r="AG103" s="48"/>
+      <c r="AH103" s="48"/>
+      <c r="AI103" s="48"/>
+      <c r="AJ103" s="48"/>
+      <c r="AK103" s="48"/>
+      <c r="AL103" s="48"/>
+      <c r="AM103" s="48"/>
+      <c r="AN103" s="48"/>
+      <c r="AO103" s="48"/>
+      <c r="AP103" s="48"/>
+      <c r="AQ103" s="48"/>
+      <c r="AR103" s="48"/>
+      <c r="AS103" s="48"/>
+      <c r="AT103" s="48"/>
+      <c r="AU103" s="48"/>
+      <c r="AV103" s="48"/>
+      <c r="AW103" s="46"/>
+      <c r="AX103" s="26"/>
+      <c r="AY103" s="26"/>
+      <c r="AZ103" s="26"/>
+      <c r="BA103" s="26"/>
+      <c r="BB103" s="26"/>
+      <c r="BC103" s="26"/>
+      <c r="BD103" s="26"/>
+      <c r="BE103" s="26"/>
+      <c r="BF103" s="26"/>
+      <c r="BG103" s="26"/>
+      <c r="BH103" s="26"/>
+      <c r="BI103" s="20"/>
+      <c r="BJ103" s="21"/>
+      <c r="BK103" s="21"/>
+      <c r="BL103" s="21"/>
+      <c r="BM103" s="21"/>
+      <c r="BN103" s="21"/>
+      <c r="BO103" s="21"/>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="32"/>
+      <c r="B104" s="45">
+        <v>6</v>
+      </c>
+      <c r="C104" s="46"/>
+      <c r="D104" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E104" s="48"/>
+      <c r="F104" s="48"/>
+      <c r="G104" s="48"/>
+      <c r="H104" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="I104" s="48"/>
+      <c r="J104" s="48"/>
+      <c r="K104" s="48"/>
+      <c r="L104" s="48"/>
+      <c r="M104" s="48"/>
+      <c r="N104" s="46"/>
+      <c r="O104" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="P104" s="88"/>
+      <c r="Q104" s="88"/>
+      <c r="R104" s="88"/>
+      <c r="S104" s="88"/>
+      <c r="T104" s="88"/>
+      <c r="U104" s="88"/>
+      <c r="V104" s="88"/>
+      <c r="W104" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="X104" s="88"/>
+      <c r="Y104" s="88"/>
+      <c r="Z104" s="88"/>
+      <c r="AA104" s="88"/>
+      <c r="AB104" s="88"/>
+      <c r="AC104" s="88"/>
+      <c r="AD104" s="89"/>
+      <c r="AE104" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF104" s="48"/>
+      <c r="AG104" s="48"/>
+      <c r="AH104" s="48"/>
+      <c r="AI104" s="48"/>
+      <c r="AJ104" s="48"/>
+      <c r="AK104" s="48"/>
+      <c r="AL104" s="48"/>
+      <c r="AM104" s="48"/>
+      <c r="AN104" s="48"/>
+      <c r="AO104" s="48"/>
+      <c r="AP104" s="48"/>
+      <c r="AQ104" s="48"/>
+      <c r="AR104" s="48"/>
+      <c r="AS104" s="48"/>
+      <c r="AT104" s="48"/>
+      <c r="AU104" s="48"/>
+      <c r="AV104" s="48"/>
+      <c r="AW104" s="46"/>
+      <c r="AX104" s="26"/>
+      <c r="AY104" s="26"/>
+      <c r="AZ104" s="26"/>
+      <c r="BA104" s="26"/>
+      <c r="BB104" s="26"/>
+      <c r="BC104" s="26"/>
+      <c r="BD104" s="26"/>
+      <c r="BE104" s="26"/>
+      <c r="BF104" s="26"/>
+      <c r="BG104" s="26"/>
+      <c r="BH104" s="26"/>
+      <c r="BI104" s="20"/>
+      <c r="BJ104" s="21"/>
+      <c r="BK104" s="21"/>
+      <c r="BL104" s="21"/>
+      <c r="BM104" s="21"/>
+      <c r="BN104" s="21"/>
+      <c r="BO104" s="21"/>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="32"/>
+      <c r="B105" s="45">
+        <v>7</v>
+      </c>
+      <c r="C105" s="46"/>
+      <c r="D105" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E105" s="48"/>
+      <c r="F105" s="48"/>
+      <c r="G105" s="48"/>
+      <c r="H105" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="I105" s="48"/>
+      <c r="J105" s="48"/>
+      <c r="K105" s="48"/>
+      <c r="L105" s="48"/>
+      <c r="M105" s="48"/>
+      <c r="N105" s="46"/>
+      <c r="O105" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="P105" s="88"/>
+      <c r="Q105" s="88"/>
+      <c r="R105" s="88"/>
+      <c r="S105" s="88"/>
+      <c r="T105" s="88"/>
+      <c r="U105" s="88"/>
+      <c r="V105" s="88"/>
+      <c r="W105" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="X105" s="88"/>
+      <c r="Y105" s="88"/>
+      <c r="Z105" s="88"/>
+      <c r="AA105" s="88"/>
+      <c r="AB105" s="88"/>
+      <c r="AC105" s="88"/>
+      <c r="AD105" s="89"/>
+      <c r="AE105" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF105" s="48"/>
+      <c r="AG105" s="48"/>
+      <c r="AH105" s="48"/>
+      <c r="AI105" s="48"/>
+      <c r="AJ105" s="48"/>
+      <c r="AK105" s="48"/>
+      <c r="AL105" s="48"/>
+      <c r="AM105" s="48"/>
+      <c r="AN105" s="48"/>
+      <c r="AO105" s="48"/>
+      <c r="AP105" s="48"/>
+      <c r="AQ105" s="48"/>
+      <c r="AR105" s="48"/>
+      <c r="AS105" s="48"/>
+      <c r="AT105" s="48"/>
+      <c r="AU105" s="48"/>
+      <c r="AV105" s="48"/>
+      <c r="AW105" s="46"/>
+      <c r="AX105" s="26"/>
+      <c r="AY105" s="26"/>
+      <c r="AZ105" s="26"/>
+      <c r="BA105" s="26"/>
+      <c r="BB105" s="26"/>
+      <c r="BC105" s="26"/>
+      <c r="BD105" s="26"/>
+      <c r="BE105" s="26"/>
+      <c r="BF105" s="26"/>
+      <c r="BG105" s="26"/>
+      <c r="BH105" s="26"/>
+      <c r="BI105" s="20"/>
+      <c r="BJ105" s="21"/>
+      <c r="BK105" s="21"/>
+      <c r="BL105" s="21"/>
+      <c r="BM105" s="21"/>
+      <c r="BN105" s="21"/>
+      <c r="BO105" s="21"/>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="32"/>
+      <c r="B106" s="45">
+        <v>8</v>
+      </c>
+      <c r="C106" s="46"/>
+      <c r="D106" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E106" s="48"/>
+      <c r="F106" s="48"/>
+      <c r="G106" s="48"/>
+      <c r="H106" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="I106" s="48"/>
+      <c r="J106" s="48"/>
+      <c r="K106" s="48"/>
+      <c r="L106" s="48"/>
+      <c r="M106" s="48"/>
+      <c r="N106" s="46"/>
+      <c r="O106" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="X94" s="88"/>
-      <c r="Y94" s="88"/>
-      <c r="Z94" s="88"/>
-      <c r="AA94" s="88"/>
-      <c r="AB94" s="88"/>
-      <c r="AC94" s="88"/>
-      <c r="AD94" s="89"/>
-      <c r="AE94" s="47" t="s">
+      <c r="P106" s="88"/>
+      <c r="Q106" s="88"/>
+      <c r="R106" s="88"/>
+      <c r="S106" s="88"/>
+      <c r="T106" s="88"/>
+      <c r="U106" s="88"/>
+      <c r="V106" s="88"/>
+      <c r="W106" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="X106" s="88"/>
+      <c r="Y106" s="88"/>
+      <c r="Z106" s="88"/>
+      <c r="AA106" s="88"/>
+      <c r="AB106" s="88"/>
+      <c r="AC106" s="88"/>
+      <c r="AD106" s="89"/>
+      <c r="AE106" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="AF94" s="48"/>
-      <c r="AG94" s="48"/>
-      <c r="AH94" s="48"/>
-      <c r="AI94" s="48"/>
-      <c r="AJ94" s="48"/>
-      <c r="AK94" s="48"/>
-      <c r="AL94" s="48"/>
-      <c r="AM94" s="48"/>
-      <c r="AN94" s="48"/>
-      <c r="AO94" s="48"/>
-      <c r="AP94" s="48"/>
-      <c r="AQ94" s="48"/>
-      <c r="AR94" s="48"/>
-      <c r="AS94" s="48"/>
-      <c r="AT94" s="48"/>
-      <c r="AU94" s="48"/>
-      <c r="AV94" s="48"/>
-      <c r="AW94" s="46"/>
-      <c r="AX94" s="26"/>
-      <c r="AY94" s="26"/>
-      <c r="AZ94" s="26"/>
-      <c r="BA94" s="26"/>
-      <c r="BB94" s="26"/>
-      <c r="BC94" s="26"/>
-      <c r="BD94" s="26"/>
-      <c r="BE94" s="26"/>
-      <c r="BF94" s="26"/>
-      <c r="BG94" s="26"/>
-      <c r="BH94" s="26"/>
-      <c r="BI94" s="20"/>
-      <c r="BJ94" s="21"/>
-      <c r="BK94" s="21"/>
-      <c r="BL94" s="21"/>
-      <c r="BM94" s="21"/>
-      <c r="BN94" s="21"/>
-      <c r="BO94" s="21"/>
-    </row>
-    <row r="95" spans="1:68">
-      <c r="A95" s="32"/>
-      <c r="B95" s="19"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="20"/>
-      <c r="I95" s="20"/>
-      <c r="J95" s="20"/>
-      <c r="K95" s="20"/>
-      <c r="L95" s="20"/>
-      <c r="M95" s="20"/>
-      <c r="N95" s="20"/>
-      <c r="O95" s="20"/>
-      <c r="P95" s="20"/>
-      <c r="Q95" s="20"/>
-      <c r="R95" s="20"/>
-      <c r="S95" s="20"/>
-      <c r="T95" s="20"/>
-      <c r="U95" s="20"/>
-      <c r="V95" s="20"/>
-      <c r="W95" s="20"/>
-      <c r="X95" s="20"/>
-      <c r="Y95" s="20"/>
-      <c r="Z95" s="20"/>
-      <c r="AA95" s="20"/>
-      <c r="AB95" s="20"/>
-      <c r="AC95" s="20"/>
-      <c r="AD95" s="20"/>
-      <c r="AE95" s="20"/>
-      <c r="AF95" s="20"/>
-      <c r="AG95" s="20"/>
-      <c r="AH95" s="20"/>
-      <c r="AI95" s="20"/>
-      <c r="AJ95" s="20"/>
-      <c r="AK95" s="20"/>
-      <c r="AL95" s="20"/>
-      <c r="AM95" s="20"/>
-      <c r="AN95" s="20"/>
-      <c r="AO95" s="20"/>
-      <c r="AP95" s="20"/>
-      <c r="AQ95" s="20"/>
-      <c r="AR95" s="20"/>
-      <c r="AS95" s="20"/>
-      <c r="AT95" s="20"/>
-      <c r="AU95" s="20"/>
-      <c r="AV95" s="20"/>
-      <c r="AW95" s="20"/>
-      <c r="AX95" s="26"/>
-      <c r="AY95" s="26"/>
-      <c r="AZ95" s="26"/>
-      <c r="BA95" s="26"/>
-      <c r="BB95" s="26"/>
-      <c r="BC95" s="26"/>
-      <c r="BD95" s="26"/>
-      <c r="BE95" s="26"/>
-      <c r="BF95" s="26"/>
-      <c r="BG95" s="26"/>
-      <c r="BH95" s="26"/>
-      <c r="BI95" s="20"/>
-      <c r="BJ95" s="21"/>
-      <c r="BK95" s="21"/>
-      <c r="BL95" s="21"/>
-      <c r="BM95" s="21"/>
-      <c r="BN95" s="21"/>
-      <c r="BO95" s="21"/>
-    </row>
-    <row r="96" spans="1:68">
-      <c r="A96" s="50"/>
-      <c r="B96" s="51"/>
-      <c r="C96" s="51"/>
-      <c r="D96" s="48"/>
-      <c r="E96" s="48"/>
-      <c r="F96" s="48"/>
-      <c r="G96" s="48"/>
-      <c r="H96" s="48"/>
-      <c r="I96" s="48"/>
-      <c r="J96" s="48"/>
-      <c r="K96" s="48"/>
-      <c r="L96" s="48"/>
-      <c r="M96" s="48"/>
-      <c r="N96" s="48"/>
-      <c r="O96" s="48"/>
-      <c r="P96" s="48"/>
-      <c r="Q96" s="48"/>
-      <c r="R96" s="48"/>
-      <c r="S96" s="48"/>
-      <c r="T96" s="48"/>
-      <c r="U96" s="48"/>
-      <c r="V96" s="48"/>
-      <c r="W96" s="48"/>
-      <c r="X96" s="48"/>
-      <c r="Y96" s="48"/>
-      <c r="Z96" s="48"/>
-      <c r="AA96" s="48"/>
-      <c r="AB96" s="48"/>
-      <c r="AC96" s="48"/>
-      <c r="AD96" s="48"/>
-      <c r="AE96" s="48"/>
-      <c r="AF96" s="48"/>
-      <c r="AG96" s="48"/>
-      <c r="AH96" s="48"/>
-      <c r="AI96" s="48"/>
-      <c r="AJ96" s="48"/>
-      <c r="AK96" s="48"/>
-      <c r="AL96" s="48"/>
-      <c r="AM96" s="48"/>
-      <c r="AN96" s="48"/>
-      <c r="AO96" s="48"/>
-      <c r="AP96" s="48"/>
-      <c r="AQ96" s="48"/>
-      <c r="AR96" s="48"/>
-      <c r="AS96" s="48"/>
-      <c r="AT96" s="48"/>
-      <c r="AU96" s="48"/>
-      <c r="AV96" s="48"/>
-      <c r="AW96" s="48"/>
-      <c r="AX96" s="48"/>
-      <c r="AY96" s="48"/>
-      <c r="AZ96" s="48"/>
-      <c r="BA96" s="48"/>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="14"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-    </row>
-    <row r="98" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A98" s="14"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="13"/>
-      <c r="B99" s="13"/>
-      <c r="C99" s="52"/>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="13"/>
-      <c r="B100" s="52"/>
-      <c r="C100" s="52"/>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="13"/>
-      <c r="B101" s="13"/>
-      <c r="C101" s="52"/>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="13"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="52"/>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="13"/>
-      <c r="B103" s="52"/>
-      <c r="C103" s="52"/>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="13"/>
-      <c r="B104" s="13"/>
-      <c r="C104" s="52"/>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="13"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="52"/>
+      <c r="AF106" s="48"/>
+      <c r="AG106" s="48"/>
+      <c r="AH106" s="48"/>
+      <c r="AI106" s="48"/>
+      <c r="AJ106" s="48"/>
+      <c r="AK106" s="48"/>
+      <c r="AL106" s="48"/>
+      <c r="AM106" s="48"/>
+      <c r="AN106" s="48"/>
+      <c r="AO106" s="48"/>
+      <c r="AP106" s="48"/>
+      <c r="AQ106" s="48"/>
+      <c r="AR106" s="48"/>
+      <c r="AS106" s="48"/>
+      <c r="AT106" s="48"/>
+      <c r="AU106" s="48"/>
+      <c r="AV106" s="48"/>
+      <c r="AW106" s="46"/>
+      <c r="AX106" s="26"/>
+      <c r="AY106" s="26"/>
+      <c r="AZ106" s="26"/>
+      <c r="BA106" s="26"/>
+      <c r="BB106" s="26"/>
+      <c r="BC106" s="26"/>
+      <c r="BD106" s="26"/>
+      <c r="BE106" s="26"/>
+      <c r="BF106" s="26"/>
+      <c r="BG106" s="26"/>
+      <c r="BH106" s="26"/>
+      <c r="BI106" s="20"/>
+      <c r="BJ106" s="21"/>
+      <c r="BK106" s="21"/>
+      <c r="BL106" s="21"/>
+      <c r="BM106" s="21"/>
+      <c r="BN106" s="21"/>
+      <c r="BO106" s="21"/>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="32"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="20"/>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="20"/>
+      <c r="K107" s="20"/>
+      <c r="L107" s="20"/>
+      <c r="M107" s="20"/>
+      <c r="N107" s="20"/>
+      <c r="O107" s="20"/>
+      <c r="P107" s="20"/>
+      <c r="Q107" s="20"/>
+      <c r="R107" s="20"/>
+      <c r="S107" s="20"/>
+      <c r="T107" s="20"/>
+      <c r="U107" s="20"/>
+      <c r="V107" s="20"/>
+      <c r="W107" s="20"/>
+      <c r="X107" s="20"/>
+      <c r="Y107" s="20"/>
+      <c r="Z107" s="20"/>
+      <c r="AA107" s="20"/>
+      <c r="AB107" s="20"/>
+      <c r="AC107" s="20"/>
+      <c r="AD107" s="20"/>
+      <c r="AE107" s="20"/>
+      <c r="AF107" s="20"/>
+      <c r="AG107" s="20"/>
+      <c r="AH107" s="20"/>
+      <c r="AI107" s="20"/>
+      <c r="AJ107" s="20"/>
+      <c r="AK107" s="20"/>
+      <c r="AL107" s="20"/>
+      <c r="AM107" s="20"/>
+      <c r="AN107" s="20"/>
+      <c r="AO107" s="20"/>
+      <c r="AP107" s="20"/>
+      <c r="AQ107" s="20"/>
+      <c r="AR107" s="20"/>
+      <c r="AS107" s="20"/>
+      <c r="AT107" s="20"/>
+      <c r="AU107" s="20"/>
+      <c r="AV107" s="20"/>
+      <c r="AW107" s="20"/>
+      <c r="AX107" s="26"/>
+      <c r="AY107" s="26"/>
+      <c r="AZ107" s="26"/>
+      <c r="BA107" s="26"/>
+      <c r="BB107" s="26"/>
+      <c r="BC107" s="26"/>
+      <c r="BD107" s="26"/>
+      <c r="BE107" s="26"/>
+      <c r="BF107" s="26"/>
+      <c r="BG107" s="26"/>
+      <c r="BH107" s="26"/>
+      <c r="BI107" s="20"/>
+      <c r="BJ107" s="21"/>
+      <c r="BK107" s="21"/>
+      <c r="BL107" s="21"/>
+      <c r="BM107" s="21"/>
+      <c r="BN107" s="21"/>
+      <c r="BO107" s="21"/>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="50"/>
+      <c r="B108" s="51"/>
+      <c r="C108" s="51"/>
+      <c r="D108" s="48"/>
+      <c r="E108" s="48"/>
+      <c r="F108" s="48"/>
+      <c r="G108" s="48"/>
+      <c r="H108" s="48"/>
+      <c r="I108" s="48"/>
+      <c r="J108" s="48"/>
+      <c r="K108" s="48"/>
+      <c r="L108" s="48"/>
+      <c r="M108" s="48"/>
+      <c r="N108" s="48"/>
+      <c r="O108" s="48"/>
+      <c r="P108" s="48"/>
+      <c r="Q108" s="48"/>
+      <c r="R108" s="48"/>
+      <c r="S108" s="48"/>
+      <c r="T108" s="48"/>
+      <c r="U108" s="48"/>
+      <c r="V108" s="48"/>
+      <c r="W108" s="48"/>
+      <c r="X108" s="48"/>
+      <c r="Y108" s="48"/>
+      <c r="Z108" s="48"/>
+      <c r="AA108" s="48"/>
+      <c r="AB108" s="48"/>
+      <c r="AC108" s="48"/>
+      <c r="AD108" s="48"/>
+      <c r="AE108" s="48"/>
+      <c r="AF108" s="48"/>
+      <c r="AG108" s="48"/>
+      <c r="AH108" s="48"/>
+      <c r="AI108" s="48"/>
+      <c r="AJ108" s="48"/>
+      <c r="AK108" s="48"/>
+      <c r="AL108" s="48"/>
+      <c r="AM108" s="48"/>
+      <c r="AN108" s="48"/>
+      <c r="AO108" s="48"/>
+      <c r="AP108" s="48"/>
+      <c r="AQ108" s="48"/>
+      <c r="AR108" s="48"/>
+      <c r="AS108" s="48"/>
+      <c r="AT108" s="48"/>
+      <c r="AU108" s="48"/>
+      <c r="AV108" s="48"/>
+      <c r="AW108" s="48"/>
+      <c r="AX108" s="48"/>
+      <c r="AY108" s="48"/>
+      <c r="AZ108" s="48"/>
+      <c r="BA108" s="48"/>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="14"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+    </row>
+    <row r="110" spans="1:68" ht="18.75" customHeight="1">
+      <c r="A110" s="14"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="13"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="52"/>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="13"/>
+      <c r="B112" s="52"/>
+      <c r="C112" s="52"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="13"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="52"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="13"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="52"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="13"/>
+      <c r="B115" s="52"/>
+      <c r="C115" s="52"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="13"/>
+      <c r="B116" s="13"/>
+      <c r="C116" s="52"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="13"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="O92:AD92"/>
-    <mergeCell ref="O93:AD93"/>
-    <mergeCell ref="O94:AD94"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="Y80:AC80"/>
-    <mergeCell ref="AD83:AO83"/>
-    <mergeCell ref="AE91:AW91"/>
-    <mergeCell ref="AD84:AO84"/>
-    <mergeCell ref="AD85:AO85"/>
-    <mergeCell ref="O89:AD89"/>
-    <mergeCell ref="O90:AD90"/>
-    <mergeCell ref="O91:AD91"/>
+  <mergeCells count="19">
+    <mergeCell ref="O105:AD105"/>
+    <mergeCell ref="O104:AD104"/>
+    <mergeCell ref="O106:AD106"/>
+    <mergeCell ref="AD95:AO95"/>
+    <mergeCell ref="O101:AD101"/>
+    <mergeCell ref="O102:AD102"/>
+    <mergeCell ref="O103:AD103"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="Y85:AC85"/>
+    <mergeCell ref="AD88:AO88"/>
+    <mergeCell ref="AE100:AW100"/>
+    <mergeCell ref="AD89:AO89"/>
+    <mergeCell ref="AD90:AO90"/>
+    <mergeCell ref="O98:AD98"/>
+    <mergeCell ref="O99:AD99"/>
+    <mergeCell ref="O100:AD100"/>
+    <mergeCell ref="AD93:AO93"/>
+    <mergeCell ref="AD92:AO92"/>
+    <mergeCell ref="AD94:AO94"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="47" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;C&amp;F&amp;R&amp;D
 </oddHeader>
     <oddFooter>&amp;C-&amp;P&amp;'-</oddFooter>
   </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="95" max="57" man="1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="94" max="52" man="1"/>
+    <brk id="107" max="57" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
